--- a/wizard/FinishFetplan.xlsx
+++ b/wizard/FinishFetplan.xlsx
@@ -483,6 +483,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -492,15 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,12 +508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,11 +522,157 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -983,10 +1123,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1021,15 +1161,15 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="7">
         <v>8</v>
       </c>
@@ -1066,15 +1206,15 @@
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="7">
         <v>9</v>
       </c>
@@ -1116,15 +1256,15 @@
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="7">
         <v>1</v>
       </c>
@@ -1164,15 +1304,15 @@
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="45">
         <v>627</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -1360,11 +1500,11 @@
       <c r="AC10" s="12"/>
     </row>
     <row r="11" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -1478,192 +1618,192 @@
       <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="43"/>
-      <c r="AX12" s="43"/>
-      <c r="AY12" s="43"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="43"/>
-      <c r="BB12" s="43"/>
-      <c r="BC12" s="43"/>
-      <c r="BD12" s="43"/>
-      <c r="BE12" s="43"/>
-      <c r="BF12" s="43"/>
-      <c r="BG12" s="43"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="43"/>
-      <c r="BJ12" s="43"/>
-      <c r="BK12" s="43"/>
-      <c r="BL12" s="43"/>
-      <c r="BM12" s="43"/>
-      <c r="BN12" s="43"/>
-      <c r="BO12" s="43"/>
-      <c r="BP12" s="43"/>
-      <c r="BQ12" s="43"/>
-      <c r="BR12" s="43"/>
-      <c r="BS12" s="43"/>
-      <c r="BT12" s="43"/>
-      <c r="BU12" s="43"/>
-      <c r="BV12" s="43"/>
-      <c r="BW12" s="43"/>
-      <c r="BX12" s="43"/>
-      <c r="BY12" s="43"/>
-      <c r="BZ12" s="43"/>
-      <c r="CA12" s="43"/>
-      <c r="CB12" s="43"/>
-      <c r="CC12" s="43"/>
-      <c r="CD12" s="43"/>
-      <c r="CE12" s="43"/>
-      <c r="CF12" s="43"/>
-      <c r="CG12" s="43"/>
-      <c r="CH12" s="43"/>
-      <c r="CI12" s="43"/>
-      <c r="CJ12" s="43"/>
-      <c r="CK12" s="43"/>
-      <c r="CL12" s="43"/>
-      <c r="CM12" s="43"/>
-      <c r="CN12" s="43"/>
-      <c r="CO12" s="43"/>
-      <c r="CP12" s="43"/>
-      <c r="CQ12" s="43"/>
-      <c r="CR12" s="43"/>
-      <c r="CS12" s="43"/>
-      <c r="CT12" s="43"/>
-      <c r="CU12" s="43"/>
-      <c r="CV12" s="43"/>
-      <c r="CW12" s="43"/>
-      <c r="CX12" s="43"/>
-      <c r="CY12" s="43"/>
-      <c r="CZ12" s="43"/>
-      <c r="DA12" s="43"/>
-      <c r="DB12" s="43"/>
-      <c r="DC12" s="43"/>
-      <c r="DD12" s="43"/>
-      <c r="DE12" s="43"/>
-      <c r="DF12" s="43"/>
-      <c r="DG12" s="43"/>
-      <c r="DH12" s="43"/>
-      <c r="DI12" s="43"/>
-      <c r="DJ12" s="43"/>
-      <c r="DK12" s="43"/>
-      <c r="DL12" s="43"/>
-      <c r="DM12" s="43"/>
-      <c r="DN12" s="43"/>
-      <c r="DO12" s="43"/>
-      <c r="DP12" s="43"/>
-      <c r="DQ12" s="43"/>
-      <c r="DR12" s="43"/>
-      <c r="DS12" s="43"/>
-      <c r="DT12" s="43"/>
-      <c r="DU12" s="43"/>
-      <c r="DV12" s="43"/>
-      <c r="DW12" s="43"/>
-      <c r="DX12" s="43"/>
-      <c r="DY12" s="43"/>
-      <c r="DZ12" s="43"/>
-      <c r="EA12" s="43"/>
-      <c r="EB12" s="43"/>
-      <c r="EC12" s="43"/>
-      <c r="ED12" s="43"/>
-      <c r="EE12" s="43"/>
-      <c r="EF12" s="43"/>
-      <c r="EG12" s="43"/>
-      <c r="EH12" s="43"/>
-      <c r="EI12" s="43"/>
-      <c r="EJ12" s="43"/>
-      <c r="EK12" s="43"/>
-      <c r="EL12" s="43"/>
-      <c r="EM12" s="43"/>
-      <c r="EN12" s="43"/>
-      <c r="EO12" s="43"/>
-      <c r="EP12" s="43"/>
-      <c r="EQ12" s="43"/>
-      <c r="ER12" s="43"/>
-      <c r="ES12" s="43"/>
-      <c r="ET12" s="43"/>
-      <c r="EU12" s="43"/>
-      <c r="EV12" s="43"/>
-      <c r="EW12" s="43"/>
-      <c r="EX12" s="43"/>
-      <c r="EY12" s="43"/>
-      <c r="EZ12" s="43"/>
-      <c r="FA12" s="43"/>
-      <c r="FB12" s="43"/>
-      <c r="FC12" s="43"/>
-      <c r="FD12" s="43"/>
-      <c r="FE12" s="43"/>
-      <c r="FF12" s="43"/>
-      <c r="FG12" s="43"/>
-      <c r="FH12" s="43"/>
-      <c r="FI12" s="43"/>
-      <c r="FJ12" s="43"/>
-      <c r="FK12" s="43"/>
-      <c r="FL12" s="43"/>
-      <c r="FM12" s="43"/>
-      <c r="FN12" s="43"/>
-      <c r="FO12" s="43"/>
-      <c r="FP12" s="43"/>
-      <c r="FQ12" s="43"/>
-      <c r="FR12" s="43"/>
-      <c r="FS12" s="43"/>
-      <c r="FT12" s="43"/>
-      <c r="FU12" s="43"/>
-      <c r="FV12" s="43"/>
-      <c r="FW12" s="43"/>
-      <c r="FX12" s="43"/>
-      <c r="FY12" s="43"/>
-      <c r="FZ12" s="43"/>
-      <c r="GA12" s="43"/>
-      <c r="GB12" s="43"/>
-      <c r="GC12" s="43"/>
-      <c r="GD12" s="43"/>
-      <c r="GE12" s="43"/>
-      <c r="GF12" s="43"/>
-      <c r="GG12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="42"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="42"/>
+      <c r="BP12" s="42"/>
+      <c r="BQ12" s="42"/>
+      <c r="BR12" s="42"/>
+      <c r="BS12" s="42"/>
+      <c r="BT12" s="42"/>
+      <c r="BU12" s="42"/>
+      <c r="BV12" s="42"/>
+      <c r="BW12" s="42"/>
+      <c r="BX12" s="42"/>
+      <c r="BY12" s="42"/>
+      <c r="BZ12" s="42"/>
+      <c r="CA12" s="42"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="42"/>
+      <c r="CF12" s="42"/>
+      <c r="CG12" s="42"/>
+      <c r="CH12" s="42"/>
+      <c r="CI12" s="42"/>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="42"/>
+      <c r="CL12" s="42"/>
+      <c r="CM12" s="42"/>
+      <c r="CN12" s="42"/>
+      <c r="CO12" s="42"/>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="42"/>
+      <c r="CS12" s="42"/>
+      <c r="CT12" s="42"/>
+      <c r="CU12" s="42"/>
+      <c r="CV12" s="42"/>
+      <c r="CW12" s="42"/>
+      <c r="CX12" s="42"/>
+      <c r="CY12" s="42"/>
+      <c r="CZ12" s="42"/>
+      <c r="DA12" s="42"/>
+      <c r="DB12" s="42"/>
+      <c r="DC12" s="42"/>
+      <c r="DD12" s="42"/>
+      <c r="DE12" s="42"/>
+      <c r="DF12" s="42"/>
+      <c r="DG12" s="42"/>
+      <c r="DH12" s="42"/>
+      <c r="DI12" s="42"/>
+      <c r="DJ12" s="42"/>
+      <c r="DK12" s="42"/>
+      <c r="DL12" s="42"/>
+      <c r="DM12" s="42"/>
+      <c r="DN12" s="42"/>
+      <c r="DO12" s="42"/>
+      <c r="DP12" s="42"/>
+      <c r="DQ12" s="42"/>
+      <c r="DR12" s="42"/>
+      <c r="DS12" s="42"/>
+      <c r="DT12" s="42"/>
+      <c r="DU12" s="42"/>
+      <c r="DV12" s="42"/>
+      <c r="DW12" s="42"/>
+      <c r="DX12" s="42"/>
+      <c r="DY12" s="42"/>
+      <c r="DZ12" s="42"/>
+      <c r="EA12" s="42"/>
+      <c r="EB12" s="42"/>
+      <c r="EC12" s="42"/>
+      <c r="ED12" s="42"/>
+      <c r="EE12" s="42"/>
+      <c r="EF12" s="42"/>
+      <c r="EG12" s="42"/>
+      <c r="EH12" s="42"/>
+      <c r="EI12" s="42"/>
+      <c r="EJ12" s="42"/>
+      <c r="EK12" s="42"/>
+      <c r="EL12" s="42"/>
+      <c r="EM12" s="42"/>
+      <c r="EN12" s="42"/>
+      <c r="EO12" s="42"/>
+      <c r="EP12" s="42"/>
+      <c r="EQ12" s="42"/>
+      <c r="ER12" s="42"/>
+      <c r="ES12" s="42"/>
+      <c r="ET12" s="42"/>
+      <c r="EU12" s="42"/>
+      <c r="EV12" s="42"/>
+      <c r="EW12" s="42"/>
+      <c r="EX12" s="42"/>
+      <c r="EY12" s="42"/>
+      <c r="EZ12" s="42"/>
+      <c r="FA12" s="42"/>
+      <c r="FB12" s="42"/>
+      <c r="FC12" s="42"/>
+      <c r="FD12" s="42"/>
+      <c r="FE12" s="42"/>
+      <c r="FF12" s="42"/>
+      <c r="FG12" s="42"/>
+      <c r="FH12" s="42"/>
+      <c r="FI12" s="42"/>
+      <c r="FJ12" s="42"/>
+      <c r="FK12" s="42"/>
+      <c r="FL12" s="42"/>
+      <c r="FM12" s="42"/>
+      <c r="FN12" s="42"/>
+      <c r="FO12" s="42"/>
+      <c r="FP12" s="42"/>
+      <c r="FQ12" s="42"/>
+      <c r="FR12" s="42"/>
+      <c r="FS12" s="42"/>
+      <c r="FT12" s="42"/>
+      <c r="FU12" s="42"/>
+      <c r="FV12" s="42"/>
+      <c r="FW12" s="42"/>
+      <c r="FX12" s="42"/>
+      <c r="FY12" s="42"/>
+      <c r="FZ12" s="42"/>
+      <c r="GA12" s="42"/>
+      <c r="GB12" s="42"/>
+      <c r="GC12" s="42"/>
+      <c r="GD12" s="42"/>
+      <c r="GE12" s="42"/>
+      <c r="GF12" s="42"/>
+      <c r="GG12" s="42"/>
     </row>
     <row r="13" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
@@ -2211,8 +2351,8 @@
       </c>
     </row>
     <row r="14" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="21" t="s">
         <v>25</v>
       </c>
@@ -2320,8 +2460,8 @@
       <c r="DA14" s="27"/>
     </row>
     <row r="15" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -2429,8 +2569,8 @@
       <c r="DA15" s="27"/>
     </row>
     <row r="16" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="21" t="s">
         <v>25</v>
       </c>
@@ -2538,8 +2678,8 @@
       <c r="DA16" s="27"/>
     </row>
     <row r="17" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="29" t="s">
         <v>26</v>
       </c>
@@ -2647,8 +2787,8 @@
       <c r="DA17" s="27"/>
     </row>
     <row r="18" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="21" t="s">
         <v>25</v>
       </c>
@@ -2756,8 +2896,8 @@
       <c r="DA18" s="27"/>
     </row>
     <row r="19" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="29" t="s">
         <v>26</v>
       </c>
@@ -2865,8 +3005,8 @@
       <c r="DA19" s="27"/>
     </row>
     <row r="20" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="21" t="s">
         <v>25</v>
       </c>
@@ -2974,8 +3114,8 @@
       <c r="DA20" s="27"/>
     </row>
     <row r="21" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="29" t="s">
         <v>26</v>
       </c>
@@ -3083,8 +3223,8 @@
       <c r="DA21" s="27"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="21" t="s">
         <v>25</v>
       </c>
@@ -3192,8 +3332,8 @@
       <c r="DA22" s="27"/>
     </row>
     <row r="23" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="29" t="s">
         <v>26</v>
       </c>
@@ -3301,8 +3441,8 @@
       <c r="DA23" s="27"/>
     </row>
     <row r="24" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="21" t="s">
         <v>25</v>
       </c>
@@ -3410,8 +3550,8 @@
       <c r="DA24" s="27"/>
     </row>
     <row r="25" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="29" t="s">
         <v>26</v>
       </c>
@@ -3519,8 +3659,8 @@
       <c r="DA25" s="27"/>
     </row>
     <row r="26" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="21" t="s">
         <v>25</v>
       </c>
@@ -3628,8 +3768,8 @@
       <c r="DA26" s="27"/>
     </row>
     <row r="27" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="29" t="s">
         <v>26</v>
       </c>
@@ -3737,8 +3877,8 @@
       <c r="DA27" s="27"/>
     </row>
     <row r="28" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="21" t="s">
         <v>25</v>
       </c>
@@ -3846,8 +3986,8 @@
       <c r="DA28" s="27"/>
     </row>
     <row r="29" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="29" t="s">
         <v>26</v>
       </c>
@@ -3955,8 +4095,8 @@
       <c r="DA29" s="27"/>
     </row>
     <row r="30" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="21" t="s">
         <v>25</v>
       </c>
@@ -4064,8 +4204,8 @@
       <c r="DA30" s="27"/>
     </row>
     <row r="31" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="29" t="s">
         <v>26</v>
       </c>
@@ -4173,8 +4313,8 @@
       <c r="DA31" s="27"/>
     </row>
     <row r="32" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="21" t="s">
         <v>25</v>
       </c>
@@ -4282,8 +4422,8 @@
       <c r="DA32" s="27"/>
     </row>
     <row r="33" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="29" t="s">
         <v>26</v>
       </c>
@@ -4391,8 +4531,8 @@
       <c r="DA33" s="27"/>
     </row>
     <row r="34" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="21" t="s">
         <v>25</v>
       </c>
@@ -4500,8 +4640,8 @@
       <c r="DA34" s="27"/>
     </row>
     <row r="35" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="29" t="s">
         <v>26</v>
       </c>
@@ -4609,8 +4749,8 @@
       <c r="DA35" s="27"/>
     </row>
     <row r="36" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="21" t="s">
         <v>25</v>
       </c>
@@ -4718,8 +4858,8 @@
       <c r="DA36" s="27"/>
     </row>
     <row r="37" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="29" t="s">
         <v>26</v>
       </c>
@@ -4827,8 +4967,8 @@
       <c r="DA37" s="27"/>
     </row>
     <row r="38" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="21" t="s">
         <v>25</v>
       </c>
@@ -4936,8 +5076,8 @@
       <c r="DA38" s="27"/>
     </row>
     <row r="39" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="29" t="s">
         <v>26</v>
       </c>
@@ -5045,8 +5185,8 @@
       <c r="DA39" s="27"/>
     </row>
     <row r="40" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="21" t="s">
         <v>25</v>
       </c>
@@ -5154,8 +5294,8 @@
       <c r="DA40" s="27"/>
     </row>
     <row r="41" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="29" t="s">
         <v>26</v>
       </c>
@@ -5263,8 +5403,8 @@
       <c r="DA41" s="27"/>
     </row>
     <row r="42" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="21" t="s">
         <v>25</v>
       </c>
@@ -5372,8 +5512,8 @@
       <c r="DA42" s="27"/>
     </row>
     <row r="43" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="29" t="s">
         <v>26</v>
       </c>
@@ -5481,8 +5621,8 @@
       <c r="DA43" s="27"/>
     </row>
     <row r="44" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="21" t="s">
         <v>25</v>
       </c>
@@ -5590,8 +5730,8 @@
       <c r="DA44" s="27"/>
     </row>
     <row r="45" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="29" t="s">
         <v>26</v>
       </c>
@@ -5699,8 +5839,8 @@
       <c r="DA45" s="27"/>
     </row>
     <row r="46" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="21" t="s">
         <v>25</v>
       </c>
@@ -5808,8 +5948,8 @@
       <c r="DA46" s="27"/>
     </row>
     <row r="47" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="29" t="s">
         <v>26</v>
       </c>
@@ -5917,8 +6057,8 @@
       <c r="DA47" s="27"/>
     </row>
     <row r="48" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="44"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="21" t="s">
         <v>25</v>
       </c>
@@ -6026,8 +6166,8 @@
       <c r="DA48" s="27"/>
     </row>
     <row r="49" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="29" t="s">
         <v>26</v>
       </c>
@@ -6135,8 +6275,8 @@
       <c r="DA49" s="27"/>
     </row>
     <row r="50" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="21" t="s">
         <v>25</v>
       </c>
@@ -6244,8 +6384,8 @@
       <c r="DA50" s="27"/>
     </row>
     <row r="51" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="29" t="s">
         <v>26</v>
       </c>
@@ -6353,8 +6493,8 @@
       <c r="DA51" s="27"/>
     </row>
     <row r="52" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="21" t="s">
         <v>25</v>
       </c>
@@ -6462,8 +6602,8 @@
       <c r="DA52" s="27"/>
     </row>
     <row r="53" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="29" t="s">
         <v>26</v>
       </c>
@@ -6571,8 +6711,8 @@
       <c r="DA53" s="27"/>
     </row>
     <row r="54" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="21" t="s">
         <v>25</v>
       </c>
@@ -6680,8 +6820,8 @@
       <c r="DA54" s="27"/>
     </row>
     <row r="55" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="29" t="s">
         <v>26</v>
       </c>
@@ -6789,8 +6929,8 @@
       <c r="DA55" s="27"/>
     </row>
     <row r="56" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="21" t="s">
         <v>25</v>
       </c>
@@ -6898,8 +7038,8 @@
       <c r="DA56" s="27"/>
     </row>
     <row r="57" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="29" t="s">
         <v>26</v>
       </c>
@@ -7007,8 +7147,8 @@
       <c r="DA57" s="27"/>
     </row>
     <row r="58" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="21" t="s">
         <v>25</v>
       </c>
@@ -7116,8 +7256,8 @@
       <c r="DA58" s="27"/>
     </row>
     <row r="59" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="29" t="s">
         <v>26</v>
       </c>
@@ -7225,8 +7365,8 @@
       <c r="DA59" s="27"/>
     </row>
     <row r="60" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="21" t="s">
         <v>25</v>
       </c>
@@ -7334,8 +7474,8 @@
       <c r="DA60" s="27"/>
     </row>
     <row r="61" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="29" t="s">
         <v>26</v>
       </c>
@@ -7443,8 +7583,8 @@
       <c r="DA61" s="27"/>
     </row>
     <row r="62" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="21" t="s">
         <v>25</v>
       </c>
@@ -7552,8 +7692,8 @@
       <c r="DA62" s="27"/>
     </row>
     <row r="63" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="29" t="s">
         <v>26</v>
       </c>
@@ -7661,8 +7801,8 @@
       <c r="DA63" s="27"/>
     </row>
     <row r="64" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="44"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="21" t="s">
         <v>25</v>
       </c>
@@ -7770,8 +7910,8 @@
       <c r="DA64" s="27"/>
     </row>
     <row r="65" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="44"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="29" t="s">
         <v>26</v>
       </c>
@@ -7879,8 +8019,8 @@
       <c r="DA65" s="27"/>
     </row>
     <row r="66" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="21" t="s">
         <v>25</v>
       </c>
@@ -7988,8 +8128,8 @@
       <c r="DA66" s="27"/>
     </row>
     <row r="67" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="29" t="s">
         <v>26</v>
       </c>
@@ -8097,8 +8237,8 @@
       <c r="DA67" s="27"/>
     </row>
     <row r="68" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="21" t="s">
         <v>25</v>
       </c>
@@ -8206,8 +8346,8 @@
       <c r="DA68" s="27"/>
     </row>
     <row r="69" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="29" t="s">
         <v>26</v>
       </c>
@@ -8315,8 +8455,8 @@
       <c r="DA69" s="27"/>
     </row>
     <row r="70" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="21" t="s">
         <v>25</v>
       </c>
@@ -8424,8 +8564,8 @@
       <c r="DA70" s="27"/>
     </row>
     <row r="71" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="44"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="29" t="s">
         <v>26</v>
       </c>
@@ -8533,8 +8673,8 @@
       <c r="DA71" s="27"/>
     </row>
     <row r="72" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="21" t="s">
         <v>25</v>
       </c>
@@ -8642,8 +8782,8 @@
       <c r="DA72" s="27"/>
     </row>
     <row r="73" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="29" t="s">
         <v>26</v>
       </c>
@@ -8751,8 +8891,8 @@
       <c r="DA73" s="27"/>
     </row>
     <row r="74" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="44"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="21" t="s">
         <v>25</v>
       </c>
@@ -8860,8 +9000,8 @@
       <c r="DA74" s="27"/>
     </row>
     <row r="75" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="44"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="29" t="s">
         <v>26</v>
       </c>
@@ -8969,8 +9109,8 @@
       <c r="DA75" s="27"/>
     </row>
     <row r="76" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="44"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="21" t="s">
         <v>25</v>
       </c>
@@ -9078,8 +9218,8 @@
       <c r="DA76" s="27"/>
     </row>
     <row r="77" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="29" t="s">
         <v>26</v>
       </c>
@@ -9187,8 +9327,8 @@
       <c r="DA77" s="27"/>
     </row>
     <row r="78" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="44"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="21" t="s">
         <v>25</v>
       </c>
@@ -9296,8 +9436,8 @@
       <c r="DA78" s="27"/>
     </row>
     <row r="79" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="44"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="29" t="s">
         <v>26</v>
       </c>
@@ -9405,8 +9545,8 @@
       <c r="DA79" s="27"/>
     </row>
     <row r="80" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="21" t="s">
         <v>25</v>
       </c>
@@ -9514,8 +9654,8 @@
       <c r="DA80" s="27"/>
     </row>
     <row r="81" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="44"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="29" t="s">
         <v>26</v>
       </c>
@@ -9623,8 +9763,8 @@
       <c r="DA81" s="27"/>
     </row>
     <row r="82" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="44"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="21" t="s">
         <v>25</v>
       </c>
@@ -9732,8 +9872,8 @@
       <c r="DA82" s="27"/>
     </row>
     <row r="83" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="29" t="s">
         <v>26</v>
       </c>
@@ -9841,8 +9981,8 @@
       <c r="DA83" s="27"/>
     </row>
     <row r="84" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="44"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="21" t="s">
         <v>25</v>
       </c>
@@ -9950,8 +10090,8 @@
       <c r="DA84" s="27"/>
     </row>
     <row r="85" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="44"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="29" t="s">
         <v>26</v>
       </c>
@@ -10059,8 +10199,8 @@
       <c r="DA85" s="27"/>
     </row>
     <row r="86" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="44"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="21" t="s">
         <v>25</v>
       </c>
@@ -10168,8 +10308,8 @@
       <c r="DA86" s="27"/>
     </row>
     <row r="87" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="44"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="29" t="s">
         <v>26</v>
       </c>
@@ -10277,8 +10417,8 @@
       <c r="DA87" s="27"/>
     </row>
     <row r="88" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="21" t="s">
         <v>25</v>
       </c>
@@ -10386,8 +10526,8 @@
       <c r="DA88" s="27"/>
     </row>
     <row r="89" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="44"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="29" t="s">
         <v>26</v>
       </c>
@@ -10495,8 +10635,8 @@
       <c r="DA89" s="27"/>
     </row>
     <row r="90" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
-      <c r="B90" s="44"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="21" t="s">
         <v>25</v>
       </c>
@@ -10604,8 +10744,8 @@
       <c r="DA90" s="27"/>
     </row>
     <row r="91" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="29" t="s">
         <v>26</v>
       </c>
@@ -10713,8 +10853,8 @@
       <c r="DA91" s="27"/>
     </row>
     <row r="92" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="21" t="s">
         <v>25</v>
       </c>
@@ -10822,8 +10962,8 @@
       <c r="DA92" s="27"/>
     </row>
     <row r="93" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
-      <c r="B93" s="44"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="29" t="s">
         <v>26</v>
       </c>
@@ -10931,8 +11071,8 @@
       <c r="DA93" s="27"/>
     </row>
     <row r="94" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="44"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="41"/>
       <c r="C94" s="21" t="s">
         <v>25</v>
       </c>
@@ -11040,8 +11180,8 @@
       <c r="DA94" s="27"/>
     </row>
     <row r="95" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="44"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="41"/>
       <c r="C95" s="29" t="s">
         <v>26</v>
       </c>
@@ -11149,8 +11289,8 @@
       <c r="DA95" s="27"/>
     </row>
     <row r="96" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="21" t="s">
         <v>25</v>
       </c>
@@ -11258,8 +11398,8 @@
       <c r="DA96" s="27"/>
     </row>
     <row r="97" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="29" t="s">
         <v>26</v>
       </c>
@@ -11367,8 +11507,8 @@
       <c r="DA97" s="27"/>
     </row>
     <row r="98" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="21" t="s">
         <v>25</v>
       </c>
@@ -11476,8 +11616,8 @@
       <c r="DA98" s="27"/>
     </row>
     <row r="99" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="44"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="29" t="s">
         <v>26</v>
       </c>
@@ -11585,8 +11725,8 @@
       <c r="DA99" s="27"/>
     </row>
     <row r="100" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
-      <c r="B100" s="44"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="41"/>
       <c r="C100" s="21" t="s">
         <v>25</v>
       </c>
@@ -11694,8 +11834,8 @@
       <c r="DA100" s="27"/>
     </row>
     <row r="101" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="44"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="41"/>
       <c r="C101" s="29" t="s">
         <v>26</v>
       </c>
@@ -11803,8 +11943,8 @@
       <c r="DA101" s="27"/>
     </row>
     <row r="102" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="41"/>
       <c r="C102" s="21" t="s">
         <v>25</v>
       </c>
@@ -11912,8 +12052,8 @@
       <c r="DA102" s="27"/>
     </row>
     <row r="103" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
-      <c r="B103" s="44"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="41"/>
       <c r="C103" s="29" t="s">
         <v>26</v>
       </c>
@@ -12021,8 +12161,8 @@
       <c r="DA103" s="27"/>
     </row>
     <row r="104" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="21" t="s">
         <v>25</v>
       </c>
@@ -12130,8 +12270,8 @@
       <c r="DA104" s="27"/>
     </row>
     <row r="105" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="44"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="41"/>
       <c r="C105" s="29" t="s">
         <v>26</v>
       </c>
@@ -12239,8 +12379,8 @@
       <c r="DA105" s="27"/>
     </row>
     <row r="106" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
-      <c r="B106" s="44"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="41"/>
       <c r="C106" s="21" t="s">
         <v>25</v>
       </c>
@@ -12348,8 +12488,8 @@
       <c r="DA106" s="27"/>
     </row>
     <row r="107" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="41"/>
       <c r="C107" s="29" t="s">
         <v>26</v>
       </c>
@@ -12457,8 +12597,8 @@
       <c r="DA107" s="27"/>
     </row>
     <row r="108" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="44"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="21" t="s">
         <v>25</v>
       </c>
@@ -12566,8 +12706,8 @@
       <c r="DA108" s="27"/>
     </row>
     <row r="109" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="44"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="41"/>
       <c r="C109" s="29" t="s">
         <v>26</v>
       </c>
@@ -12675,8 +12815,8 @@
       <c r="DA109" s="27"/>
     </row>
     <row r="110" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="21" t="s">
         <v>25</v>
       </c>
@@ -12784,8 +12924,8 @@
       <c r="DA110" s="27"/>
     </row>
     <row r="111" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="B111" s="44"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="29" t="s">
         <v>26</v>
       </c>
@@ -12893,8 +13033,8 @@
       <c r="DA111" s="27"/>
     </row>
     <row r="112" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
-      <c r="B112" s="44"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="21" t="s">
         <v>25</v>
       </c>
@@ -13002,8 +13142,8 @@
       <c r="DA112" s="27"/>
     </row>
     <row r="113" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
-      <c r="B113" s="44"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="29" t="s">
         <v>26</v>
       </c>
@@ -13111,8 +13251,8 @@
       <c r="DA113" s="27"/>
     </row>
     <row r="114" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
-      <c r="B114" s="44"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="41"/>
       <c r="C114" s="21" t="s">
         <v>25</v>
       </c>
@@ -13220,8 +13360,8 @@
       <c r="DA114" s="27"/>
     </row>
     <row r="115" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
-      <c r="B115" s="44"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="41"/>
       <c r="C115" s="29" t="s">
         <v>26</v>
       </c>
@@ -13329,8 +13469,8 @@
       <c r="DA115" s="27"/>
     </row>
     <row r="116" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
-      <c r="B116" s="44"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="41"/>
       <c r="C116" s="21" t="s">
         <v>25</v>
       </c>
@@ -13438,8 +13578,8 @@
       <c r="DA116" s="27"/>
     </row>
     <row r="117" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
-      <c r="B117" s="44"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="41"/>
       <c r="C117" s="29" t="s">
         <v>26</v>
       </c>
@@ -13547,8 +13687,8 @@
       <c r="DA117" s="27"/>
     </row>
     <row r="118" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
-      <c r="B118" s="44"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="41"/>
       <c r="C118" s="21" t="s">
         <v>25</v>
       </c>
@@ -13656,8 +13796,8 @@
       <c r="DA118" s="27"/>
     </row>
     <row r="119" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
-      <c r="B119" s="44"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="41"/>
       <c r="C119" s="29" t="s">
         <v>26</v>
       </c>
@@ -13765,8 +13905,8 @@
       <c r="DA119" s="27"/>
     </row>
     <row r="120" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
-      <c r="B120" s="44"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="41"/>
       <c r="C120" s="21" t="s">
         <v>25</v>
       </c>
@@ -13874,8 +14014,8 @@
       <c r="DA120" s="27"/>
     </row>
     <row r="121" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A121" s="45"/>
-      <c r="B121" s="44"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="41"/>
       <c r="C121" s="29" t="s">
         <v>26</v>
       </c>
@@ -13983,8 +14123,8 @@
       <c r="DA121" s="27"/>
     </row>
     <row r="122" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A122" s="45"/>
-      <c r="B122" s="44"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="41"/>
       <c r="C122" s="21" t="s">
         <v>25</v>
       </c>
@@ -14092,8 +14232,8 @@
       <c r="DA122" s="27"/>
     </row>
     <row r="123" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A123" s="45"/>
-      <c r="B123" s="44"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="41"/>
       <c r="C123" s="29" t="s">
         <v>26</v>
       </c>
@@ -14201,8 +14341,8 @@
       <c r="DA123" s="27"/>
     </row>
     <row r="124" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A124" s="45"/>
-      <c r="B124" s="44"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="41"/>
       <c r="C124" s="21" t="s">
         <v>25</v>
       </c>
@@ -14310,8 +14450,8 @@
       <c r="DA124" s="27"/>
     </row>
     <row r="125" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
-      <c r="B125" s="44"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="41"/>
       <c r="C125" s="29" t="s">
         <v>26</v>
       </c>
@@ -14419,8 +14559,8 @@
       <c r="DA125" s="27"/>
     </row>
     <row r="126" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A126" s="45"/>
-      <c r="B126" s="44"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="41"/>
       <c r="C126" s="21" t="s">
         <v>25</v>
       </c>
@@ -14528,8 +14668,8 @@
       <c r="DA126" s="27"/>
     </row>
     <row r="127" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A127" s="45"/>
-      <c r="B127" s="44"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="41"/>
       <c r="C127" s="29" t="s">
         <v>26</v>
       </c>
@@ -14637,8 +14777,8 @@
       <c r="DA127" s="27"/>
     </row>
     <row r="128" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A128" s="45"/>
-      <c r="B128" s="44"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="41"/>
       <c r="C128" s="21" t="s">
         <v>25</v>
       </c>
@@ -14746,8 +14886,8 @@
       <c r="DA128" s="27"/>
     </row>
     <row r="129" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
-      <c r="B129" s="44"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="41"/>
       <c r="C129" s="29" t="s">
         <v>26</v>
       </c>
@@ -14855,8 +14995,8 @@
       <c r="DA129" s="27"/>
     </row>
     <row r="130" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A130" s="45"/>
-      <c r="B130" s="44"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="41"/>
       <c r="C130" s="21" t="s">
         <v>25</v>
       </c>
@@ -14964,8 +15104,8 @@
       <c r="DA130" s="27"/>
     </row>
     <row r="131" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A131" s="45"/>
-      <c r="B131" s="44"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="41"/>
       <c r="C131" s="29" t="s">
         <v>26</v>
       </c>
@@ -15075,120 +15215,54 @@
   </sheetData>
   <autoFilter ref="A13:CT23"/>
   <mergeCells count="186">
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AQ12:AS12"/>
+    <mergeCell ref="AT12:AV12"/>
+    <mergeCell ref="AW12:AY12"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BF12:BH12"/>
+    <mergeCell ref="BI12:BK12"/>
+    <mergeCell ref="BL12:BN12"/>
+    <mergeCell ref="BO12:BQ12"/>
+    <mergeCell ref="BR12:BT12"/>
+    <mergeCell ref="BU12:BW12"/>
+    <mergeCell ref="BX12:BZ12"/>
+    <mergeCell ref="CA12:CC12"/>
+    <mergeCell ref="CD12:CF12"/>
+    <mergeCell ref="CG12:CI12"/>
+    <mergeCell ref="CJ12:CL12"/>
+    <mergeCell ref="CM12:CO12"/>
+    <mergeCell ref="EI12:EK12"/>
+    <mergeCell ref="EL12:EN12"/>
+    <mergeCell ref="EO12:EQ12"/>
+    <mergeCell ref="CP12:CR12"/>
+    <mergeCell ref="CS12:CU12"/>
+    <mergeCell ref="CV12:CX12"/>
+    <mergeCell ref="CY12:DA12"/>
+    <mergeCell ref="DB12:DD12"/>
+    <mergeCell ref="DE12:DG12"/>
+    <mergeCell ref="DH12:DJ12"/>
+    <mergeCell ref="DK12:DM12"/>
+    <mergeCell ref="DN12:DP12"/>
     <mergeCell ref="FS12:FU12"/>
     <mergeCell ref="FV12:FX12"/>
     <mergeCell ref="FY12:GA12"/>
@@ -15213,54 +15287,120 @@
     <mergeCell ref="DZ12:EB12"/>
     <mergeCell ref="EC12:EE12"/>
     <mergeCell ref="EF12:EH12"/>
-    <mergeCell ref="EI12:EK12"/>
-    <mergeCell ref="EL12:EN12"/>
-    <mergeCell ref="EO12:EQ12"/>
-    <mergeCell ref="CP12:CR12"/>
-    <mergeCell ref="CS12:CU12"/>
-    <mergeCell ref="CV12:CX12"/>
-    <mergeCell ref="CY12:DA12"/>
-    <mergeCell ref="DB12:DD12"/>
-    <mergeCell ref="DE12:DG12"/>
-    <mergeCell ref="DH12:DJ12"/>
-    <mergeCell ref="DK12:DM12"/>
-    <mergeCell ref="DN12:DP12"/>
-    <mergeCell ref="BO12:BQ12"/>
-    <mergeCell ref="BR12:BT12"/>
-    <mergeCell ref="BU12:BW12"/>
-    <mergeCell ref="BX12:BZ12"/>
-    <mergeCell ref="CA12:CC12"/>
-    <mergeCell ref="CD12:CF12"/>
-    <mergeCell ref="CG12:CI12"/>
-    <mergeCell ref="CJ12:CL12"/>
-    <mergeCell ref="CM12:CO12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AQ12:AS12"/>
-    <mergeCell ref="AT12:AV12"/>
-    <mergeCell ref="AW12:AY12"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BF12:BH12"/>
-    <mergeCell ref="BI12:BK12"/>
-    <mergeCell ref="BL12:BN12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.35416666666666702" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -15275,7 +15415,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="GF11" sqref="C11:GF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16146,7 +16286,7 @@
       </c>
     </row>
     <row r="4" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -16340,7 +16480,7 @@
       <c r="GF4" s="26"/>
     </row>
     <row r="5" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="29" t="s">
         <v>28</v>
       </c>
@@ -16378,14 +16518,14 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
       <c r="AJ5" s="39"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
       <c r="AS5" s="39"/>
       <c r="AT5" s="39"/>
       <c r="AU5" s="39"/>
@@ -16446,99 +16586,99 @@
       <c r="CX5" s="39"/>
       <c r="CY5" s="39"/>
       <c r="CZ5" s="39"/>
-      <c r="DA5" s="26"/>
-      <c r="DB5" s="26"/>
-      <c r="DC5" s="26"/>
-      <c r="DD5" s="26"/>
-      <c r="DE5" s="26"/>
-      <c r="DF5" s="26"/>
-      <c r="DG5" s="26"/>
-      <c r="DH5" s="26"/>
-      <c r="DI5" s="26"/>
-      <c r="DJ5" s="26"/>
-      <c r="DK5" s="26"/>
-      <c r="DL5" s="26"/>
-      <c r="DM5" s="26"/>
-      <c r="DN5" s="26"/>
-      <c r="DO5" s="26"/>
-      <c r="DP5" s="26"/>
-      <c r="DQ5" s="26"/>
-      <c r="DR5" s="26"/>
-      <c r="DS5" s="26"/>
-      <c r="DT5" s="26"/>
-      <c r="DU5" s="26"/>
-      <c r="DV5" s="26"/>
-      <c r="DW5" s="26"/>
-      <c r="DX5" s="26"/>
-      <c r="DY5" s="26"/>
-      <c r="DZ5" s="26"/>
-      <c r="EA5" s="26"/>
-      <c r="EB5" s="26"/>
-      <c r="EC5" s="26"/>
-      <c r="ED5" s="26"/>
-      <c r="EE5" s="26"/>
-      <c r="EF5" s="26"/>
-      <c r="EG5" s="26"/>
-      <c r="EH5" s="26"/>
-      <c r="EI5" s="26"/>
-      <c r="EJ5" s="26"/>
-      <c r="EK5" s="26"/>
-      <c r="EL5" s="26"/>
-      <c r="EM5" s="26"/>
-      <c r="EN5" s="26"/>
-      <c r="EO5" s="26"/>
-      <c r="EP5" s="26"/>
-      <c r="EQ5" s="26"/>
-      <c r="ER5" s="26"/>
-      <c r="ES5" s="26"/>
-      <c r="ET5" s="26"/>
-      <c r="EU5" s="26"/>
-      <c r="EV5" s="26"/>
-      <c r="EW5" s="26"/>
-      <c r="EX5" s="26"/>
-      <c r="EY5" s="26"/>
-      <c r="EZ5" s="26"/>
-      <c r="FA5" s="26"/>
-      <c r="FB5" s="26"/>
-      <c r="FC5" s="26"/>
-      <c r="FD5" s="26"/>
-      <c r="FE5" s="26"/>
-      <c r="FF5" s="26"/>
-      <c r="FG5" s="26"/>
-      <c r="FH5" s="26"/>
-      <c r="FI5" s="26"/>
-      <c r="FJ5" s="26"/>
-      <c r="FK5" s="26"/>
-      <c r="FL5" s="26"/>
-      <c r="FM5" s="26"/>
-      <c r="FN5" s="26"/>
-      <c r="FO5" s="26"/>
-      <c r="FP5" s="26"/>
-      <c r="FQ5" s="26"/>
-      <c r="FR5" s="26"/>
-      <c r="FS5" s="26"/>
-      <c r="FT5" s="26"/>
-      <c r="FU5" s="26"/>
-      <c r="FV5" s="26"/>
-      <c r="FW5" s="26"/>
-      <c r="FX5" s="26"/>
-      <c r="FY5" s="26"/>
-      <c r="FZ5" s="26"/>
-      <c r="GA5" s="26"/>
-      <c r="GB5" s="26"/>
-      <c r="GC5" s="26"/>
-      <c r="GD5" s="26"/>
-      <c r="GE5" s="26"/>
-      <c r="GF5" s="26"/>
+      <c r="DA5" s="39"/>
+      <c r="DB5" s="39"/>
+      <c r="DC5" s="39"/>
+      <c r="DD5" s="39"/>
+      <c r="DE5" s="39"/>
+      <c r="DF5" s="39"/>
+      <c r="DG5" s="39"/>
+      <c r="DH5" s="39"/>
+      <c r="DI5" s="39"/>
+      <c r="DJ5" s="39"/>
+      <c r="DK5" s="39"/>
+      <c r="DL5" s="39"/>
+      <c r="DM5" s="39"/>
+      <c r="DN5" s="39"/>
+      <c r="DO5" s="39"/>
+      <c r="DP5" s="39"/>
+      <c r="DQ5" s="39"/>
+      <c r="DR5" s="39"/>
+      <c r="DS5" s="39"/>
+      <c r="DT5" s="39"/>
+      <c r="DU5" s="39"/>
+      <c r="DV5" s="39"/>
+      <c r="DW5" s="39"/>
+      <c r="DX5" s="39"/>
+      <c r="DY5" s="39"/>
+      <c r="DZ5" s="39"/>
+      <c r="EA5" s="39"/>
+      <c r="EB5" s="39"/>
+      <c r="EC5" s="39"/>
+      <c r="ED5" s="39"/>
+      <c r="EE5" s="39"/>
+      <c r="EF5" s="39"/>
+      <c r="EG5" s="39"/>
+      <c r="EH5" s="39"/>
+      <c r="EI5" s="39"/>
+      <c r="EJ5" s="39"/>
+      <c r="EK5" s="39"/>
+      <c r="EL5" s="39"/>
+      <c r="EM5" s="39"/>
+      <c r="EN5" s="39"/>
+      <c r="EO5" s="39"/>
+      <c r="EP5" s="39"/>
+      <c r="EQ5" s="39"/>
+      <c r="ER5" s="39"/>
+      <c r="ES5" s="39"/>
+      <c r="ET5" s="39"/>
+      <c r="EU5" s="39"/>
+      <c r="EV5" s="39"/>
+      <c r="EW5" s="39"/>
+      <c r="EX5" s="39"/>
+      <c r="EY5" s="39"/>
+      <c r="EZ5" s="39"/>
+      <c r="FA5" s="39"/>
+      <c r="FB5" s="39"/>
+      <c r="FC5" s="39"/>
+      <c r="FD5" s="39"/>
+      <c r="FE5" s="39"/>
+      <c r="FF5" s="39"/>
+      <c r="FG5" s="39"/>
+      <c r="FH5" s="39"/>
+      <c r="FI5" s="39"/>
+      <c r="FJ5" s="39"/>
+      <c r="FK5" s="39"/>
+      <c r="FL5" s="39"/>
+      <c r="FM5" s="39"/>
+      <c r="FN5" s="39"/>
+      <c r="FO5" s="39"/>
+      <c r="FP5" s="39"/>
+      <c r="FQ5" s="39"/>
+      <c r="FR5" s="39"/>
+      <c r="FS5" s="39"/>
+      <c r="FT5" s="39"/>
+      <c r="FU5" s="39"/>
+      <c r="FV5" s="39"/>
+      <c r="FW5" s="39"/>
+      <c r="FX5" s="39"/>
+      <c r="FY5" s="39"/>
+      <c r="FZ5" s="39"/>
+      <c r="GA5" s="39"/>
+      <c r="GB5" s="39"/>
+      <c r="GC5" s="39"/>
+      <c r="GD5" s="39"/>
+      <c r="GE5" s="39"/>
+      <c r="GF5" s="39"/>
     </row>
     <row r="6" spans="1:188" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
       <c r="C6" s="26">
-        <f t="shared" ref="C6:BN6" si="0">C4-C5</f>
+        <f>C4-C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:BN6" si="0">D4-D5</f>
         <v>0</v>
       </c>
       <c r="E6" s="26">
@@ -17279,7 +17419,7 @@
       </c>
     </row>
     <row r="7" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -17473,7 +17613,7 @@
       <c r="GF7" s="26"/>
     </row>
     <row r="8" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="29" t="s">
         <v>28</v>
       </c>
@@ -17511,14 +17651,14 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
       <c r="AS8" s="39"/>
       <c r="AT8" s="39"/>
       <c r="AU8" s="39"/>
@@ -17579,772 +17719,772 @@
       <c r="CX8" s="39"/>
       <c r="CY8" s="39"/>
       <c r="CZ8" s="39"/>
-      <c r="DA8" s="26"/>
-      <c r="DB8" s="26"/>
-      <c r="DC8" s="26"/>
-      <c r="DD8" s="26"/>
-      <c r="DE8" s="26"/>
-      <c r="DF8" s="26"/>
-      <c r="DG8" s="26"/>
-      <c r="DH8" s="26"/>
-      <c r="DI8" s="26"/>
-      <c r="DJ8" s="26"/>
-      <c r="DK8" s="26"/>
-      <c r="DL8" s="26"/>
-      <c r="DM8" s="26"/>
-      <c r="DN8" s="26"/>
-      <c r="DO8" s="26"/>
-      <c r="DP8" s="26"/>
-      <c r="DQ8" s="26"/>
-      <c r="DR8" s="26"/>
-      <c r="DS8" s="26"/>
-      <c r="DT8" s="26"/>
-      <c r="DU8" s="26"/>
-      <c r="DV8" s="26"/>
-      <c r="DW8" s="26"/>
-      <c r="DX8" s="26"/>
-      <c r="DY8" s="26"/>
-      <c r="DZ8" s="26"/>
-      <c r="EA8" s="26"/>
-      <c r="EB8" s="26"/>
-      <c r="EC8" s="26"/>
-      <c r="ED8" s="26"/>
-      <c r="EE8" s="26"/>
-      <c r="EF8" s="26"/>
-      <c r="EG8" s="26"/>
-      <c r="EH8" s="26"/>
-      <c r="EI8" s="26"/>
-      <c r="EJ8" s="26"/>
-      <c r="EK8" s="26"/>
-      <c r="EL8" s="26"/>
-      <c r="EM8" s="26"/>
-      <c r="EN8" s="26"/>
-      <c r="EO8" s="26"/>
-      <c r="EP8" s="26"/>
-      <c r="EQ8" s="26"/>
-      <c r="ER8" s="26"/>
-      <c r="ES8" s="26"/>
-      <c r="ET8" s="26"/>
-      <c r="EU8" s="26"/>
-      <c r="EV8" s="26"/>
-      <c r="EW8" s="26"/>
-      <c r="EX8" s="26"/>
-      <c r="EY8" s="26"/>
-      <c r="EZ8" s="26"/>
-      <c r="FA8" s="26"/>
-      <c r="FB8" s="26"/>
-      <c r="FC8" s="26"/>
-      <c r="FD8" s="26"/>
-      <c r="FE8" s="26"/>
-      <c r="FF8" s="26"/>
-      <c r="FG8" s="26"/>
-      <c r="FH8" s="26"/>
-      <c r="FI8" s="26"/>
-      <c r="FJ8" s="26"/>
-      <c r="FK8" s="26"/>
-      <c r="FL8" s="26"/>
-      <c r="FM8" s="26"/>
-      <c r="FN8" s="26"/>
-      <c r="FO8" s="26"/>
-      <c r="FP8" s="26"/>
-      <c r="FQ8" s="26"/>
-      <c r="FR8" s="26"/>
-      <c r="FS8" s="26"/>
-      <c r="FT8" s="26"/>
-      <c r="FU8" s="26"/>
-      <c r="FV8" s="26"/>
-      <c r="FW8" s="26"/>
-      <c r="FX8" s="26"/>
-      <c r="FY8" s="26"/>
-      <c r="FZ8" s="26"/>
-      <c r="GA8" s="26"/>
-      <c r="GB8" s="26"/>
-      <c r="GC8" s="26"/>
-      <c r="GD8" s="26"/>
-      <c r="GE8" s="26"/>
-      <c r="GF8" s="26"/>
+      <c r="DA8" s="39"/>
+      <c r="DB8" s="39"/>
+      <c r="DC8" s="39"/>
+      <c r="DD8" s="39"/>
+      <c r="DE8" s="39"/>
+      <c r="DF8" s="39"/>
+      <c r="DG8" s="39"/>
+      <c r="DH8" s="39"/>
+      <c r="DI8" s="39"/>
+      <c r="DJ8" s="39"/>
+      <c r="DK8" s="39"/>
+      <c r="DL8" s="39"/>
+      <c r="DM8" s="39"/>
+      <c r="DN8" s="39"/>
+      <c r="DO8" s="39"/>
+      <c r="DP8" s="39"/>
+      <c r="DQ8" s="39"/>
+      <c r="DR8" s="39"/>
+      <c r="DS8" s="39"/>
+      <c r="DT8" s="39"/>
+      <c r="DU8" s="39"/>
+      <c r="DV8" s="39"/>
+      <c r="DW8" s="39"/>
+      <c r="DX8" s="39"/>
+      <c r="DY8" s="39"/>
+      <c r="DZ8" s="39"/>
+      <c r="EA8" s="39"/>
+      <c r="EB8" s="39"/>
+      <c r="EC8" s="39"/>
+      <c r="ED8" s="39"/>
+      <c r="EE8" s="39"/>
+      <c r="EF8" s="39"/>
+      <c r="EG8" s="39"/>
+      <c r="EH8" s="39"/>
+      <c r="EI8" s="39"/>
+      <c r="EJ8" s="39"/>
+      <c r="EK8" s="39"/>
+      <c r="EL8" s="39"/>
+      <c r="EM8" s="39"/>
+      <c r="EN8" s="39"/>
+      <c r="EO8" s="39"/>
+      <c r="EP8" s="39"/>
+      <c r="EQ8" s="39"/>
+      <c r="ER8" s="39"/>
+      <c r="ES8" s="39"/>
+      <c r="ET8" s="39"/>
+      <c r="EU8" s="39"/>
+      <c r="EV8" s="39"/>
+      <c r="EW8" s="39"/>
+      <c r="EX8" s="39"/>
+      <c r="EY8" s="39"/>
+      <c r="EZ8" s="39"/>
+      <c r="FA8" s="39"/>
+      <c r="FB8" s="39"/>
+      <c r="FC8" s="39"/>
+      <c r="FD8" s="39"/>
+      <c r="FE8" s="39"/>
+      <c r="FF8" s="39"/>
+      <c r="FG8" s="39"/>
+      <c r="FH8" s="39"/>
+      <c r="FI8" s="39"/>
+      <c r="FJ8" s="39"/>
+      <c r="FK8" s="39"/>
+      <c r="FL8" s="39"/>
+      <c r="FM8" s="39"/>
+      <c r="FN8" s="39"/>
+      <c r="FO8" s="39"/>
+      <c r="FP8" s="39"/>
+      <c r="FQ8" s="39"/>
+      <c r="FR8" s="39"/>
+      <c r="FS8" s="39"/>
+      <c r="FT8" s="39"/>
+      <c r="FU8" s="39"/>
+      <c r="FV8" s="39"/>
+      <c r="FW8" s="39"/>
+      <c r="FX8" s="39"/>
+      <c r="FY8" s="39"/>
+      <c r="FZ8" s="39"/>
+      <c r="GA8" s="39"/>
+      <c r="GB8" s="39"/>
+      <c r="GC8" s="39"/>
+      <c r="GD8" s="39"/>
+      <c r="GE8" s="39"/>
+      <c r="GF8" s="39"/>
     </row>
     <row r="9" spans="1:188" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="25"/>
       <c r="C9" s="26">
-        <f t="shared" ref="C9" si="4">C7-C8</f>
+        <f>C7-C8</f>
         <v>0</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" ref="D9" si="5">D7-D8</f>
+        <f t="shared" ref="D9" si="4">D7-D8</f>
         <v>0</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" ref="E9" si="6">E7-E8</f>
+        <f t="shared" ref="E9" si="5">E7-E8</f>
         <v>0</v>
       </c>
       <c r="F9" s="26">
-        <f t="shared" ref="F9" si="7">F7-F8</f>
+        <f t="shared" ref="F9" si="6">F7-F8</f>
         <v>0</v>
       </c>
       <c r="G9" s="26">
-        <f t="shared" ref="G9" si="8">G7-G8</f>
+        <f t="shared" ref="G9" si="7">G7-G8</f>
         <v>0</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" ref="H9" si="9">H7-H8</f>
+        <f t="shared" ref="H9" si="8">H7-H8</f>
         <v>0</v>
       </c>
       <c r="I9" s="26">
-        <f t="shared" ref="I9" si="10">I7-I8</f>
+        <f t="shared" ref="I9" si="9">I7-I8</f>
         <v>0</v>
       </c>
       <c r="J9" s="26">
-        <f t="shared" ref="J9" si="11">J7-J8</f>
+        <f t="shared" ref="J9" si="10">J7-J8</f>
         <v>0</v>
       </c>
       <c r="K9" s="26">
-        <f t="shared" ref="K9" si="12">K7-K8</f>
+        <f t="shared" ref="K9" si="11">K7-K8</f>
         <v>0</v>
       </c>
       <c r="L9" s="26">
-        <f t="shared" ref="L9" si="13">L7-L8</f>
+        <f t="shared" ref="L9" si="12">L7-L8</f>
         <v>0</v>
       </c>
       <c r="M9" s="26">
-        <f t="shared" ref="M9" si="14">M7-M8</f>
+        <f t="shared" ref="M9" si="13">M7-M8</f>
         <v>0</v>
       </c>
       <c r="N9" s="26">
-        <f t="shared" ref="N9" si="15">N7-N8</f>
+        <f t="shared" ref="N9" si="14">N7-N8</f>
         <v>0</v>
       </c>
       <c r="O9" s="26">
-        <f t="shared" ref="O9" si="16">O7-O8</f>
+        <f t="shared" ref="O9" si="15">O7-O8</f>
         <v>0</v>
       </c>
       <c r="P9" s="26">
-        <f t="shared" ref="P9" si="17">P7-P8</f>
+        <f t="shared" ref="P9" si="16">P7-P8</f>
         <v>0</v>
       </c>
       <c r="Q9" s="26">
-        <f t="shared" ref="Q9" si="18">Q7-Q8</f>
+        <f t="shared" ref="Q9" si="17">Q7-Q8</f>
         <v>0</v>
       </c>
       <c r="R9" s="26">
-        <f t="shared" ref="R9" si="19">R7-R8</f>
+        <f t="shared" ref="R9" si="18">R7-R8</f>
         <v>0</v>
       </c>
       <c r="S9" s="26">
-        <f t="shared" ref="S9" si="20">S7-S8</f>
+        <f t="shared" ref="S9" si="19">S7-S8</f>
         <v>0</v>
       </c>
       <c r="T9" s="26">
-        <f t="shared" ref="T9" si="21">T7-T8</f>
+        <f t="shared" ref="T9" si="20">T7-T8</f>
         <v>0</v>
       </c>
       <c r="U9" s="26">
-        <f t="shared" ref="U9" si="22">U7-U8</f>
+        <f t="shared" ref="U9" si="21">U7-U8</f>
         <v>0</v>
       </c>
       <c r="V9" s="26">
-        <f t="shared" ref="V9" si="23">V7-V8</f>
+        <f t="shared" ref="V9" si="22">V7-V8</f>
         <v>0</v>
       </c>
       <c r="W9" s="26">
-        <f t="shared" ref="W9" si="24">W7-W8</f>
+        <f t="shared" ref="W9" si="23">W7-W8</f>
         <v>0</v>
       </c>
       <c r="X9" s="26">
-        <f t="shared" ref="X9" si="25">X7-X8</f>
+        <f t="shared" ref="X9" si="24">X7-X8</f>
         <v>0</v>
       </c>
       <c r="Y9" s="26">
-        <f t="shared" ref="Y9" si="26">Y7-Y8</f>
+        <f t="shared" ref="Y9" si="25">Y7-Y8</f>
         <v>0</v>
       </c>
       <c r="Z9" s="26">
-        <f t="shared" ref="Z9" si="27">Z7-Z8</f>
+        <f t="shared" ref="Z9" si="26">Z7-Z8</f>
         <v>0</v>
       </c>
       <c r="AA9" s="26">
-        <f t="shared" ref="AA9" si="28">AA7-AA8</f>
+        <f t="shared" ref="AA9" si="27">AA7-AA8</f>
         <v>0</v>
       </c>
       <c r="AB9" s="26">
-        <f t="shared" ref="AB9" si="29">AB7-AB8</f>
+        <f t="shared" ref="AB9" si="28">AB7-AB8</f>
         <v>0</v>
       </c>
       <c r="AC9" s="26">
-        <f t="shared" ref="AC9" si="30">AC7-AC8</f>
+        <f t="shared" ref="AC9" si="29">AC7-AC8</f>
         <v>0</v>
       </c>
       <c r="AD9" s="26">
-        <f t="shared" ref="AD9" si="31">AD7-AD8</f>
+        <f t="shared" ref="AD9" si="30">AD7-AD8</f>
         <v>0</v>
       </c>
       <c r="AE9" s="26">
-        <f t="shared" ref="AE9" si="32">AE7-AE8</f>
+        <f t="shared" ref="AE9" si="31">AE7-AE8</f>
         <v>0</v>
       </c>
       <c r="AF9" s="26">
-        <f t="shared" ref="AF9" si="33">AF7-AF8</f>
+        <f t="shared" ref="AF9" si="32">AF7-AF8</f>
         <v>0</v>
       </c>
       <c r="AG9" s="26">
-        <f t="shared" ref="AG9" si="34">AG7-AG8</f>
+        <f t="shared" ref="AG9" si="33">AG7-AG8</f>
         <v>0</v>
       </c>
       <c r="AH9" s="26">
-        <f t="shared" ref="AH9" si="35">AH7-AH8</f>
+        <f t="shared" ref="AH9" si="34">AH7-AH8</f>
         <v>0</v>
       </c>
       <c r="AI9" s="26">
-        <f t="shared" ref="AI9" si="36">AI7-AI8</f>
+        <f t="shared" ref="AI9" si="35">AI7-AI8</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="26">
-        <f t="shared" ref="AJ9" si="37">AJ7-AJ8</f>
+        <f t="shared" ref="AJ9" si="36">AJ7-AJ8</f>
         <v>0</v>
       </c>
       <c r="AK9" s="26">
-        <f t="shared" ref="AK9" si="38">AK7-AK8</f>
+        <f t="shared" ref="AK9" si="37">AK7-AK8</f>
         <v>0</v>
       </c>
       <c r="AL9" s="26">
-        <f t="shared" ref="AL9" si="39">AL7-AL8</f>
+        <f t="shared" ref="AL9" si="38">AL7-AL8</f>
         <v>0</v>
       </c>
       <c r="AM9" s="26">
-        <f t="shared" ref="AM9" si="40">AM7-AM8</f>
+        <f t="shared" ref="AM9" si="39">AM7-AM8</f>
         <v>0</v>
       </c>
       <c r="AN9" s="26">
-        <f t="shared" ref="AN9" si="41">AN7-AN8</f>
+        <f t="shared" ref="AN9" si="40">AN7-AN8</f>
         <v>0</v>
       </c>
       <c r="AO9" s="26">
-        <f t="shared" ref="AO9" si="42">AO7-AO8</f>
+        <f t="shared" ref="AO9" si="41">AO7-AO8</f>
         <v>0</v>
       </c>
       <c r="AP9" s="26">
-        <f t="shared" ref="AP9" si="43">AP7-AP8</f>
+        <f t="shared" ref="AP9" si="42">AP7-AP8</f>
         <v>0</v>
       </c>
       <c r="AQ9" s="26">
-        <f t="shared" ref="AQ9" si="44">AQ7-AQ8</f>
+        <f t="shared" ref="AQ9" si="43">AQ7-AQ8</f>
         <v>0</v>
       </c>
       <c r="AR9" s="26">
-        <f t="shared" ref="AR9" si="45">AR7-AR8</f>
+        <f t="shared" ref="AR9" si="44">AR7-AR8</f>
         <v>0</v>
       </c>
       <c r="AS9" s="26">
-        <f t="shared" ref="AS9" si="46">AS7-AS8</f>
+        <f t="shared" ref="AS9" si="45">AS7-AS8</f>
         <v>0</v>
       </c>
       <c r="AT9" s="26">
-        <f t="shared" ref="AT9" si="47">AT7-AT8</f>
+        <f t="shared" ref="AT9" si="46">AT7-AT8</f>
         <v>0</v>
       </c>
       <c r="AU9" s="26">
-        <f t="shared" ref="AU9" si="48">AU7-AU8</f>
+        <f t="shared" ref="AU9" si="47">AU7-AU8</f>
         <v>0</v>
       </c>
       <c r="AV9" s="26">
-        <f t="shared" ref="AV9" si="49">AV7-AV8</f>
+        <f t="shared" ref="AV9" si="48">AV7-AV8</f>
         <v>0</v>
       </c>
       <c r="AW9" s="26">
-        <f t="shared" ref="AW9" si="50">AW7-AW8</f>
+        <f t="shared" ref="AW9" si="49">AW7-AW8</f>
         <v>0</v>
       </c>
       <c r="AX9" s="26">
-        <f t="shared" ref="AX9" si="51">AX7-AX8</f>
+        <f t="shared" ref="AX9" si="50">AX7-AX8</f>
         <v>0</v>
       </c>
       <c r="AY9" s="26">
-        <f t="shared" ref="AY9" si="52">AY7-AY8</f>
+        <f t="shared" ref="AY9" si="51">AY7-AY8</f>
         <v>0</v>
       </c>
       <c r="AZ9" s="26">
-        <f t="shared" ref="AZ9" si="53">AZ7-AZ8</f>
+        <f t="shared" ref="AZ9" si="52">AZ7-AZ8</f>
         <v>0</v>
       </c>
       <c r="BA9" s="26">
-        <f t="shared" ref="BA9" si="54">BA7-BA8</f>
+        <f t="shared" ref="BA9" si="53">BA7-BA8</f>
         <v>0</v>
       </c>
       <c r="BB9" s="26">
-        <f t="shared" ref="BB9" si="55">BB7-BB8</f>
+        <f t="shared" ref="BB9" si="54">BB7-BB8</f>
         <v>0</v>
       </c>
       <c r="BC9" s="26">
-        <f t="shared" ref="BC9" si="56">BC7-BC8</f>
+        <f t="shared" ref="BC9" si="55">BC7-BC8</f>
         <v>0</v>
       </c>
       <c r="BD9" s="26">
-        <f t="shared" ref="BD9" si="57">BD7-BD8</f>
+        <f t="shared" ref="BD9" si="56">BD7-BD8</f>
         <v>0</v>
       </c>
       <c r="BE9" s="26">
-        <f t="shared" ref="BE9" si="58">BE7-BE8</f>
+        <f t="shared" ref="BE9" si="57">BE7-BE8</f>
         <v>0</v>
       </c>
       <c r="BF9" s="26">
-        <f t="shared" ref="BF9" si="59">BF7-BF8</f>
+        <f t="shared" ref="BF9" si="58">BF7-BF8</f>
         <v>0</v>
       </c>
       <c r="BG9" s="26">
-        <f t="shared" ref="BG9" si="60">BG7-BG8</f>
+        <f t="shared" ref="BG9" si="59">BG7-BG8</f>
         <v>0</v>
       </c>
       <c r="BH9" s="26">
-        <f t="shared" ref="BH9" si="61">BH7-BH8</f>
+        <f t="shared" ref="BH9" si="60">BH7-BH8</f>
         <v>0</v>
       </c>
       <c r="BI9" s="26">
-        <f t="shared" ref="BI9" si="62">BI7-BI8</f>
+        <f t="shared" ref="BI9" si="61">BI7-BI8</f>
         <v>0</v>
       </c>
       <c r="BJ9" s="26">
-        <f t="shared" ref="BJ9" si="63">BJ7-BJ8</f>
+        <f t="shared" ref="BJ9" si="62">BJ7-BJ8</f>
         <v>0</v>
       </c>
       <c r="BK9" s="26">
-        <f t="shared" ref="BK9" si="64">BK7-BK8</f>
+        <f t="shared" ref="BK9" si="63">BK7-BK8</f>
         <v>0</v>
       </c>
       <c r="BL9" s="26">
-        <f t="shared" ref="BL9" si="65">BL7-BL8</f>
+        <f t="shared" ref="BL9" si="64">BL7-BL8</f>
         <v>0</v>
       </c>
       <c r="BM9" s="26">
-        <f t="shared" ref="BM9" si="66">BM7-BM8</f>
+        <f t="shared" ref="BM9" si="65">BM7-BM8</f>
         <v>0</v>
       </c>
       <c r="BN9" s="26">
-        <f t="shared" ref="BN9" si="67">BN7-BN8</f>
+        <f t="shared" ref="BN9" si="66">BN7-BN8</f>
         <v>0</v>
       </c>
       <c r="BO9" s="26">
-        <f t="shared" ref="BO9" si="68">BO7-BO8</f>
+        <f t="shared" ref="BO9" si="67">BO7-BO8</f>
         <v>0</v>
       </c>
       <c r="BP9" s="26">
-        <f t="shared" ref="BP9" si="69">BP7-BP8</f>
+        <f t="shared" ref="BP9" si="68">BP7-BP8</f>
         <v>0</v>
       </c>
       <c r="BQ9" s="26">
-        <f t="shared" ref="BQ9" si="70">BQ7-BQ8</f>
+        <f t="shared" ref="BQ9" si="69">BQ7-BQ8</f>
         <v>0</v>
       </c>
       <c r="BR9" s="26">
-        <f t="shared" ref="BR9" si="71">BR7-BR8</f>
+        <f t="shared" ref="BR9" si="70">BR7-BR8</f>
         <v>0</v>
       </c>
       <c r="BS9" s="26">
-        <f t="shared" ref="BS9" si="72">BS7-BS8</f>
+        <f t="shared" ref="BS9" si="71">BS7-BS8</f>
         <v>0</v>
       </c>
       <c r="BT9" s="26">
-        <f t="shared" ref="BT9" si="73">BT7-BT8</f>
+        <f t="shared" ref="BT9" si="72">BT7-BT8</f>
         <v>0</v>
       </c>
       <c r="BU9" s="26">
-        <f t="shared" ref="BU9" si="74">BU7-BU8</f>
+        <f t="shared" ref="BU9" si="73">BU7-BU8</f>
         <v>0</v>
       </c>
       <c r="BV9" s="26">
-        <f t="shared" ref="BV9" si="75">BV7-BV8</f>
+        <f t="shared" ref="BV9" si="74">BV7-BV8</f>
         <v>0</v>
       </c>
       <c r="BW9" s="26">
-        <f t="shared" ref="BW9" si="76">BW7-BW8</f>
+        <f t="shared" ref="BW9" si="75">BW7-BW8</f>
         <v>0</v>
       </c>
       <c r="BX9" s="26">
-        <f t="shared" ref="BX9" si="77">BX7-BX8</f>
+        <f t="shared" ref="BX9" si="76">BX7-BX8</f>
         <v>0</v>
       </c>
       <c r="BY9" s="26">
-        <f t="shared" ref="BY9" si="78">BY7-BY8</f>
+        <f t="shared" ref="BY9" si="77">BY7-BY8</f>
         <v>0</v>
       </c>
       <c r="BZ9" s="26">
-        <f t="shared" ref="BZ9" si="79">BZ7-BZ8</f>
+        <f t="shared" ref="BZ9" si="78">BZ7-BZ8</f>
         <v>0</v>
       </c>
       <c r="CA9" s="26">
-        <f t="shared" ref="CA9" si="80">CA7-CA8</f>
+        <f t="shared" ref="CA9" si="79">CA7-CA8</f>
         <v>0</v>
       </c>
       <c r="CB9" s="26">
-        <f t="shared" ref="CB9" si="81">CB7-CB8</f>
+        <f t="shared" ref="CB9" si="80">CB7-CB8</f>
         <v>0</v>
       </c>
       <c r="CC9" s="26">
-        <f t="shared" ref="CC9" si="82">CC7-CC8</f>
+        <f t="shared" ref="CC9" si="81">CC7-CC8</f>
         <v>0</v>
       </c>
       <c r="CD9" s="26">
-        <f t="shared" ref="CD9" si="83">CD7-CD8</f>
+        <f t="shared" ref="CD9" si="82">CD7-CD8</f>
         <v>0</v>
       </c>
       <c r="CE9" s="26">
-        <f t="shared" ref="CE9" si="84">CE7-CE8</f>
+        <f t="shared" ref="CE9" si="83">CE7-CE8</f>
         <v>0</v>
       </c>
       <c r="CF9" s="26">
-        <f t="shared" ref="CF9" si="85">CF7-CF8</f>
+        <f t="shared" ref="CF9" si="84">CF7-CF8</f>
         <v>0</v>
       </c>
       <c r="CG9" s="26">
-        <f t="shared" ref="CG9" si="86">CG7-CG8</f>
+        <f t="shared" ref="CG9" si="85">CG7-CG8</f>
         <v>0</v>
       </c>
       <c r="CH9" s="26">
-        <f t="shared" ref="CH9" si="87">CH7-CH8</f>
+        <f t="shared" ref="CH9" si="86">CH7-CH8</f>
         <v>0</v>
       </c>
       <c r="CI9" s="26">
-        <f t="shared" ref="CI9" si="88">CI7-CI8</f>
+        <f t="shared" ref="CI9" si="87">CI7-CI8</f>
         <v>0</v>
       </c>
       <c r="CJ9" s="26">
-        <f t="shared" ref="CJ9" si="89">CJ7-CJ8</f>
+        <f t="shared" ref="CJ9" si="88">CJ7-CJ8</f>
         <v>0</v>
       </c>
       <c r="CK9" s="26">
-        <f t="shared" ref="CK9" si="90">CK7-CK8</f>
+        <f t="shared" ref="CK9" si="89">CK7-CK8</f>
         <v>0</v>
       </c>
       <c r="CL9" s="26">
-        <f t="shared" ref="CL9" si="91">CL7-CL8</f>
+        <f t="shared" ref="CL9" si="90">CL7-CL8</f>
         <v>0</v>
       </c>
       <c r="CM9" s="26">
-        <f t="shared" ref="CM9" si="92">CM7-CM8</f>
+        <f t="shared" ref="CM9" si="91">CM7-CM8</f>
         <v>0</v>
       </c>
       <c r="CN9" s="26">
-        <f t="shared" ref="CN9" si="93">CN7-CN8</f>
+        <f t="shared" ref="CN9" si="92">CN7-CN8</f>
         <v>0</v>
       </c>
       <c r="CO9" s="26">
-        <f t="shared" ref="CO9" si="94">CO7-CO8</f>
+        <f t="shared" ref="CO9" si="93">CO7-CO8</f>
         <v>0</v>
       </c>
       <c r="CP9" s="26">
-        <f t="shared" ref="CP9" si="95">CP7-CP8</f>
+        <f t="shared" ref="CP9" si="94">CP7-CP8</f>
         <v>0</v>
       </c>
       <c r="CQ9" s="26">
-        <f t="shared" ref="CQ9" si="96">CQ7-CQ8</f>
+        <f t="shared" ref="CQ9" si="95">CQ7-CQ8</f>
         <v>0</v>
       </c>
       <c r="CR9" s="26">
-        <f t="shared" ref="CR9" si="97">CR7-CR8</f>
+        <f t="shared" ref="CR9" si="96">CR7-CR8</f>
         <v>0</v>
       </c>
       <c r="CS9" s="26">
-        <f t="shared" ref="CS9" si="98">CS7-CS8</f>
+        <f t="shared" ref="CS9" si="97">CS7-CS8</f>
         <v>0</v>
       </c>
       <c r="CT9" s="26">
-        <f t="shared" ref="CT9" si="99">CT7-CT8</f>
+        <f t="shared" ref="CT9" si="98">CT7-CT8</f>
         <v>0</v>
       </c>
       <c r="CU9" s="26">
-        <f t="shared" ref="CU9" si="100">CU7-CU8</f>
+        <f t="shared" ref="CU9" si="99">CU7-CU8</f>
         <v>0</v>
       </c>
       <c r="CV9" s="26">
-        <f t="shared" ref="CV9" si="101">CV7-CV8</f>
+        <f t="shared" ref="CV9" si="100">CV7-CV8</f>
         <v>0</v>
       </c>
       <c r="CW9" s="26">
-        <f t="shared" ref="CW9" si="102">CW7-CW8</f>
+        <f t="shared" ref="CW9" si="101">CW7-CW8</f>
         <v>0</v>
       </c>
       <c r="CX9" s="26">
-        <f t="shared" ref="CX9" si="103">CX7-CX8</f>
+        <f t="shared" ref="CX9" si="102">CX7-CX8</f>
         <v>0</v>
       </c>
       <c r="CY9" s="26">
-        <f t="shared" ref="CY9" si="104">CY7-CY8</f>
+        <f t="shared" ref="CY9" si="103">CY7-CY8</f>
         <v>0</v>
       </c>
       <c r="CZ9" s="26">
-        <f t="shared" ref="CZ9" si="105">CZ7-CZ8</f>
+        <f t="shared" ref="CZ9" si="104">CZ7-CZ8</f>
         <v>0</v>
       </c>
       <c r="DA9" s="26">
-        <f t="shared" ref="DA9" si="106">DA7-DA8</f>
+        <f t="shared" ref="DA9" si="105">DA7-DA8</f>
         <v>0</v>
       </c>
       <c r="DB9" s="26">
-        <f t="shared" ref="DB9" si="107">DB7-DB8</f>
+        <f t="shared" ref="DB9" si="106">DB7-DB8</f>
         <v>0</v>
       </c>
       <c r="DC9" s="26">
-        <f t="shared" ref="DC9" si="108">DC7-DC8</f>
+        <f t="shared" ref="DC9" si="107">DC7-DC8</f>
         <v>0</v>
       </c>
       <c r="DD9" s="26">
-        <f t="shared" ref="DD9" si="109">DD7-DD8</f>
+        <f t="shared" ref="DD9" si="108">DD7-DD8</f>
         <v>0</v>
       </c>
       <c r="DE9" s="26">
-        <f t="shared" ref="DE9" si="110">DE7-DE8</f>
+        <f t="shared" ref="DE9" si="109">DE7-DE8</f>
         <v>0</v>
       </c>
       <c r="DF9" s="26">
-        <f t="shared" ref="DF9" si="111">DF7-DF8</f>
+        <f t="shared" ref="DF9" si="110">DF7-DF8</f>
         <v>0</v>
       </c>
       <c r="DG9" s="26">
-        <f t="shared" ref="DG9" si="112">DG7-DG8</f>
+        <f t="shared" ref="DG9" si="111">DG7-DG8</f>
         <v>0</v>
       </c>
       <c r="DH9" s="26">
-        <f t="shared" ref="DH9" si="113">DH7-DH8</f>
+        <f t="shared" ref="DH9" si="112">DH7-DH8</f>
         <v>0</v>
       </c>
       <c r="DI9" s="26">
-        <f t="shared" ref="DI9" si="114">DI7-DI8</f>
+        <f t="shared" ref="DI9" si="113">DI7-DI8</f>
         <v>0</v>
       </c>
       <c r="DJ9" s="26">
-        <f t="shared" ref="DJ9" si="115">DJ7-DJ8</f>
+        <f t="shared" ref="DJ9" si="114">DJ7-DJ8</f>
         <v>0</v>
       </c>
       <c r="DK9" s="26">
-        <f t="shared" ref="DK9" si="116">DK7-DK8</f>
+        <f t="shared" ref="DK9" si="115">DK7-DK8</f>
         <v>0</v>
       </c>
       <c r="DL9" s="26">
-        <f t="shared" ref="DL9" si="117">DL7-DL8</f>
+        <f t="shared" ref="DL9" si="116">DL7-DL8</f>
         <v>0</v>
       </c>
       <c r="DM9" s="26">
-        <f t="shared" ref="DM9" si="118">DM7-DM8</f>
+        <f t="shared" ref="DM9" si="117">DM7-DM8</f>
         <v>0</v>
       </c>
       <c r="DN9" s="26">
-        <f t="shared" ref="DN9" si="119">DN7-DN8</f>
+        <f t="shared" ref="DN9" si="118">DN7-DN8</f>
         <v>0</v>
       </c>
       <c r="DO9" s="26">
-        <f t="shared" ref="DO9" si="120">DO7-DO8</f>
+        <f t="shared" ref="DO9" si="119">DO7-DO8</f>
         <v>0</v>
       </c>
       <c r="DP9" s="26">
-        <f t="shared" ref="DP9" si="121">DP7-DP8</f>
+        <f t="shared" ref="DP9" si="120">DP7-DP8</f>
         <v>0</v>
       </c>
       <c r="DQ9" s="26">
-        <f t="shared" ref="DQ9" si="122">DQ7-DQ8</f>
+        <f t="shared" ref="DQ9" si="121">DQ7-DQ8</f>
         <v>0</v>
       </c>
       <c r="DR9" s="26">
-        <f t="shared" ref="DR9" si="123">DR7-DR8</f>
+        <f t="shared" ref="DR9" si="122">DR7-DR8</f>
         <v>0</v>
       </c>
       <c r="DS9" s="26">
-        <f t="shared" ref="DS9" si="124">DS7-DS8</f>
+        <f t="shared" ref="DS9" si="123">DS7-DS8</f>
         <v>0</v>
       </c>
       <c r="DT9" s="26">
-        <f t="shared" ref="DT9" si="125">DT7-DT8</f>
+        <f t="shared" ref="DT9" si="124">DT7-DT8</f>
         <v>0</v>
       </c>
       <c r="DU9" s="26">
-        <f t="shared" ref="DU9" si="126">DU7-DU8</f>
+        <f t="shared" ref="DU9" si="125">DU7-DU8</f>
         <v>0</v>
       </c>
       <c r="DV9" s="26">
-        <f t="shared" ref="DV9" si="127">DV7-DV8</f>
+        <f t="shared" ref="DV9" si="126">DV7-DV8</f>
         <v>0</v>
       </c>
       <c r="DW9" s="26">
-        <f t="shared" ref="DW9" si="128">DW7-DW8</f>
+        <f t="shared" ref="DW9" si="127">DW7-DW8</f>
         <v>0</v>
       </c>
       <c r="DX9" s="26">
-        <f t="shared" ref="DX9" si="129">DX7-DX8</f>
+        <f t="shared" ref="DX9" si="128">DX7-DX8</f>
         <v>0</v>
       </c>
       <c r="DY9" s="26">
-        <f t="shared" ref="DY9" si="130">DY7-DY8</f>
+        <f t="shared" ref="DY9" si="129">DY7-DY8</f>
         <v>0</v>
       </c>
       <c r="DZ9" s="26">
-        <f t="shared" ref="DZ9" si="131">DZ7-DZ8</f>
+        <f t="shared" ref="DZ9" si="130">DZ7-DZ8</f>
         <v>0</v>
       </c>
       <c r="EA9" s="26">
-        <f t="shared" ref="EA9" si="132">EA7-EA8</f>
+        <f t="shared" ref="EA9" si="131">EA7-EA8</f>
         <v>0</v>
       </c>
       <c r="EB9" s="26">
-        <f t="shared" ref="EB9" si="133">EB7-EB8</f>
+        <f t="shared" ref="EB9" si="132">EB7-EB8</f>
         <v>0</v>
       </c>
       <c r="EC9" s="26">
-        <f t="shared" ref="EC9" si="134">EC7-EC8</f>
+        <f t="shared" ref="EC9" si="133">EC7-EC8</f>
         <v>0</v>
       </c>
       <c r="ED9" s="26">
-        <f t="shared" ref="ED9" si="135">ED7-ED8</f>
+        <f t="shared" ref="ED9" si="134">ED7-ED8</f>
         <v>0</v>
       </c>
       <c r="EE9" s="26">
-        <f t="shared" ref="EE9" si="136">EE7-EE8</f>
+        <f t="shared" ref="EE9" si="135">EE7-EE8</f>
         <v>0</v>
       </c>
       <c r="EF9" s="26">
-        <f t="shared" ref="EF9" si="137">EF7-EF8</f>
+        <f t="shared" ref="EF9" si="136">EF7-EF8</f>
         <v>0</v>
       </c>
       <c r="EG9" s="26">
-        <f t="shared" ref="EG9" si="138">EG7-EG8</f>
+        <f t="shared" ref="EG9" si="137">EG7-EG8</f>
         <v>0</v>
       </c>
       <c r="EH9" s="26">
-        <f t="shared" ref="EH9" si="139">EH7-EH8</f>
+        <f t="shared" ref="EH9" si="138">EH7-EH8</f>
         <v>0</v>
       </c>
       <c r="EI9" s="26">
-        <f t="shared" ref="EI9" si="140">EI7-EI8</f>
+        <f t="shared" ref="EI9" si="139">EI7-EI8</f>
         <v>0</v>
       </c>
       <c r="EJ9" s="26">
-        <f t="shared" ref="EJ9" si="141">EJ7-EJ8</f>
+        <f t="shared" ref="EJ9" si="140">EJ7-EJ8</f>
         <v>0</v>
       </c>
       <c r="EK9" s="26">
-        <f t="shared" ref="EK9" si="142">EK7-EK8</f>
+        <f t="shared" ref="EK9" si="141">EK7-EK8</f>
         <v>0</v>
       </c>
       <c r="EL9" s="26">
-        <f t="shared" ref="EL9" si="143">EL7-EL8</f>
+        <f t="shared" ref="EL9" si="142">EL7-EL8</f>
         <v>0</v>
       </c>
       <c r="EM9" s="26">
-        <f t="shared" ref="EM9" si="144">EM7-EM8</f>
+        <f t="shared" ref="EM9" si="143">EM7-EM8</f>
         <v>0</v>
       </c>
       <c r="EN9" s="26">
-        <f t="shared" ref="EN9" si="145">EN7-EN8</f>
+        <f t="shared" ref="EN9" si="144">EN7-EN8</f>
         <v>0</v>
       </c>
       <c r="EO9" s="26">
-        <f t="shared" ref="EO9" si="146">EO7-EO8</f>
+        <f t="shared" ref="EO9" si="145">EO7-EO8</f>
         <v>0</v>
       </c>
       <c r="EP9" s="26">
-        <f t="shared" ref="EP9" si="147">EP7-EP8</f>
+        <f t="shared" ref="EP9" si="146">EP7-EP8</f>
         <v>0</v>
       </c>
       <c r="EQ9" s="26">
-        <f t="shared" ref="EQ9" si="148">EQ7-EQ8</f>
+        <f t="shared" ref="EQ9" si="147">EQ7-EQ8</f>
         <v>0</v>
       </c>
       <c r="ER9" s="26">
-        <f t="shared" ref="ER9" si="149">ER7-ER8</f>
+        <f t="shared" ref="ER9" si="148">ER7-ER8</f>
         <v>0</v>
       </c>
       <c r="ES9" s="26">
-        <f t="shared" ref="ES9" si="150">ES7-ES8</f>
+        <f t="shared" ref="ES9" si="149">ES7-ES8</f>
         <v>0</v>
       </c>
       <c r="ET9" s="26">
-        <f t="shared" ref="ET9" si="151">ET7-ET8</f>
+        <f t="shared" ref="ET9" si="150">ET7-ET8</f>
         <v>0</v>
       </c>
       <c r="EU9" s="26">
-        <f t="shared" ref="EU9" si="152">EU7-EU8</f>
+        <f t="shared" ref="EU9" si="151">EU7-EU8</f>
         <v>0</v>
       </c>
       <c r="EV9" s="26">
-        <f t="shared" ref="EV9" si="153">EV7-EV8</f>
+        <f t="shared" ref="EV9" si="152">EV7-EV8</f>
         <v>0</v>
       </c>
       <c r="EW9" s="26">
-        <f t="shared" ref="EW9" si="154">EW7-EW8</f>
+        <f t="shared" ref="EW9" si="153">EW7-EW8</f>
         <v>0</v>
       </c>
       <c r="EX9" s="26">
-        <f t="shared" ref="EX9" si="155">EX7-EX8</f>
+        <f t="shared" ref="EX9" si="154">EX7-EX8</f>
         <v>0</v>
       </c>
       <c r="EY9" s="26">
-        <f t="shared" ref="EY9" si="156">EY7-EY8</f>
+        <f t="shared" ref="EY9" si="155">EY7-EY8</f>
         <v>0</v>
       </c>
       <c r="EZ9" s="26">
-        <f t="shared" ref="EZ9" si="157">EZ7-EZ8</f>
+        <f t="shared" ref="EZ9" si="156">EZ7-EZ8</f>
         <v>0</v>
       </c>
       <c r="FA9" s="26">
-        <f t="shared" ref="FA9" si="158">FA7-FA8</f>
+        <f t="shared" ref="FA9" si="157">FA7-FA8</f>
         <v>0</v>
       </c>
       <c r="FB9" s="26">
-        <f t="shared" ref="FB9" si="159">FB7-FB8</f>
+        <f t="shared" ref="FB9" si="158">FB7-FB8</f>
         <v>0</v>
       </c>
       <c r="FC9" s="26">
-        <f t="shared" ref="FC9" si="160">FC7-FC8</f>
+        <f t="shared" ref="FC9" si="159">FC7-FC8</f>
         <v>0</v>
       </c>
       <c r="FD9" s="26">
-        <f t="shared" ref="FD9" si="161">FD7-FD8</f>
+        <f t="shared" ref="FD9" si="160">FD7-FD8</f>
         <v>0</v>
       </c>
       <c r="FE9" s="26">
-        <f t="shared" ref="FE9" si="162">FE7-FE8</f>
+        <f t="shared" ref="FE9" si="161">FE7-FE8</f>
         <v>0</v>
       </c>
       <c r="FF9" s="26">
-        <f t="shared" ref="FF9" si="163">FF7-FF8</f>
+        <f t="shared" ref="FF9" si="162">FF7-FF8</f>
         <v>0</v>
       </c>
       <c r="FG9" s="26">
-        <f t="shared" ref="FG9" si="164">FG7-FG8</f>
+        <f t="shared" ref="FG9" si="163">FG7-FG8</f>
         <v>0</v>
       </c>
       <c r="FH9" s="26">
-        <f t="shared" ref="FH9" si="165">FH7-FH8</f>
+        <f t="shared" ref="FH9" si="164">FH7-FH8</f>
         <v>0</v>
       </c>
       <c r="FI9" s="26">
-        <f t="shared" ref="FI9" si="166">FI7-FI8</f>
+        <f t="shared" ref="FI9" si="165">FI7-FI8</f>
         <v>0</v>
       </c>
       <c r="FJ9" s="26">
-        <f t="shared" ref="FJ9" si="167">FJ7-FJ8</f>
+        <f t="shared" ref="FJ9" si="166">FJ7-FJ8</f>
         <v>0</v>
       </c>
       <c r="FK9" s="26">
-        <f t="shared" ref="FK9" si="168">FK7-FK8</f>
+        <f t="shared" ref="FK9" si="167">FK7-FK8</f>
         <v>0</v>
       </c>
       <c r="FL9" s="26">
-        <f t="shared" ref="FL9" si="169">FL7-FL8</f>
+        <f t="shared" ref="FL9" si="168">FL7-FL8</f>
         <v>0</v>
       </c>
       <c r="FM9" s="26">
-        <f t="shared" ref="FM9" si="170">FM7-FM8</f>
+        <f t="shared" ref="FM9" si="169">FM7-FM8</f>
         <v>0</v>
       </c>
       <c r="FN9" s="26">
-        <f t="shared" ref="FN9" si="171">FN7-FN8</f>
+        <f t="shared" ref="FN9" si="170">FN7-FN8</f>
         <v>0</v>
       </c>
       <c r="FO9" s="26">
-        <f t="shared" ref="FO9" si="172">FO7-FO8</f>
+        <f t="shared" ref="FO9" si="171">FO7-FO8</f>
         <v>0</v>
       </c>
       <c r="FP9" s="26">
-        <f t="shared" ref="FP9" si="173">FP7-FP8</f>
+        <f t="shared" ref="FP9" si="172">FP7-FP8</f>
         <v>0</v>
       </c>
       <c r="FQ9" s="26">
@@ -18352,68 +18492,68 @@
         <v>0</v>
       </c>
       <c r="FR9" s="26">
-        <f t="shared" ref="FR9" si="174">FR7-FR8</f>
+        <f t="shared" ref="FR9" si="173">FR7-FR8</f>
         <v>0</v>
       </c>
       <c r="FS9" s="26">
-        <f t="shared" ref="FS9" si="175">FS7-FS8</f>
+        <f t="shared" ref="FS9" si="174">FS7-FS8</f>
         <v>0</v>
       </c>
       <c r="FT9" s="26">
-        <f t="shared" ref="FT9" si="176">FT7-FT8</f>
+        <f t="shared" ref="FT9" si="175">FT7-FT8</f>
         <v>0</v>
       </c>
       <c r="FU9" s="26">
-        <f t="shared" ref="FU9" si="177">FU7-FU8</f>
+        <f t="shared" ref="FU9" si="176">FU7-FU8</f>
         <v>0</v>
       </c>
       <c r="FV9" s="26">
-        <f t="shared" ref="FV9" si="178">FV7-FV8</f>
+        <f t="shared" ref="FV9" si="177">FV7-FV8</f>
         <v>0</v>
       </c>
       <c r="FW9" s="26">
-        <f t="shared" ref="FW9" si="179">FW7-FW8</f>
+        <f t="shared" ref="FW9" si="178">FW7-FW8</f>
         <v>0</v>
       </c>
       <c r="FX9" s="26">
-        <f t="shared" ref="FX9" si="180">FX7-FX8</f>
+        <f t="shared" ref="FX9" si="179">FX7-FX8</f>
         <v>0</v>
       </c>
       <c r="FY9" s="26">
-        <f t="shared" ref="FY9" si="181">FY7-FY8</f>
+        <f t="shared" ref="FY9" si="180">FY7-FY8</f>
         <v>0</v>
       </c>
       <c r="FZ9" s="26">
-        <f t="shared" ref="FZ9" si="182">FZ7-FZ8</f>
+        <f t="shared" ref="FZ9" si="181">FZ7-FZ8</f>
         <v>0</v>
       </c>
       <c r="GA9" s="26">
-        <f t="shared" ref="GA9" si="183">GA7-GA8</f>
+        <f t="shared" ref="GA9" si="182">GA7-GA8</f>
         <v>0</v>
       </c>
       <c r="GB9" s="26">
-        <f t="shared" ref="GB9" si="184">GB7-GB8</f>
+        <f t="shared" ref="GB9" si="183">GB7-GB8</f>
         <v>0</v>
       </c>
       <c r="GC9" s="26">
-        <f t="shared" ref="GC9" si="185">GC7-GC8</f>
+        <f t="shared" ref="GC9" si="184">GC7-GC8</f>
         <v>0</v>
       </c>
       <c r="GD9" s="26">
-        <f t="shared" ref="GD9" si="186">GD7-GD8</f>
+        <f t="shared" ref="GD9" si="185">GD7-GD8</f>
         <v>0</v>
       </c>
       <c r="GE9" s="26">
-        <f t="shared" ref="GE9" si="187">GE7-GE8</f>
+        <f t="shared" ref="GE9" si="186">GE7-GE8</f>
         <v>0</v>
       </c>
       <c r="GF9" s="26">
-        <f t="shared" ref="GF9" si="188">GF7-GF8</f>
+        <f t="shared" ref="GF9" si="187">GF7-GF8</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -18607,7 +18747,7 @@
       <c r="GF10" s="26"/>
     </row>
     <row r="11" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="29" t="s">
         <v>28</v>
       </c>
@@ -18645,14 +18785,14 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
       <c r="AJ11" s="39"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
       <c r="AS11" s="39"/>
       <c r="AT11" s="39"/>
       <c r="AU11" s="39"/>
@@ -18713,771 +18853,771 @@
       <c r="CX11" s="39"/>
       <c r="CY11" s="39"/>
       <c r="CZ11" s="39"/>
-      <c r="DA11" s="26"/>
-      <c r="DB11" s="26"/>
-      <c r="DC11" s="26"/>
-      <c r="DD11" s="26"/>
-      <c r="DE11" s="26"/>
-      <c r="DF11" s="26"/>
-      <c r="DG11" s="26"/>
-      <c r="DH11" s="26"/>
-      <c r="DI11" s="26"/>
-      <c r="DJ11" s="26"/>
-      <c r="DK11" s="26"/>
-      <c r="DL11" s="26"/>
-      <c r="DM11" s="26"/>
-      <c r="DN11" s="26"/>
-      <c r="DO11" s="26"/>
-      <c r="DP11" s="26"/>
-      <c r="DQ11" s="26"/>
-      <c r="DR11" s="26"/>
-      <c r="DS11" s="26"/>
-      <c r="DT11" s="26"/>
-      <c r="DU11" s="26"/>
-      <c r="DV11" s="26"/>
-      <c r="DW11" s="26"/>
-      <c r="DX11" s="26"/>
-      <c r="DY11" s="26"/>
-      <c r="DZ11" s="26"/>
-      <c r="EA11" s="26"/>
-      <c r="EB11" s="26"/>
-      <c r="EC11" s="26"/>
-      <c r="ED11" s="26"/>
-      <c r="EE11" s="26"/>
-      <c r="EF11" s="26"/>
-      <c r="EG11" s="26"/>
-      <c r="EH11" s="26"/>
-      <c r="EI11" s="26"/>
-      <c r="EJ11" s="26"/>
-      <c r="EK11" s="26"/>
-      <c r="EL11" s="26"/>
-      <c r="EM11" s="26"/>
-      <c r="EN11" s="26"/>
-      <c r="EO11" s="26"/>
-      <c r="EP11" s="26"/>
-      <c r="EQ11" s="26"/>
-      <c r="ER11" s="26"/>
-      <c r="ES11" s="26"/>
-      <c r="ET11" s="26"/>
-      <c r="EU11" s="26"/>
-      <c r="EV11" s="26"/>
-      <c r="EW11" s="26"/>
-      <c r="EX11" s="26"/>
-      <c r="EY11" s="26"/>
-      <c r="EZ11" s="26"/>
-      <c r="FA11" s="26"/>
-      <c r="FB11" s="26"/>
-      <c r="FC11" s="26"/>
-      <c r="FD11" s="26"/>
-      <c r="FE11" s="26"/>
-      <c r="FF11" s="26"/>
-      <c r="FG11" s="26"/>
-      <c r="FH11" s="26"/>
-      <c r="FI11" s="26"/>
-      <c r="FJ11" s="26"/>
-      <c r="FK11" s="26"/>
-      <c r="FL11" s="26"/>
-      <c r="FM11" s="26"/>
-      <c r="FN11" s="26"/>
-      <c r="FO11" s="26"/>
-      <c r="FP11" s="26"/>
-      <c r="FQ11" s="26"/>
-      <c r="FR11" s="26"/>
-      <c r="FS11" s="26"/>
-      <c r="FT11" s="26"/>
-      <c r="FU11" s="26"/>
-      <c r="FV11" s="26"/>
-      <c r="FW11" s="26"/>
-      <c r="FX11" s="26"/>
-      <c r="FY11" s="26"/>
-      <c r="FZ11" s="26"/>
-      <c r="GA11" s="26"/>
-      <c r="GB11" s="26"/>
-      <c r="GC11" s="26"/>
-      <c r="GD11" s="26"/>
-      <c r="GE11" s="26"/>
-      <c r="GF11" s="26"/>
+      <c r="DA11" s="39"/>
+      <c r="DB11" s="39"/>
+      <c r="DC11" s="39"/>
+      <c r="DD11" s="39"/>
+      <c r="DE11" s="39"/>
+      <c r="DF11" s="39"/>
+      <c r="DG11" s="39"/>
+      <c r="DH11" s="39"/>
+      <c r="DI11" s="39"/>
+      <c r="DJ11" s="39"/>
+      <c r="DK11" s="39"/>
+      <c r="DL11" s="39"/>
+      <c r="DM11" s="39"/>
+      <c r="DN11" s="39"/>
+      <c r="DO11" s="39"/>
+      <c r="DP11" s="39"/>
+      <c r="DQ11" s="39"/>
+      <c r="DR11" s="39"/>
+      <c r="DS11" s="39"/>
+      <c r="DT11" s="39"/>
+      <c r="DU11" s="39"/>
+      <c r="DV11" s="39"/>
+      <c r="DW11" s="39"/>
+      <c r="DX11" s="39"/>
+      <c r="DY11" s="39"/>
+      <c r="DZ11" s="39"/>
+      <c r="EA11" s="39"/>
+      <c r="EB11" s="39"/>
+      <c r="EC11" s="39"/>
+      <c r="ED11" s="39"/>
+      <c r="EE11" s="39"/>
+      <c r="EF11" s="39"/>
+      <c r="EG11" s="39"/>
+      <c r="EH11" s="39"/>
+      <c r="EI11" s="39"/>
+      <c r="EJ11" s="39"/>
+      <c r="EK11" s="39"/>
+      <c r="EL11" s="39"/>
+      <c r="EM11" s="39"/>
+      <c r="EN11" s="39"/>
+      <c r="EO11" s="39"/>
+      <c r="EP11" s="39"/>
+      <c r="EQ11" s="39"/>
+      <c r="ER11" s="39"/>
+      <c r="ES11" s="39"/>
+      <c r="ET11" s="39"/>
+      <c r="EU11" s="39"/>
+      <c r="EV11" s="39"/>
+      <c r="EW11" s="39"/>
+      <c r="EX11" s="39"/>
+      <c r="EY11" s="39"/>
+      <c r="EZ11" s="39"/>
+      <c r="FA11" s="39"/>
+      <c r="FB11" s="39"/>
+      <c r="FC11" s="39"/>
+      <c r="FD11" s="39"/>
+      <c r="FE11" s="39"/>
+      <c r="FF11" s="39"/>
+      <c r="FG11" s="39"/>
+      <c r="FH11" s="39"/>
+      <c r="FI11" s="39"/>
+      <c r="FJ11" s="39"/>
+      <c r="FK11" s="39"/>
+      <c r="FL11" s="39"/>
+      <c r="FM11" s="39"/>
+      <c r="FN11" s="39"/>
+      <c r="FO11" s="39"/>
+      <c r="FP11" s="39"/>
+      <c r="FQ11" s="39"/>
+      <c r="FR11" s="39"/>
+      <c r="FS11" s="39"/>
+      <c r="FT11" s="39"/>
+      <c r="FU11" s="39"/>
+      <c r="FV11" s="39"/>
+      <c r="FW11" s="39"/>
+      <c r="FX11" s="39"/>
+      <c r="FY11" s="39"/>
+      <c r="FZ11" s="39"/>
+      <c r="GA11" s="39"/>
+      <c r="GB11" s="39"/>
+      <c r="GC11" s="39"/>
+      <c r="GD11" s="39"/>
+      <c r="GE11" s="39"/>
+      <c r="GF11" s="39"/>
     </row>
     <row r="12" spans="1:188" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="26">
-        <f t="shared" ref="C12" si="189">C10-C11</f>
+        <f t="shared" ref="C12" si="188">C10-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="26">
-        <f t="shared" ref="D12" si="190">D10-D11</f>
+        <f t="shared" ref="D12" si="189">D10-D11</f>
         <v>0</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" ref="E12" si="191">E10-E11</f>
+        <f t="shared" ref="E12" si="190">E10-E11</f>
         <v>0</v>
       </c>
       <c r="F12" s="26">
-        <f t="shared" ref="F12" si="192">F10-F11</f>
+        <f t="shared" ref="F12" si="191">F10-F11</f>
         <v>0</v>
       </c>
       <c r="G12" s="26">
-        <f t="shared" ref="G12" si="193">G10-G11</f>
+        <f t="shared" ref="G12" si="192">G10-G11</f>
         <v>0</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" ref="H12" si="194">H10-H11</f>
+        <f t="shared" ref="H12" si="193">H10-H11</f>
         <v>0</v>
       </c>
       <c r="I12" s="26">
-        <f t="shared" ref="I12" si="195">I10-I11</f>
+        <f t="shared" ref="I12" si="194">I10-I11</f>
         <v>0</v>
       </c>
       <c r="J12" s="26">
-        <f t="shared" ref="J12" si="196">J10-J11</f>
+        <f t="shared" ref="J12" si="195">J10-J11</f>
         <v>0</v>
       </c>
       <c r="K12" s="26">
-        <f t="shared" ref="K12" si="197">K10-K11</f>
+        <f t="shared" ref="K12" si="196">K10-K11</f>
         <v>0</v>
       </c>
       <c r="L12" s="26">
-        <f t="shared" ref="L12" si="198">L10-L11</f>
+        <f t="shared" ref="L12" si="197">L10-L11</f>
         <v>0</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" ref="M12" si="199">M10-M11</f>
+        <f t="shared" ref="M12" si="198">M10-M11</f>
         <v>0</v>
       </c>
       <c r="N12" s="26">
-        <f t="shared" ref="N12" si="200">N10-N11</f>
+        <f t="shared" ref="N12" si="199">N10-N11</f>
         <v>0</v>
       </c>
       <c r="O12" s="26">
-        <f t="shared" ref="O12" si="201">O10-O11</f>
+        <f t="shared" ref="O12" si="200">O10-O11</f>
         <v>0</v>
       </c>
       <c r="P12" s="26">
-        <f t="shared" ref="P12" si="202">P10-P11</f>
+        <f t="shared" ref="P12" si="201">P10-P11</f>
         <v>0</v>
       </c>
       <c r="Q12" s="26">
-        <f t="shared" ref="Q12" si="203">Q10-Q11</f>
+        <f t="shared" ref="Q12" si="202">Q10-Q11</f>
         <v>0</v>
       </c>
       <c r="R12" s="26">
-        <f t="shared" ref="R12" si="204">R10-R11</f>
+        <f t="shared" ref="R12" si="203">R10-R11</f>
         <v>0</v>
       </c>
       <c r="S12" s="26">
-        <f t="shared" ref="S12" si="205">S10-S11</f>
+        <f t="shared" ref="S12" si="204">S10-S11</f>
         <v>0</v>
       </c>
       <c r="T12" s="26">
-        <f t="shared" ref="T12" si="206">T10-T11</f>
+        <f t="shared" ref="T12" si="205">T10-T11</f>
         <v>0</v>
       </c>
       <c r="U12" s="26">
-        <f t="shared" ref="U12" si="207">U10-U11</f>
+        <f t="shared" ref="U12" si="206">U10-U11</f>
         <v>0</v>
       </c>
       <c r="V12" s="26">
-        <f t="shared" ref="V12" si="208">V10-V11</f>
+        <f t="shared" ref="V12" si="207">V10-V11</f>
         <v>0</v>
       </c>
       <c r="W12" s="26">
-        <f t="shared" ref="W12" si="209">W10-W11</f>
+        <f t="shared" ref="W12" si="208">W10-W11</f>
         <v>0</v>
       </c>
       <c r="X12" s="26">
-        <f t="shared" ref="X12" si="210">X10-X11</f>
+        <f t="shared" ref="X12" si="209">X10-X11</f>
         <v>0</v>
       </c>
       <c r="Y12" s="26">
-        <f t="shared" ref="Y12" si="211">Y10-Y11</f>
+        <f t="shared" ref="Y12" si="210">Y10-Y11</f>
         <v>0</v>
       </c>
       <c r="Z12" s="26">
-        <f t="shared" ref="Z12" si="212">Z10-Z11</f>
+        <f t="shared" ref="Z12" si="211">Z10-Z11</f>
         <v>0</v>
       </c>
       <c r="AA12" s="26">
-        <f t="shared" ref="AA12" si="213">AA10-AA11</f>
+        <f t="shared" ref="AA12" si="212">AA10-AA11</f>
         <v>0</v>
       </c>
       <c r="AB12" s="26">
-        <f t="shared" ref="AB12" si="214">AB10-AB11</f>
+        <f t="shared" ref="AB12" si="213">AB10-AB11</f>
         <v>0</v>
       </c>
       <c r="AC12" s="26">
-        <f t="shared" ref="AC12" si="215">AC10-AC11</f>
+        <f t="shared" ref="AC12" si="214">AC10-AC11</f>
         <v>0</v>
       </c>
       <c r="AD12" s="26">
-        <f t="shared" ref="AD12" si="216">AD10-AD11</f>
+        <f t="shared" ref="AD12" si="215">AD10-AD11</f>
         <v>0</v>
       </c>
       <c r="AE12" s="26">
-        <f t="shared" ref="AE12" si="217">AE10-AE11</f>
+        <f t="shared" ref="AE12" si="216">AE10-AE11</f>
         <v>0</v>
       </c>
       <c r="AF12" s="26">
-        <f t="shared" ref="AF12" si="218">AF10-AF11</f>
+        <f t="shared" ref="AF12" si="217">AF10-AF11</f>
         <v>0</v>
       </c>
       <c r="AG12" s="26">
-        <f t="shared" ref="AG12" si="219">AG10-AG11</f>
+        <f t="shared" ref="AG12" si="218">AG10-AG11</f>
         <v>0</v>
       </c>
       <c r="AH12" s="26">
-        <f t="shared" ref="AH12" si="220">AH10-AH11</f>
+        <f t="shared" ref="AH12" si="219">AH10-AH11</f>
         <v>0</v>
       </c>
       <c r="AI12" s="26">
-        <f t="shared" ref="AI12" si="221">AI10-AI11</f>
+        <f t="shared" ref="AI12" si="220">AI10-AI11</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="26">
-        <f t="shared" ref="AJ12" si="222">AJ10-AJ11</f>
+        <f t="shared" ref="AJ12" si="221">AJ10-AJ11</f>
         <v>0</v>
       </c>
       <c r="AK12" s="26">
-        <f t="shared" ref="AK12" si="223">AK10-AK11</f>
+        <f t="shared" ref="AK12" si="222">AK10-AK11</f>
         <v>0</v>
       </c>
       <c r="AL12" s="26">
-        <f t="shared" ref="AL12" si="224">AL10-AL11</f>
+        <f t="shared" ref="AL12" si="223">AL10-AL11</f>
         <v>0</v>
       </c>
       <c r="AM12" s="26">
-        <f t="shared" ref="AM12" si="225">AM10-AM11</f>
+        <f t="shared" ref="AM12" si="224">AM10-AM11</f>
         <v>0</v>
       </c>
       <c r="AN12" s="26">
-        <f t="shared" ref="AN12" si="226">AN10-AN11</f>
+        <f t="shared" ref="AN12" si="225">AN10-AN11</f>
         <v>0</v>
       </c>
       <c r="AO12" s="26">
-        <f t="shared" ref="AO12" si="227">AO10-AO11</f>
+        <f t="shared" ref="AO12" si="226">AO10-AO11</f>
         <v>0</v>
       </c>
       <c r="AP12" s="26">
-        <f t="shared" ref="AP12" si="228">AP10-AP11</f>
+        <f t="shared" ref="AP12" si="227">AP10-AP11</f>
         <v>0</v>
       </c>
       <c r="AQ12" s="26">
-        <f t="shared" ref="AQ12" si="229">AQ10-AQ11</f>
+        <f t="shared" ref="AQ12" si="228">AQ10-AQ11</f>
         <v>0</v>
       </c>
       <c r="AR12" s="26">
-        <f t="shared" ref="AR12" si="230">AR10-AR11</f>
+        <f t="shared" ref="AR12" si="229">AR10-AR11</f>
         <v>0</v>
       </c>
       <c r="AS12" s="26">
-        <f t="shared" ref="AS12" si="231">AS10-AS11</f>
+        <f t="shared" ref="AS12" si="230">AS10-AS11</f>
         <v>0</v>
       </c>
       <c r="AT12" s="26">
-        <f t="shared" ref="AT12" si="232">AT10-AT11</f>
+        <f t="shared" ref="AT12" si="231">AT10-AT11</f>
         <v>0</v>
       </c>
       <c r="AU12" s="26">
-        <f t="shared" ref="AU12" si="233">AU10-AU11</f>
+        <f t="shared" ref="AU12" si="232">AU10-AU11</f>
         <v>0</v>
       </c>
       <c r="AV12" s="26">
-        <f t="shared" ref="AV12" si="234">AV10-AV11</f>
+        <f t="shared" ref="AV12" si="233">AV10-AV11</f>
         <v>0</v>
       </c>
       <c r="AW12" s="26">
-        <f t="shared" ref="AW12" si="235">AW10-AW11</f>
+        <f t="shared" ref="AW12" si="234">AW10-AW11</f>
         <v>0</v>
       </c>
       <c r="AX12" s="26">
-        <f t="shared" ref="AX12" si="236">AX10-AX11</f>
+        <f t="shared" ref="AX12" si="235">AX10-AX11</f>
         <v>0</v>
       </c>
       <c r="AY12" s="26">
-        <f t="shared" ref="AY12" si="237">AY10-AY11</f>
+        <f t="shared" ref="AY12" si="236">AY10-AY11</f>
         <v>0</v>
       </c>
       <c r="AZ12" s="26">
-        <f t="shared" ref="AZ12" si="238">AZ10-AZ11</f>
+        <f t="shared" ref="AZ12" si="237">AZ10-AZ11</f>
         <v>0</v>
       </c>
       <c r="BA12" s="26">
-        <f t="shared" ref="BA12" si="239">BA10-BA11</f>
+        <f t="shared" ref="BA12" si="238">BA10-BA11</f>
         <v>0</v>
       </c>
       <c r="BB12" s="26">
-        <f t="shared" ref="BB12" si="240">BB10-BB11</f>
+        <f t="shared" ref="BB12" si="239">BB10-BB11</f>
         <v>0</v>
       </c>
       <c r="BC12" s="26">
-        <f t="shared" ref="BC12" si="241">BC10-BC11</f>
+        <f t="shared" ref="BC12" si="240">BC10-BC11</f>
         <v>0</v>
       </c>
       <c r="BD12" s="26">
-        <f t="shared" ref="BD12" si="242">BD10-BD11</f>
+        <f t="shared" ref="BD12" si="241">BD10-BD11</f>
         <v>0</v>
       </c>
       <c r="BE12" s="26">
-        <f t="shared" ref="BE12" si="243">BE10-BE11</f>
+        <f t="shared" ref="BE12" si="242">BE10-BE11</f>
         <v>0</v>
       </c>
       <c r="BF12" s="26">
-        <f t="shared" ref="BF12" si="244">BF10-BF11</f>
+        <f t="shared" ref="BF12" si="243">BF10-BF11</f>
         <v>0</v>
       </c>
       <c r="BG12" s="26">
-        <f t="shared" ref="BG12" si="245">BG10-BG11</f>
+        <f t="shared" ref="BG12" si="244">BG10-BG11</f>
         <v>0</v>
       </c>
       <c r="BH12" s="26">
-        <f t="shared" ref="BH12" si="246">BH10-BH11</f>
+        <f t="shared" ref="BH12" si="245">BH10-BH11</f>
         <v>0</v>
       </c>
       <c r="BI12" s="26">
-        <f t="shared" ref="BI12" si="247">BI10-BI11</f>
+        <f t="shared" ref="BI12" si="246">BI10-BI11</f>
         <v>0</v>
       </c>
       <c r="BJ12" s="26">
-        <f t="shared" ref="BJ12" si="248">BJ10-BJ11</f>
+        <f t="shared" ref="BJ12" si="247">BJ10-BJ11</f>
         <v>0</v>
       </c>
       <c r="BK12" s="26">
-        <f t="shared" ref="BK12" si="249">BK10-BK11</f>
+        <f t="shared" ref="BK12" si="248">BK10-BK11</f>
         <v>0</v>
       </c>
       <c r="BL12" s="26">
-        <f t="shared" ref="BL12" si="250">BL10-BL11</f>
+        <f t="shared" ref="BL12" si="249">BL10-BL11</f>
         <v>0</v>
       </c>
       <c r="BM12" s="26">
-        <f t="shared" ref="BM12" si="251">BM10-BM11</f>
+        <f t="shared" ref="BM12" si="250">BM10-BM11</f>
         <v>0</v>
       </c>
       <c r="BN12" s="26">
-        <f t="shared" ref="BN12" si="252">BN10-BN11</f>
+        <f t="shared" ref="BN12" si="251">BN10-BN11</f>
         <v>0</v>
       </c>
       <c r="BO12" s="26">
-        <f t="shared" ref="BO12" si="253">BO10-BO11</f>
+        <f t="shared" ref="BO12" si="252">BO10-BO11</f>
         <v>0</v>
       </c>
       <c r="BP12" s="26">
-        <f t="shared" ref="BP12" si="254">BP10-BP11</f>
+        <f t="shared" ref="BP12" si="253">BP10-BP11</f>
         <v>0</v>
       </c>
       <c r="BQ12" s="26">
-        <f t="shared" ref="BQ12" si="255">BQ10-BQ11</f>
+        <f t="shared" ref="BQ12" si="254">BQ10-BQ11</f>
         <v>0</v>
       </c>
       <c r="BR12" s="26">
-        <f t="shared" ref="BR12" si="256">BR10-BR11</f>
+        <f t="shared" ref="BR12" si="255">BR10-BR11</f>
         <v>0</v>
       </c>
       <c r="BS12" s="26">
-        <f t="shared" ref="BS12" si="257">BS10-BS11</f>
+        <f t="shared" ref="BS12" si="256">BS10-BS11</f>
         <v>0</v>
       </c>
       <c r="BT12" s="26">
-        <f t="shared" ref="BT12" si="258">BT10-BT11</f>
+        <f t="shared" ref="BT12" si="257">BT10-BT11</f>
         <v>0</v>
       </c>
       <c r="BU12" s="26">
-        <f t="shared" ref="BU12" si="259">BU10-BU11</f>
+        <f t="shared" ref="BU12" si="258">BU10-BU11</f>
         <v>0</v>
       </c>
       <c r="BV12" s="26">
-        <f t="shared" ref="BV12" si="260">BV10-BV11</f>
+        <f t="shared" ref="BV12" si="259">BV10-BV11</f>
         <v>0</v>
       </c>
       <c r="BW12" s="26">
-        <f t="shared" ref="BW12" si="261">BW10-BW11</f>
+        <f t="shared" ref="BW12" si="260">BW10-BW11</f>
         <v>0</v>
       </c>
       <c r="BX12" s="26">
-        <f t="shared" ref="BX12" si="262">BX10-BX11</f>
+        <f t="shared" ref="BX12" si="261">BX10-BX11</f>
         <v>0</v>
       </c>
       <c r="BY12" s="26">
-        <f t="shared" ref="BY12" si="263">BY10-BY11</f>
+        <f t="shared" ref="BY12" si="262">BY10-BY11</f>
         <v>0</v>
       </c>
       <c r="BZ12" s="26">
-        <f t="shared" ref="BZ12" si="264">BZ10-BZ11</f>
+        <f t="shared" ref="BZ12" si="263">BZ10-BZ11</f>
         <v>0</v>
       </c>
       <c r="CA12" s="26">
-        <f t="shared" ref="CA12" si="265">CA10-CA11</f>
+        <f t="shared" ref="CA12" si="264">CA10-CA11</f>
         <v>0</v>
       </c>
       <c r="CB12" s="26">
-        <f t="shared" ref="CB12" si="266">CB10-CB11</f>
+        <f t="shared" ref="CB12" si="265">CB10-CB11</f>
         <v>0</v>
       </c>
       <c r="CC12" s="26">
-        <f t="shared" ref="CC12" si="267">CC10-CC11</f>
+        <f t="shared" ref="CC12" si="266">CC10-CC11</f>
         <v>0</v>
       </c>
       <c r="CD12" s="26">
-        <f t="shared" ref="CD12" si="268">CD10-CD11</f>
+        <f t="shared" ref="CD12" si="267">CD10-CD11</f>
         <v>0</v>
       </c>
       <c r="CE12" s="26">
-        <f t="shared" ref="CE12" si="269">CE10-CE11</f>
+        <f t="shared" ref="CE12" si="268">CE10-CE11</f>
         <v>0</v>
       </c>
       <c r="CF12" s="26">
-        <f t="shared" ref="CF12" si="270">CF10-CF11</f>
+        <f t="shared" ref="CF12" si="269">CF10-CF11</f>
         <v>0</v>
       </c>
       <c r="CG12" s="26">
-        <f t="shared" ref="CG12" si="271">CG10-CG11</f>
+        <f t="shared" ref="CG12" si="270">CG10-CG11</f>
         <v>0</v>
       </c>
       <c r="CH12" s="26">
-        <f t="shared" ref="CH12" si="272">CH10-CH11</f>
+        <f t="shared" ref="CH12" si="271">CH10-CH11</f>
         <v>0</v>
       </c>
       <c r="CI12" s="26">
-        <f t="shared" ref="CI12" si="273">CI10-CI11</f>
+        <f t="shared" ref="CI12" si="272">CI10-CI11</f>
         <v>0</v>
       </c>
       <c r="CJ12" s="26">
-        <f t="shared" ref="CJ12" si="274">CJ10-CJ11</f>
+        <f t="shared" ref="CJ12" si="273">CJ10-CJ11</f>
         <v>0</v>
       </c>
       <c r="CK12" s="26">
-        <f t="shared" ref="CK12" si="275">CK10-CK11</f>
+        <f t="shared" ref="CK12" si="274">CK10-CK11</f>
         <v>0</v>
       </c>
       <c r="CL12" s="26">
-        <f t="shared" ref="CL12" si="276">CL10-CL11</f>
+        <f t="shared" ref="CL12" si="275">CL10-CL11</f>
         <v>0</v>
       </c>
       <c r="CM12" s="26">
-        <f t="shared" ref="CM12" si="277">CM10-CM11</f>
+        <f t="shared" ref="CM12" si="276">CM10-CM11</f>
         <v>0</v>
       </c>
       <c r="CN12" s="26">
-        <f t="shared" ref="CN12" si="278">CN10-CN11</f>
+        <f t="shared" ref="CN12" si="277">CN10-CN11</f>
         <v>0</v>
       </c>
       <c r="CO12" s="26">
-        <f t="shared" ref="CO12" si="279">CO10-CO11</f>
+        <f t="shared" ref="CO12" si="278">CO10-CO11</f>
         <v>0</v>
       </c>
       <c r="CP12" s="26">
-        <f t="shared" ref="CP12" si="280">CP10-CP11</f>
+        <f t="shared" ref="CP12" si="279">CP10-CP11</f>
         <v>0</v>
       </c>
       <c r="CQ12" s="26">
-        <f t="shared" ref="CQ12" si="281">CQ10-CQ11</f>
+        <f t="shared" ref="CQ12" si="280">CQ10-CQ11</f>
         <v>0</v>
       </c>
       <c r="CR12" s="26">
-        <f t="shared" ref="CR12" si="282">CR10-CR11</f>
+        <f t="shared" ref="CR12" si="281">CR10-CR11</f>
         <v>0</v>
       </c>
       <c r="CS12" s="26">
-        <f t="shared" ref="CS12" si="283">CS10-CS11</f>
+        <f t="shared" ref="CS12" si="282">CS10-CS11</f>
         <v>0</v>
       </c>
       <c r="CT12" s="26">
-        <f t="shared" ref="CT12" si="284">CT10-CT11</f>
+        <f t="shared" ref="CT12" si="283">CT10-CT11</f>
         <v>0</v>
       </c>
       <c r="CU12" s="26">
-        <f t="shared" ref="CU12" si="285">CU10-CU11</f>
+        <f t="shared" ref="CU12" si="284">CU10-CU11</f>
         <v>0</v>
       </c>
       <c r="CV12" s="26">
-        <f t="shared" ref="CV12" si="286">CV10-CV11</f>
+        <f t="shared" ref="CV12" si="285">CV10-CV11</f>
         <v>0</v>
       </c>
       <c r="CW12" s="26">
-        <f t="shared" ref="CW12" si="287">CW10-CW11</f>
+        <f t="shared" ref="CW12" si="286">CW10-CW11</f>
         <v>0</v>
       </c>
       <c r="CX12" s="26">
-        <f t="shared" ref="CX12" si="288">CX10-CX11</f>
+        <f t="shared" ref="CX12" si="287">CX10-CX11</f>
         <v>0</v>
       </c>
       <c r="CY12" s="26">
-        <f t="shared" ref="CY12" si="289">CY10-CY11</f>
+        <f t="shared" ref="CY12" si="288">CY10-CY11</f>
         <v>0</v>
       </c>
       <c r="CZ12" s="26">
-        <f t="shared" ref="CZ12" si="290">CZ10-CZ11</f>
+        <f t="shared" ref="CZ12" si="289">CZ10-CZ11</f>
         <v>0</v>
       </c>
       <c r="DA12" s="26">
-        <f t="shared" ref="DA12" si="291">DA10-DA11</f>
+        <f t="shared" ref="DA12" si="290">DA10-DA11</f>
         <v>0</v>
       </c>
       <c r="DB12" s="26">
-        <f t="shared" ref="DB12" si="292">DB10-DB11</f>
+        <f t="shared" ref="DB12" si="291">DB10-DB11</f>
         <v>0</v>
       </c>
       <c r="DC12" s="26">
-        <f t="shared" ref="DC12" si="293">DC10-DC11</f>
+        <f t="shared" ref="DC12" si="292">DC10-DC11</f>
         <v>0</v>
       </c>
       <c r="DD12" s="26">
-        <f t="shared" ref="DD12" si="294">DD10-DD11</f>
+        <f t="shared" ref="DD12" si="293">DD10-DD11</f>
         <v>0</v>
       </c>
       <c r="DE12" s="26">
-        <f t="shared" ref="DE12" si="295">DE10-DE11</f>
+        <f t="shared" ref="DE12" si="294">DE10-DE11</f>
         <v>0</v>
       </c>
       <c r="DF12" s="26">
-        <f t="shared" ref="DF12" si="296">DF10-DF11</f>
+        <f t="shared" ref="DF12" si="295">DF10-DF11</f>
         <v>0</v>
       </c>
       <c r="DG12" s="26">
-        <f t="shared" ref="DG12" si="297">DG10-DG11</f>
+        <f t="shared" ref="DG12" si="296">DG10-DG11</f>
         <v>0</v>
       </c>
       <c r="DH12" s="26">
-        <f t="shared" ref="DH12" si="298">DH10-DH11</f>
+        <f t="shared" ref="DH12" si="297">DH10-DH11</f>
         <v>0</v>
       </c>
       <c r="DI12" s="26">
-        <f t="shared" ref="DI12" si="299">DI10-DI11</f>
+        <f t="shared" ref="DI12" si="298">DI10-DI11</f>
         <v>0</v>
       </c>
       <c r="DJ12" s="26">
-        <f t="shared" ref="DJ12" si="300">DJ10-DJ11</f>
+        <f t="shared" ref="DJ12" si="299">DJ10-DJ11</f>
         <v>0</v>
       </c>
       <c r="DK12" s="26">
-        <f t="shared" ref="DK12" si="301">DK10-DK11</f>
+        <f t="shared" ref="DK12" si="300">DK10-DK11</f>
         <v>0</v>
       </c>
       <c r="DL12" s="26">
-        <f t="shared" ref="DL12" si="302">DL10-DL11</f>
+        <f t="shared" ref="DL12" si="301">DL10-DL11</f>
         <v>0</v>
       </c>
       <c r="DM12" s="26">
-        <f t="shared" ref="DM12" si="303">DM10-DM11</f>
+        <f t="shared" ref="DM12" si="302">DM10-DM11</f>
         <v>0</v>
       </c>
       <c r="DN12" s="26">
-        <f t="shared" ref="DN12" si="304">DN10-DN11</f>
+        <f t="shared" ref="DN12" si="303">DN10-DN11</f>
         <v>0</v>
       </c>
       <c r="DO12" s="26">
-        <f t="shared" ref="DO12" si="305">DO10-DO11</f>
+        <f t="shared" ref="DO12" si="304">DO10-DO11</f>
         <v>0</v>
       </c>
       <c r="DP12" s="26">
-        <f t="shared" ref="DP12" si="306">DP10-DP11</f>
+        <f t="shared" ref="DP12" si="305">DP10-DP11</f>
         <v>0</v>
       </c>
       <c r="DQ12" s="26">
-        <f t="shared" ref="DQ12" si="307">DQ10-DQ11</f>
+        <f t="shared" ref="DQ12" si="306">DQ10-DQ11</f>
         <v>0</v>
       </c>
       <c r="DR12" s="26">
-        <f t="shared" ref="DR12" si="308">DR10-DR11</f>
+        <f t="shared" ref="DR12" si="307">DR10-DR11</f>
         <v>0</v>
       </c>
       <c r="DS12" s="26">
-        <f t="shared" ref="DS12" si="309">DS10-DS11</f>
+        <f t="shared" ref="DS12" si="308">DS10-DS11</f>
         <v>0</v>
       </c>
       <c r="DT12" s="26">
-        <f t="shared" ref="DT12" si="310">DT10-DT11</f>
+        <f t="shared" ref="DT12" si="309">DT10-DT11</f>
         <v>0</v>
       </c>
       <c r="DU12" s="26">
-        <f t="shared" ref="DU12" si="311">DU10-DU11</f>
+        <f t="shared" ref="DU12" si="310">DU10-DU11</f>
         <v>0</v>
       </c>
       <c r="DV12" s="26">
-        <f t="shared" ref="DV12" si="312">DV10-DV11</f>
+        <f t="shared" ref="DV12" si="311">DV10-DV11</f>
         <v>0</v>
       </c>
       <c r="DW12" s="26">
-        <f t="shared" ref="DW12" si="313">DW10-DW11</f>
+        <f t="shared" ref="DW12" si="312">DW10-DW11</f>
         <v>0</v>
       </c>
       <c r="DX12" s="26">
-        <f t="shared" ref="DX12" si="314">DX10-DX11</f>
+        <f t="shared" ref="DX12" si="313">DX10-DX11</f>
         <v>0</v>
       </c>
       <c r="DY12" s="26">
-        <f t="shared" ref="DY12" si="315">DY10-DY11</f>
+        <f t="shared" ref="DY12" si="314">DY10-DY11</f>
         <v>0</v>
       </c>
       <c r="DZ12" s="26">
-        <f t="shared" ref="DZ12" si="316">DZ10-DZ11</f>
+        <f t="shared" ref="DZ12" si="315">DZ10-DZ11</f>
         <v>0</v>
       </c>
       <c r="EA12" s="26">
-        <f t="shared" ref="EA12" si="317">EA10-EA11</f>
+        <f t="shared" ref="EA12" si="316">EA10-EA11</f>
         <v>0</v>
       </c>
       <c r="EB12" s="26">
-        <f t="shared" ref="EB12" si="318">EB10-EB11</f>
+        <f t="shared" ref="EB12" si="317">EB10-EB11</f>
         <v>0</v>
       </c>
       <c r="EC12" s="26">
-        <f t="shared" ref="EC12" si="319">EC10-EC11</f>
+        <f t="shared" ref="EC12" si="318">EC10-EC11</f>
         <v>0</v>
       </c>
       <c r="ED12" s="26">
-        <f t="shared" ref="ED12" si="320">ED10-ED11</f>
+        <f t="shared" ref="ED12" si="319">ED10-ED11</f>
         <v>0</v>
       </c>
       <c r="EE12" s="26">
-        <f t="shared" ref="EE12" si="321">EE10-EE11</f>
+        <f t="shared" ref="EE12" si="320">EE10-EE11</f>
         <v>0</v>
       </c>
       <c r="EF12" s="26">
-        <f t="shared" ref="EF12" si="322">EF10-EF11</f>
+        <f t="shared" ref="EF12" si="321">EF10-EF11</f>
         <v>0</v>
       </c>
       <c r="EG12" s="26">
-        <f t="shared" ref="EG12" si="323">EG10-EG11</f>
+        <f t="shared" ref="EG12" si="322">EG10-EG11</f>
         <v>0</v>
       </c>
       <c r="EH12" s="26">
-        <f t="shared" ref="EH12" si="324">EH10-EH11</f>
+        <f t="shared" ref="EH12" si="323">EH10-EH11</f>
         <v>0</v>
       </c>
       <c r="EI12" s="26">
-        <f t="shared" ref="EI12" si="325">EI10-EI11</f>
+        <f t="shared" ref="EI12" si="324">EI10-EI11</f>
         <v>0</v>
       </c>
       <c r="EJ12" s="26">
-        <f t="shared" ref="EJ12" si="326">EJ10-EJ11</f>
+        <f t="shared" ref="EJ12" si="325">EJ10-EJ11</f>
         <v>0</v>
       </c>
       <c r="EK12" s="26">
-        <f t="shared" ref="EK12" si="327">EK10-EK11</f>
+        <f t="shared" ref="EK12" si="326">EK10-EK11</f>
         <v>0</v>
       </c>
       <c r="EL12" s="26">
-        <f t="shared" ref="EL12" si="328">EL10-EL11</f>
+        <f t="shared" ref="EL12" si="327">EL10-EL11</f>
         <v>0</v>
       </c>
       <c r="EM12" s="26">
-        <f t="shared" ref="EM12" si="329">EM10-EM11</f>
+        <f t="shared" ref="EM12" si="328">EM10-EM11</f>
         <v>0</v>
       </c>
       <c r="EN12" s="26">
-        <f t="shared" ref="EN12" si="330">EN10-EN11</f>
+        <f t="shared" ref="EN12" si="329">EN10-EN11</f>
         <v>0</v>
       </c>
       <c r="EO12" s="26">
-        <f t="shared" ref="EO12" si="331">EO10-EO11</f>
+        <f t="shared" ref="EO12" si="330">EO10-EO11</f>
         <v>0</v>
       </c>
       <c r="EP12" s="26">
-        <f t="shared" ref="EP12" si="332">EP10-EP11</f>
+        <f t="shared" ref="EP12" si="331">EP10-EP11</f>
         <v>0</v>
       </c>
       <c r="EQ12" s="26">
-        <f t="shared" ref="EQ12" si="333">EQ10-EQ11</f>
+        <f t="shared" ref="EQ12" si="332">EQ10-EQ11</f>
         <v>0</v>
       </c>
       <c r="ER12" s="26">
-        <f t="shared" ref="ER12" si="334">ER10-ER11</f>
+        <f t="shared" ref="ER12" si="333">ER10-ER11</f>
         <v>0</v>
       </c>
       <c r="ES12" s="26">
-        <f t="shared" ref="ES12" si="335">ES10-ES11</f>
+        <f t="shared" ref="ES12" si="334">ES10-ES11</f>
         <v>0</v>
       </c>
       <c r="ET12" s="26">
-        <f t="shared" ref="ET12" si="336">ET10-ET11</f>
+        <f t="shared" ref="ET12" si="335">ET10-ET11</f>
         <v>0</v>
       </c>
       <c r="EU12" s="26">
-        <f t="shared" ref="EU12" si="337">EU10-EU11</f>
+        <f t="shared" ref="EU12" si="336">EU10-EU11</f>
         <v>0</v>
       </c>
       <c r="EV12" s="26">
-        <f t="shared" ref="EV12" si="338">EV10-EV11</f>
+        <f t="shared" ref="EV12" si="337">EV10-EV11</f>
         <v>0</v>
       </c>
       <c r="EW12" s="26">
-        <f t="shared" ref="EW12" si="339">EW10-EW11</f>
+        <f t="shared" ref="EW12" si="338">EW10-EW11</f>
         <v>0</v>
       </c>
       <c r="EX12" s="26">
-        <f t="shared" ref="EX12" si="340">EX10-EX11</f>
+        <f t="shared" ref="EX12" si="339">EX10-EX11</f>
         <v>0</v>
       </c>
       <c r="EY12" s="26">
-        <f t="shared" ref="EY12" si="341">EY10-EY11</f>
+        <f t="shared" ref="EY12" si="340">EY10-EY11</f>
         <v>0</v>
       </c>
       <c r="EZ12" s="26">
-        <f t="shared" ref="EZ12" si="342">EZ10-EZ11</f>
+        <f t="shared" ref="EZ12" si="341">EZ10-EZ11</f>
         <v>0</v>
       </c>
       <c r="FA12" s="26">
-        <f t="shared" ref="FA12" si="343">FA10-FA11</f>
+        <f t="shared" ref="FA12" si="342">FA10-FA11</f>
         <v>0</v>
       </c>
       <c r="FB12" s="26">
-        <f t="shared" ref="FB12" si="344">FB10-FB11</f>
+        <f t="shared" ref="FB12" si="343">FB10-FB11</f>
         <v>0</v>
       </c>
       <c r="FC12" s="26">
-        <f t="shared" ref="FC12" si="345">FC10-FC11</f>
+        <f t="shared" ref="FC12" si="344">FC10-FC11</f>
         <v>0</v>
       </c>
       <c r="FD12" s="26">
-        <f t="shared" ref="FD12" si="346">FD10-FD11</f>
+        <f t="shared" ref="FD12" si="345">FD10-FD11</f>
         <v>0</v>
       </c>
       <c r="FE12" s="26">
-        <f t="shared" ref="FE12" si="347">FE10-FE11</f>
+        <f t="shared" ref="FE12" si="346">FE10-FE11</f>
         <v>0</v>
       </c>
       <c r="FF12" s="26">
-        <f t="shared" ref="FF12" si="348">FF10-FF11</f>
+        <f t="shared" ref="FF12" si="347">FF10-FF11</f>
         <v>0</v>
       </c>
       <c r="FG12" s="26">
-        <f t="shared" ref="FG12" si="349">FG10-FG11</f>
+        <f t="shared" ref="FG12" si="348">FG10-FG11</f>
         <v>0</v>
       </c>
       <c r="FH12" s="26">
-        <f t="shared" ref="FH12" si="350">FH10-FH11</f>
+        <f t="shared" ref="FH12" si="349">FH10-FH11</f>
         <v>0</v>
       </c>
       <c r="FI12" s="26">
-        <f t="shared" ref="FI12" si="351">FI10-FI11</f>
+        <f t="shared" ref="FI12" si="350">FI10-FI11</f>
         <v>0</v>
       </c>
       <c r="FJ12" s="26">
-        <f t="shared" ref="FJ12" si="352">FJ10-FJ11</f>
+        <f t="shared" ref="FJ12" si="351">FJ10-FJ11</f>
         <v>0</v>
       </c>
       <c r="FK12" s="26">
-        <f t="shared" ref="FK12" si="353">FK10-FK11</f>
+        <f t="shared" ref="FK12" si="352">FK10-FK11</f>
         <v>0</v>
       </c>
       <c r="FL12" s="26">
-        <f t="shared" ref="FL12" si="354">FL10-FL11</f>
+        <f t="shared" ref="FL12" si="353">FL10-FL11</f>
         <v>0</v>
       </c>
       <c r="FM12" s="26">
-        <f t="shared" ref="FM12" si="355">FM10-FM11</f>
+        <f t="shared" ref="FM12" si="354">FM10-FM11</f>
         <v>0</v>
       </c>
       <c r="FN12" s="26">
-        <f t="shared" ref="FN12" si="356">FN10-FN11</f>
+        <f t="shared" ref="FN12" si="355">FN10-FN11</f>
         <v>0</v>
       </c>
       <c r="FO12" s="26">
-        <f t="shared" ref="FO12" si="357">FO10-FO11</f>
+        <f t="shared" ref="FO12" si="356">FO10-FO11</f>
         <v>0</v>
       </c>
       <c r="FP12" s="26">
-        <f t="shared" ref="FP12" si="358">FP10-FP11</f>
+        <f t="shared" ref="FP12" si="357">FP10-FP11</f>
         <v>0</v>
       </c>
       <c r="FQ12" s="26">
@@ -19485,68 +19625,117 @@
         <v>0</v>
       </c>
       <c r="FR12" s="26">
-        <f t="shared" ref="FR12" si="359">FR10-FR11</f>
+        <f t="shared" ref="FR12" si="358">FR10-FR11</f>
         <v>0</v>
       </c>
       <c r="FS12" s="26">
-        <f t="shared" ref="FS12" si="360">FS10-FS11</f>
+        <f t="shared" ref="FS12" si="359">FS10-FS11</f>
         <v>0</v>
       </c>
       <c r="FT12" s="26">
-        <f t="shared" ref="FT12" si="361">FT10-FT11</f>
+        <f t="shared" ref="FT12" si="360">FT10-FT11</f>
         <v>0</v>
       </c>
       <c r="FU12" s="26">
-        <f t="shared" ref="FU12" si="362">FU10-FU11</f>
+        <f t="shared" ref="FU12" si="361">FU10-FU11</f>
         <v>0</v>
       </c>
       <c r="FV12" s="26">
-        <f t="shared" ref="FV12" si="363">FV10-FV11</f>
+        <f t="shared" ref="FV12" si="362">FV10-FV11</f>
         <v>0</v>
       </c>
       <c r="FW12" s="26">
-        <f t="shared" ref="FW12" si="364">FW10-FW11</f>
+        <f t="shared" ref="FW12" si="363">FW10-FW11</f>
         <v>0</v>
       </c>
       <c r="FX12" s="26">
-        <f t="shared" ref="FX12" si="365">FX10-FX11</f>
+        <f t="shared" ref="FX12" si="364">FX10-FX11</f>
         <v>0</v>
       </c>
       <c r="FY12" s="26">
-        <f t="shared" ref="FY12" si="366">FY10-FY11</f>
+        <f t="shared" ref="FY12" si="365">FY10-FY11</f>
         <v>0</v>
       </c>
       <c r="FZ12" s="26">
-        <f t="shared" ref="FZ12" si="367">FZ10-FZ11</f>
+        <f t="shared" ref="FZ12" si="366">FZ10-FZ11</f>
         <v>0</v>
       </c>
       <c r="GA12" s="26">
-        <f t="shared" ref="GA12" si="368">GA10-GA11</f>
+        <f t="shared" ref="GA12" si="367">GA10-GA11</f>
         <v>0</v>
       </c>
       <c r="GB12" s="26">
-        <f t="shared" ref="GB12" si="369">GB10-GB11</f>
+        <f t="shared" ref="GB12" si="368">GB10-GB11</f>
         <v>0</v>
       </c>
       <c r="GC12" s="26">
-        <f t="shared" ref="GC12" si="370">GC10-GC11</f>
+        <f t="shared" ref="GC12" si="369">GC10-GC11</f>
         <v>0</v>
       </c>
       <c r="GD12" s="26">
-        <f t="shared" ref="GD12" si="371">GD10-GD11</f>
+        <f t="shared" ref="GD12" si="370">GD10-GD11</f>
         <v>0</v>
       </c>
       <c r="GE12" s="26">
-        <f t="shared" ref="GE12" si="372">GE10-GE11</f>
+        <f t="shared" ref="GE12" si="371">GE10-GE11</f>
         <v>0</v>
       </c>
       <c r="GF12" s="26">
-        <f t="shared" ref="GF12" si="373">GF10-GF11</f>
+        <f t="shared" ref="GF12" si="372">GF10-GF11</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BQ2:BS2"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="BW2:BY2"/>
+    <mergeCell ref="CU2:CW2"/>
+    <mergeCell ref="CX2:CZ2"/>
+    <mergeCell ref="DA2:DC2"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CI2:CK2"/>
+    <mergeCell ref="CL2:CN2"/>
+    <mergeCell ref="EK2:EM2"/>
+    <mergeCell ref="EN2:EP2"/>
+    <mergeCell ref="EQ2:ES2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="DS2:DU2"/>
+    <mergeCell ref="DV2:DX2"/>
+    <mergeCell ref="DY2:EA2"/>
+    <mergeCell ref="EB2:ED2"/>
+    <mergeCell ref="EE2:EG2"/>
+    <mergeCell ref="DD2:DF2"/>
+    <mergeCell ref="DG2:DI2"/>
+    <mergeCell ref="DJ2:DL2"/>
+    <mergeCell ref="DM2:DO2"/>
+    <mergeCell ref="DP2:DR2"/>
+    <mergeCell ref="CO2:CQ2"/>
+    <mergeCell ref="CR2:CT2"/>
     <mergeCell ref="FX2:FZ2"/>
     <mergeCell ref="GA2:GC2"/>
     <mergeCell ref="GD2:GF2"/>
@@ -19563,84 +19752,45 @@
     <mergeCell ref="FC2:FE2"/>
     <mergeCell ref="FF2:FH2"/>
     <mergeCell ref="EH2:EJ2"/>
-    <mergeCell ref="EK2:EM2"/>
-    <mergeCell ref="EN2:EP2"/>
-    <mergeCell ref="EQ2:ES2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="DS2:DU2"/>
-    <mergeCell ref="DV2:DX2"/>
-    <mergeCell ref="DY2:EA2"/>
-    <mergeCell ref="EB2:ED2"/>
-    <mergeCell ref="EE2:EG2"/>
-    <mergeCell ref="DD2:DF2"/>
-    <mergeCell ref="DG2:DI2"/>
-    <mergeCell ref="DJ2:DL2"/>
-    <mergeCell ref="DM2:DO2"/>
-    <mergeCell ref="DP2:DR2"/>
-    <mergeCell ref="CO2:CQ2"/>
-    <mergeCell ref="CR2:CT2"/>
-    <mergeCell ref="CU2:CW2"/>
-    <mergeCell ref="CX2:CZ2"/>
-    <mergeCell ref="DA2:DC2"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CI2:CK2"/>
-    <mergeCell ref="CL2:CN2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BQ2:BS2"/>
-    <mergeCell ref="BT2:BV2"/>
-    <mergeCell ref="BW2:BY2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>OR((C$6&lt;0), (D$6&lt;0), (E$6&lt;0),(C$9&lt;0),(D$9&lt;0),(E$9&lt;0),(C$12&lt;0),(D$12&lt;0),(E$12&lt;0) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>($C$6)&lt;0</formula>
+  <conditionalFormatting sqref="C5:GF5">
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>(C6)&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>OR((F$6&lt;0), (G$6&lt;0), (H$6&lt;0),(F$9&lt;0),(G$9&lt;0),(H$9&lt;0),(F$12&lt;0),(G$12&lt;0),(H$12&lt;0) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>OR((I$6&lt;0), (J$6&lt;0), (K$6&lt;0),(I$9&lt;0),(J$9&lt;0),(K$9&lt;0),(I$12&lt;0),(J$12&lt;0),(K$12&lt;0) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>OR((L$6&lt;0), (M$6&lt;0), (N$6&lt;0),(L$9&lt;0),(M$9&lt;0),(N$9&lt;0),(L$12&lt;0),(M$12&lt;0),(N$12&lt;0) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2 R2 U2 X2 AA2 AD2 AG2 AJ2 AM2 AP2 AS2 AV2 AY2 BB2 BE2 BH2 BK2 BN2 BQ2 BT2 BW2 BZ2 CC2 CF2 CI2 CL2 CO2 CR2 CU2 CX2 DA2 DD2 DG2 DJ2 DM2 DP2 DS2 DV2 DY2 EB2 EE2 EH2 EK2 EN2 EQ2 ET2 EW2 EZ2 FC2 FF2 FI2 FL2 FO2 FR2 FU2 FX2 GA2 GD2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>OR((O$6&lt;0), (P$6&lt;0), (Q$6&lt;0),(O$9&lt;0),(P$9&lt;0),(Q$9&lt;0),(O$12&lt;0),(P$12&lt;0),(Q$12&lt;0) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:GF8">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>(C9)&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:GF11">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>(C12)&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/wizard/FinishFetplan.xlsx
+++ b/wizard/FinishFetplan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="29">
   <si>
     <t>Colour coding for Job In Finish Fettling F2</t>
   </si>
@@ -696,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -840,42 +840,12 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,6 +859,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6098,7 +6099,7 @@
       <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6110,10 +6111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:291" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80"/>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
@@ -6124,15 +6125,9 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:291" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6141,24 +6136,18 @@
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="7">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7">
-        <v>16</v>
-      </c>
-      <c r="M2" s="7">
-        <v>16</v>
-      </c>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:291" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6171,24 +6160,18 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="7">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7">
-        <v>9</v>
-      </c>
-      <c r="M3" s="7">
-        <v>9</v>
-      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:291" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6197,24 +6180,18 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:291" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6227,15 +6204,15 @@
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="88">
         <v>627</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -6315,298 +6292,298 @@
     </row>
     <row r="10" spans="1:291" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:291" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="72"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="71"/>
-      <c r="BG11" s="72"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="71"/>
-      <c r="BJ11" s="72"/>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="72"/>
-      <c r="BN11" s="73"/>
-      <c r="BO11" s="71"/>
-      <c r="BP11" s="72"/>
-      <c r="BQ11" s="73"/>
-      <c r="BR11" s="71"/>
-      <c r="BS11" s="72"/>
-      <c r="BT11" s="73"/>
-      <c r="BU11" s="71"/>
-      <c r="BV11" s="72"/>
-      <c r="BW11" s="73"/>
-      <c r="BX11" s="71"/>
-      <c r="BY11" s="72"/>
-      <c r="BZ11" s="73"/>
-      <c r="CA11" s="71"/>
-      <c r="CB11" s="72"/>
-      <c r="CC11" s="73"/>
-      <c r="CD11" s="71"/>
-      <c r="CE11" s="72"/>
-      <c r="CF11" s="73"/>
-      <c r="CG11" s="71"/>
-      <c r="CH11" s="72"/>
-      <c r="CI11" s="73"/>
-      <c r="CJ11" s="71"/>
-      <c r="CK11" s="72"/>
-      <c r="CL11" s="73"/>
-      <c r="CM11" s="71"/>
-      <c r="CN11" s="72"/>
-      <c r="CO11" s="73"/>
-      <c r="CP11" s="71"/>
-      <c r="CQ11" s="72"/>
-      <c r="CR11" s="73"/>
-      <c r="CS11" s="71"/>
-      <c r="CT11" s="72"/>
-      <c r="CU11" s="73"/>
-      <c r="CV11" s="71"/>
-      <c r="CW11" s="72"/>
-      <c r="CX11" s="73"/>
-      <c r="CY11" s="71"/>
-      <c r="CZ11" s="72"/>
-      <c r="DA11" s="73"/>
-      <c r="DB11" s="71"/>
-      <c r="DC11" s="72"/>
-      <c r="DD11" s="73"/>
-      <c r="DE11" s="71"/>
-      <c r="DF11" s="72"/>
-      <c r="DG11" s="73"/>
-      <c r="DH11" s="71"/>
-      <c r="DI11" s="72"/>
-      <c r="DJ11" s="73"/>
-      <c r="DK11" s="71"/>
-      <c r="DL11" s="72"/>
-      <c r="DM11" s="73"/>
-      <c r="DN11" s="71"/>
-      <c r="DO11" s="72"/>
-      <c r="DP11" s="73"/>
-      <c r="DQ11" s="71"/>
-      <c r="DR11" s="72"/>
-      <c r="DS11" s="73"/>
-      <c r="DT11" s="71"/>
-      <c r="DU11" s="72"/>
-      <c r="DV11" s="73"/>
-      <c r="DW11" s="71"/>
-      <c r="DX11" s="72"/>
-      <c r="DY11" s="73"/>
-      <c r="DZ11" s="71"/>
-      <c r="EA11" s="72"/>
-      <c r="EB11" s="73"/>
-      <c r="EC11" s="71"/>
-      <c r="ED11" s="72"/>
-      <c r="EE11" s="73"/>
-      <c r="EF11" s="71"/>
-      <c r="EG11" s="72"/>
-      <c r="EH11" s="73"/>
-      <c r="EI11" s="71"/>
-      <c r="EJ11" s="72"/>
-      <c r="EK11" s="73"/>
-      <c r="EL11" s="71"/>
-      <c r="EM11" s="72"/>
-      <c r="EN11" s="73"/>
-      <c r="EO11" s="71"/>
-      <c r="EP11" s="72"/>
-      <c r="EQ11" s="73"/>
-      <c r="ER11" s="71"/>
-      <c r="ES11" s="72"/>
-      <c r="ET11" s="73"/>
-      <c r="EU11" s="71"/>
-      <c r="EV11" s="72"/>
-      <c r="EW11" s="73"/>
-      <c r="EX11" s="71"/>
-      <c r="EY11" s="72"/>
-      <c r="EZ11" s="73"/>
-      <c r="FA11" s="71"/>
-      <c r="FB11" s="72"/>
-      <c r="FC11" s="73"/>
-      <c r="FD11" s="71"/>
-      <c r="FE11" s="72"/>
-      <c r="FF11" s="73"/>
-      <c r="FG11" s="71"/>
-      <c r="FH11" s="72"/>
-      <c r="FI11" s="73"/>
-      <c r="FJ11" s="71"/>
-      <c r="FK11" s="72"/>
-      <c r="FL11" s="73"/>
-      <c r="FM11" s="71"/>
-      <c r="FN11" s="72"/>
-      <c r="FO11" s="73"/>
-      <c r="FP11" s="71"/>
-      <c r="FQ11" s="72"/>
-      <c r="FR11" s="73"/>
-      <c r="FS11" s="71"/>
-      <c r="FT11" s="72"/>
-      <c r="FU11" s="73"/>
-      <c r="FV11" s="71"/>
-      <c r="FW11" s="72"/>
-      <c r="FX11" s="73"/>
-      <c r="FY11" s="71"/>
-      <c r="FZ11" s="72"/>
-      <c r="GA11" s="73"/>
-      <c r="GB11" s="71"/>
-      <c r="GC11" s="72"/>
-      <c r="GD11" s="73"/>
-      <c r="GE11" s="71"/>
-      <c r="GF11" s="72"/>
-      <c r="GG11" s="73"/>
-      <c r="GH11" s="71"/>
-      <c r="GI11" s="72"/>
-      <c r="GJ11" s="73"/>
-      <c r="GK11" s="71"/>
-      <c r="GL11" s="72"/>
-      <c r="GM11" s="73"/>
-      <c r="GN11" s="71"/>
-      <c r="GO11" s="72"/>
-      <c r="GP11" s="73"/>
-      <c r="GQ11" s="71"/>
-      <c r="GR11" s="72"/>
-      <c r="GS11" s="73"/>
-      <c r="GT11" s="71"/>
-      <c r="GU11" s="72"/>
-      <c r="GV11" s="73"/>
-      <c r="GW11" s="71"/>
-      <c r="GX11" s="72"/>
-      <c r="GY11" s="73"/>
-      <c r="GZ11" s="71"/>
-      <c r="HA11" s="72"/>
-      <c r="HB11" s="73"/>
-      <c r="HC11" s="71"/>
-      <c r="HD11" s="72"/>
-      <c r="HE11" s="73"/>
-      <c r="HF11" s="71"/>
-      <c r="HG11" s="72"/>
-      <c r="HH11" s="73"/>
-      <c r="HI11" s="71"/>
-      <c r="HJ11" s="72"/>
-      <c r="HK11" s="73"/>
-      <c r="HL11" s="71"/>
-      <c r="HM11" s="72"/>
-      <c r="HN11" s="73"/>
-      <c r="HO11" s="71"/>
-      <c r="HP11" s="72"/>
-      <c r="HQ11" s="73"/>
-      <c r="HR11" s="71"/>
-      <c r="HS11" s="72"/>
-      <c r="HT11" s="73"/>
-      <c r="HU11" s="71"/>
-      <c r="HV11" s="72"/>
-      <c r="HW11" s="73"/>
-      <c r="HX11" s="71"/>
-      <c r="HY11" s="72"/>
-      <c r="HZ11" s="73"/>
-      <c r="IA11" s="71"/>
-      <c r="IB11" s="72"/>
-      <c r="IC11" s="73"/>
-      <c r="ID11" s="71"/>
-      <c r="IE11" s="72"/>
-      <c r="IF11" s="73"/>
-      <c r="IG11" s="71"/>
-      <c r="IH11" s="72"/>
-      <c r="II11" s="73"/>
-      <c r="IJ11" s="71"/>
-      <c r="IK11" s="72"/>
-      <c r="IL11" s="73"/>
-      <c r="IM11" s="71"/>
-      <c r="IN11" s="72"/>
-      <c r="IO11" s="73"/>
-      <c r="IP11" s="71"/>
-      <c r="IQ11" s="72"/>
-      <c r="IR11" s="73"/>
-      <c r="IS11" s="71"/>
-      <c r="IT11" s="72"/>
-      <c r="IU11" s="73"/>
-      <c r="IV11" s="71"/>
-      <c r="IW11" s="72"/>
-      <c r="IX11" s="73"/>
-      <c r="IY11" s="71"/>
-      <c r="IZ11" s="72"/>
-      <c r="JA11" s="73"/>
-      <c r="JB11" s="71"/>
-      <c r="JC11" s="72"/>
-      <c r="JD11" s="73"/>
-      <c r="JE11" s="71"/>
-      <c r="JF11" s="72"/>
-      <c r="JG11" s="73"/>
-      <c r="JH11" s="71"/>
-      <c r="JI11" s="72"/>
-      <c r="JJ11" s="73"/>
-      <c r="JK11" s="71"/>
-      <c r="JL11" s="72"/>
-      <c r="JM11" s="73"/>
-      <c r="JN11" s="71"/>
-      <c r="JO11" s="72"/>
-      <c r="JP11" s="73"/>
-      <c r="JQ11" s="71"/>
-      <c r="JR11" s="72"/>
-      <c r="JS11" s="73"/>
-      <c r="JT11" s="71"/>
-      <c r="JU11" s="72"/>
-      <c r="JV11" s="73"/>
-      <c r="JW11" s="71"/>
-      <c r="JX11" s="72"/>
-      <c r="JY11" s="73"/>
-      <c r="JZ11" s="71"/>
-      <c r="KA11" s="72"/>
-      <c r="KB11" s="73"/>
-      <c r="KC11" s="71"/>
-      <c r="KD11" s="72"/>
-      <c r="KE11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="80"/>
+      <c r="AM11" s="81"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="80"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="80"/>
+      <c r="AS11" s="81"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="80"/>
+      <c r="AV11" s="81"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="80"/>
+      <c r="AY11" s="81"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="80"/>
+      <c r="BB11" s="81"/>
+      <c r="BC11" s="79"/>
+      <c r="BD11" s="80"/>
+      <c r="BE11" s="81"/>
+      <c r="BF11" s="79"/>
+      <c r="BG11" s="80"/>
+      <c r="BH11" s="81"/>
+      <c r="BI11" s="79"/>
+      <c r="BJ11" s="80"/>
+      <c r="BK11" s="81"/>
+      <c r="BL11" s="79"/>
+      <c r="BM11" s="80"/>
+      <c r="BN11" s="81"/>
+      <c r="BO11" s="79"/>
+      <c r="BP11" s="80"/>
+      <c r="BQ11" s="81"/>
+      <c r="BR11" s="79"/>
+      <c r="BS11" s="80"/>
+      <c r="BT11" s="81"/>
+      <c r="BU11" s="79"/>
+      <c r="BV11" s="80"/>
+      <c r="BW11" s="81"/>
+      <c r="BX11" s="79"/>
+      <c r="BY11" s="80"/>
+      <c r="BZ11" s="81"/>
+      <c r="CA11" s="79"/>
+      <c r="CB11" s="80"/>
+      <c r="CC11" s="81"/>
+      <c r="CD11" s="79"/>
+      <c r="CE11" s="80"/>
+      <c r="CF11" s="81"/>
+      <c r="CG11" s="79"/>
+      <c r="CH11" s="80"/>
+      <c r="CI11" s="81"/>
+      <c r="CJ11" s="79"/>
+      <c r="CK11" s="80"/>
+      <c r="CL11" s="81"/>
+      <c r="CM11" s="79"/>
+      <c r="CN11" s="80"/>
+      <c r="CO11" s="81"/>
+      <c r="CP11" s="79"/>
+      <c r="CQ11" s="80"/>
+      <c r="CR11" s="81"/>
+      <c r="CS11" s="79"/>
+      <c r="CT11" s="80"/>
+      <c r="CU11" s="81"/>
+      <c r="CV11" s="79"/>
+      <c r="CW11" s="80"/>
+      <c r="CX11" s="81"/>
+      <c r="CY11" s="79"/>
+      <c r="CZ11" s="80"/>
+      <c r="DA11" s="81"/>
+      <c r="DB11" s="79"/>
+      <c r="DC11" s="80"/>
+      <c r="DD11" s="81"/>
+      <c r="DE11" s="79"/>
+      <c r="DF11" s="80"/>
+      <c r="DG11" s="81"/>
+      <c r="DH11" s="79"/>
+      <c r="DI11" s="80"/>
+      <c r="DJ11" s="81"/>
+      <c r="DK11" s="79"/>
+      <c r="DL11" s="80"/>
+      <c r="DM11" s="81"/>
+      <c r="DN11" s="79"/>
+      <c r="DO11" s="80"/>
+      <c r="DP11" s="81"/>
+      <c r="DQ11" s="79"/>
+      <c r="DR11" s="80"/>
+      <c r="DS11" s="81"/>
+      <c r="DT11" s="79"/>
+      <c r="DU11" s="80"/>
+      <c r="DV11" s="81"/>
+      <c r="DW11" s="79"/>
+      <c r="DX11" s="80"/>
+      <c r="DY11" s="81"/>
+      <c r="DZ11" s="79"/>
+      <c r="EA11" s="80"/>
+      <c r="EB11" s="81"/>
+      <c r="EC11" s="79"/>
+      <c r="ED11" s="80"/>
+      <c r="EE11" s="81"/>
+      <c r="EF11" s="79"/>
+      <c r="EG11" s="80"/>
+      <c r="EH11" s="81"/>
+      <c r="EI11" s="79"/>
+      <c r="EJ11" s="80"/>
+      <c r="EK11" s="81"/>
+      <c r="EL11" s="79"/>
+      <c r="EM11" s="80"/>
+      <c r="EN11" s="81"/>
+      <c r="EO11" s="79"/>
+      <c r="EP11" s="80"/>
+      <c r="EQ11" s="81"/>
+      <c r="ER11" s="79"/>
+      <c r="ES11" s="80"/>
+      <c r="ET11" s="81"/>
+      <c r="EU11" s="79"/>
+      <c r="EV11" s="80"/>
+      <c r="EW11" s="81"/>
+      <c r="EX11" s="79"/>
+      <c r="EY11" s="80"/>
+      <c r="EZ11" s="81"/>
+      <c r="FA11" s="79"/>
+      <c r="FB11" s="80"/>
+      <c r="FC11" s="81"/>
+      <c r="FD11" s="79"/>
+      <c r="FE11" s="80"/>
+      <c r="FF11" s="81"/>
+      <c r="FG11" s="79"/>
+      <c r="FH11" s="80"/>
+      <c r="FI11" s="81"/>
+      <c r="FJ11" s="79"/>
+      <c r="FK11" s="80"/>
+      <c r="FL11" s="81"/>
+      <c r="FM11" s="79"/>
+      <c r="FN11" s="80"/>
+      <c r="FO11" s="81"/>
+      <c r="FP11" s="79"/>
+      <c r="FQ11" s="80"/>
+      <c r="FR11" s="81"/>
+      <c r="FS11" s="79"/>
+      <c r="FT11" s="80"/>
+      <c r="FU11" s="81"/>
+      <c r="FV11" s="79"/>
+      <c r="FW11" s="80"/>
+      <c r="FX11" s="81"/>
+      <c r="FY11" s="79"/>
+      <c r="FZ11" s="80"/>
+      <c r="GA11" s="81"/>
+      <c r="GB11" s="79"/>
+      <c r="GC11" s="80"/>
+      <c r="GD11" s="81"/>
+      <c r="GE11" s="79"/>
+      <c r="GF11" s="80"/>
+      <c r="GG11" s="81"/>
+      <c r="GH11" s="79"/>
+      <c r="GI11" s="80"/>
+      <c r="GJ11" s="81"/>
+      <c r="GK11" s="79"/>
+      <c r="GL11" s="80"/>
+      <c r="GM11" s="81"/>
+      <c r="GN11" s="79"/>
+      <c r="GO11" s="80"/>
+      <c r="GP11" s="81"/>
+      <c r="GQ11" s="79"/>
+      <c r="GR11" s="80"/>
+      <c r="GS11" s="81"/>
+      <c r="GT11" s="79"/>
+      <c r="GU11" s="80"/>
+      <c r="GV11" s="81"/>
+      <c r="GW11" s="79"/>
+      <c r="GX11" s="80"/>
+      <c r="GY11" s="81"/>
+      <c r="GZ11" s="79"/>
+      <c r="HA11" s="80"/>
+      <c r="HB11" s="81"/>
+      <c r="HC11" s="79"/>
+      <c r="HD11" s="80"/>
+      <c r="HE11" s="81"/>
+      <c r="HF11" s="79"/>
+      <c r="HG11" s="80"/>
+      <c r="HH11" s="81"/>
+      <c r="HI11" s="79"/>
+      <c r="HJ11" s="80"/>
+      <c r="HK11" s="81"/>
+      <c r="HL11" s="79"/>
+      <c r="HM11" s="80"/>
+      <c r="HN11" s="81"/>
+      <c r="HO11" s="79"/>
+      <c r="HP11" s="80"/>
+      <c r="HQ11" s="81"/>
+      <c r="HR11" s="79"/>
+      <c r="HS11" s="80"/>
+      <c r="HT11" s="81"/>
+      <c r="HU11" s="79"/>
+      <c r="HV11" s="80"/>
+      <c r="HW11" s="81"/>
+      <c r="HX11" s="79"/>
+      <c r="HY11" s="80"/>
+      <c r="HZ11" s="81"/>
+      <c r="IA11" s="79"/>
+      <c r="IB11" s="80"/>
+      <c r="IC11" s="81"/>
+      <c r="ID11" s="79"/>
+      <c r="IE11" s="80"/>
+      <c r="IF11" s="81"/>
+      <c r="IG11" s="79"/>
+      <c r="IH11" s="80"/>
+      <c r="II11" s="81"/>
+      <c r="IJ11" s="79"/>
+      <c r="IK11" s="80"/>
+      <c r="IL11" s="81"/>
+      <c r="IM11" s="79"/>
+      <c r="IN11" s="80"/>
+      <c r="IO11" s="81"/>
+      <c r="IP11" s="79"/>
+      <c r="IQ11" s="80"/>
+      <c r="IR11" s="81"/>
+      <c r="IS11" s="79"/>
+      <c r="IT11" s="80"/>
+      <c r="IU11" s="81"/>
+      <c r="IV11" s="79"/>
+      <c r="IW11" s="80"/>
+      <c r="IX11" s="81"/>
+      <c r="IY11" s="79"/>
+      <c r="IZ11" s="80"/>
+      <c r="JA11" s="81"/>
+      <c r="JB11" s="79"/>
+      <c r="JC11" s="80"/>
+      <c r="JD11" s="81"/>
+      <c r="JE11" s="79"/>
+      <c r="JF11" s="80"/>
+      <c r="JG11" s="81"/>
+      <c r="JH11" s="79"/>
+      <c r="JI11" s="80"/>
+      <c r="JJ11" s="81"/>
+      <c r="JK11" s="79"/>
+      <c r="JL11" s="80"/>
+      <c r="JM11" s="81"/>
+      <c r="JN11" s="79"/>
+      <c r="JO11" s="80"/>
+      <c r="JP11" s="81"/>
+      <c r="JQ11" s="79"/>
+      <c r="JR11" s="80"/>
+      <c r="JS11" s="81"/>
+      <c r="JT11" s="79"/>
+      <c r="JU11" s="80"/>
+      <c r="JV11" s="81"/>
+      <c r="JW11" s="79"/>
+      <c r="JX11" s="80"/>
+      <c r="JY11" s="81"/>
+      <c r="JZ11" s="79"/>
+      <c r="KA11" s="80"/>
+      <c r="KB11" s="81"/>
+      <c r="KC11" s="79"/>
+      <c r="KD11" s="80"/>
+      <c r="KE11" s="81"/>
     </row>
     <row r="12" spans="1:291" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="36"/>
@@ -7477,7 +7454,7 @@
       </c>
     </row>
     <row r="13" spans="1:291" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -7773,7 +7750,7 @@
       <c r="KE13" s="46"/>
     </row>
     <row r="14" spans="1:291" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="86"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="41" t="s">
         <v>26</v>
       </c>
@@ -9094,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="IZ15" s="69">
-        <f t="shared" ref="IZ15:LK15" si="4">IZ13-IZ14</f>
+        <f t="shared" ref="IZ15:KE15" si="4">IZ13-IZ14</f>
         <v>0</v>
       </c>
       <c r="JA15" s="70">
@@ -9224,7 +9201,7 @@
     </row>
     <row r="16" spans="1:291" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="84" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -9520,7 +9497,7 @@
       <c r="KE16" s="46"/>
     </row>
     <row r="17" spans="1:291" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="86"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="41" t="s">
         <v>26</v>
       </c>
@@ -10970,7 +10947,7 @@
       </c>
     </row>
     <row r="19" spans="1:291" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="42" t="s">
@@ -11266,7 +11243,7 @@
       <c r="KE19" s="46"/>
     </row>
     <row r="20" spans="1:291" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="86"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="41" t="s">
         <v>26</v>
       </c>
@@ -12905,10 +12882,10 @@
     </row>
     <row r="23" spans="1:291" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="51"/>
       <c r="E23" s="6"/>
       <c r="F23" s="52"/>
@@ -13106,192 +13083,192 @@
       <c r="C24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="78"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="78"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="77"/>
-      <c r="AL24" s="78"/>
-      <c r="AM24" s="79"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="78"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="78"/>
-      <c r="AS24" s="79"/>
-      <c r="AT24" s="77"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="79"/>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="78"/>
-      <c r="AY24" s="79"/>
-      <c r="AZ24" s="77"/>
-      <c r="BA24" s="78"/>
-      <c r="BB24" s="79"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="78"/>
-      <c r="BE24" s="79"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="78"/>
-      <c r="BH24" s="79"/>
-      <c r="BI24" s="77"/>
-      <c r="BJ24" s="78"/>
-      <c r="BK24" s="79"/>
-      <c r="BL24" s="77"/>
-      <c r="BM24" s="78"/>
-      <c r="BN24" s="79"/>
-      <c r="BO24" s="77"/>
-      <c r="BP24" s="78"/>
-      <c r="BQ24" s="79"/>
-      <c r="BR24" s="77"/>
-      <c r="BS24" s="78"/>
-      <c r="BT24" s="79"/>
-      <c r="BU24" s="77"/>
-      <c r="BV24" s="78"/>
-      <c r="BW24" s="79"/>
-      <c r="BX24" s="77"/>
-      <c r="BY24" s="78"/>
-      <c r="BZ24" s="79"/>
-      <c r="CA24" s="77"/>
-      <c r="CB24" s="78"/>
-      <c r="CC24" s="79"/>
-      <c r="CD24" s="77"/>
-      <c r="CE24" s="78"/>
-      <c r="CF24" s="79"/>
-      <c r="CG24" s="77"/>
-      <c r="CH24" s="78"/>
-      <c r="CI24" s="79"/>
-      <c r="CJ24" s="77"/>
-      <c r="CK24" s="78"/>
-      <c r="CL24" s="79"/>
-      <c r="CM24" s="77"/>
-      <c r="CN24" s="78"/>
-      <c r="CO24" s="79"/>
-      <c r="CP24" s="77"/>
-      <c r="CQ24" s="78"/>
-      <c r="CR24" s="79"/>
-      <c r="CS24" s="77"/>
-      <c r="CT24" s="78"/>
-      <c r="CU24" s="79"/>
-      <c r="CV24" s="77"/>
-      <c r="CW24" s="78"/>
-      <c r="CX24" s="79"/>
-      <c r="CY24" s="77"/>
-      <c r="CZ24" s="78"/>
-      <c r="DA24" s="79"/>
-      <c r="DB24" s="77"/>
-      <c r="DC24" s="78"/>
-      <c r="DD24" s="79"/>
-      <c r="DE24" s="77"/>
-      <c r="DF24" s="78"/>
-      <c r="DG24" s="79"/>
-      <c r="DH24" s="77"/>
-      <c r="DI24" s="78"/>
-      <c r="DJ24" s="79"/>
-      <c r="DK24" s="77"/>
-      <c r="DL24" s="78"/>
-      <c r="DM24" s="79"/>
-      <c r="DN24" s="77"/>
-      <c r="DO24" s="78"/>
-      <c r="DP24" s="79"/>
-      <c r="DQ24" s="77"/>
-      <c r="DR24" s="78"/>
-      <c r="DS24" s="79"/>
-      <c r="DT24" s="77"/>
-      <c r="DU24" s="78"/>
-      <c r="DV24" s="79"/>
-      <c r="DW24" s="77"/>
-      <c r="DX24" s="78"/>
-      <c r="DY24" s="79"/>
-      <c r="DZ24" s="77"/>
-      <c r="EA24" s="78"/>
-      <c r="EB24" s="79"/>
-      <c r="EC24" s="77"/>
-      <c r="ED24" s="78"/>
-      <c r="EE24" s="79"/>
-      <c r="EF24" s="77"/>
-      <c r="EG24" s="78"/>
-      <c r="EH24" s="79"/>
-      <c r="EI24" s="77"/>
-      <c r="EJ24" s="78"/>
-      <c r="EK24" s="79"/>
-      <c r="EL24" s="77"/>
-      <c r="EM24" s="78"/>
-      <c r="EN24" s="79"/>
-      <c r="EO24" s="77"/>
-      <c r="EP24" s="78"/>
-      <c r="EQ24" s="79"/>
-      <c r="ER24" s="77"/>
-      <c r="ES24" s="78"/>
-      <c r="ET24" s="79"/>
-      <c r="EU24" s="77"/>
-      <c r="EV24" s="78"/>
-      <c r="EW24" s="79"/>
-      <c r="EX24" s="77"/>
-      <c r="EY24" s="78"/>
-      <c r="EZ24" s="79"/>
-      <c r="FA24" s="77"/>
-      <c r="FB24" s="78"/>
-      <c r="FC24" s="79"/>
-      <c r="FD24" s="77"/>
-      <c r="FE24" s="78"/>
-      <c r="FF24" s="79"/>
-      <c r="FG24" s="77"/>
-      <c r="FH24" s="78"/>
-      <c r="FI24" s="79"/>
-      <c r="FJ24" s="77"/>
-      <c r="FK24" s="78"/>
-      <c r="FL24" s="79"/>
-      <c r="FM24" s="77"/>
-      <c r="FN24" s="78"/>
-      <c r="FO24" s="79"/>
-      <c r="FP24" s="77"/>
-      <c r="FQ24" s="78"/>
-      <c r="FR24" s="79"/>
-      <c r="FS24" s="77"/>
-      <c r="FT24" s="78"/>
-      <c r="FU24" s="79"/>
-      <c r="FV24" s="77"/>
-      <c r="FW24" s="78"/>
-      <c r="FX24" s="79"/>
-      <c r="FY24" s="77"/>
-      <c r="FZ24" s="78"/>
-      <c r="GA24" s="79"/>
-      <c r="GB24" s="77"/>
-      <c r="GC24" s="78"/>
-      <c r="GD24" s="79"/>
-      <c r="GE24" s="77"/>
-      <c r="GF24" s="78"/>
-      <c r="GG24" s="79"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="91"/>
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="91"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="90"/>
+      <c r="BA24" s="91"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="90"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="90"/>
+      <c r="BG24" s="91"/>
+      <c r="BH24" s="92"/>
+      <c r="BI24" s="90"/>
+      <c r="BJ24" s="91"/>
+      <c r="BK24" s="92"/>
+      <c r="BL24" s="90"/>
+      <c r="BM24" s="91"/>
+      <c r="BN24" s="92"/>
+      <c r="BO24" s="90"/>
+      <c r="BP24" s="91"/>
+      <c r="BQ24" s="92"/>
+      <c r="BR24" s="90"/>
+      <c r="BS24" s="91"/>
+      <c r="BT24" s="92"/>
+      <c r="BU24" s="90"/>
+      <c r="BV24" s="91"/>
+      <c r="BW24" s="92"/>
+      <c r="BX24" s="90"/>
+      <c r="BY24" s="91"/>
+      <c r="BZ24" s="92"/>
+      <c r="CA24" s="90"/>
+      <c r="CB24" s="91"/>
+      <c r="CC24" s="92"/>
+      <c r="CD24" s="90"/>
+      <c r="CE24" s="91"/>
+      <c r="CF24" s="92"/>
+      <c r="CG24" s="90"/>
+      <c r="CH24" s="91"/>
+      <c r="CI24" s="92"/>
+      <c r="CJ24" s="90"/>
+      <c r="CK24" s="91"/>
+      <c r="CL24" s="92"/>
+      <c r="CM24" s="90"/>
+      <c r="CN24" s="91"/>
+      <c r="CO24" s="92"/>
+      <c r="CP24" s="90"/>
+      <c r="CQ24" s="91"/>
+      <c r="CR24" s="92"/>
+      <c r="CS24" s="90"/>
+      <c r="CT24" s="91"/>
+      <c r="CU24" s="92"/>
+      <c r="CV24" s="90"/>
+      <c r="CW24" s="91"/>
+      <c r="CX24" s="92"/>
+      <c r="CY24" s="90"/>
+      <c r="CZ24" s="91"/>
+      <c r="DA24" s="92"/>
+      <c r="DB24" s="90"/>
+      <c r="DC24" s="91"/>
+      <c r="DD24" s="92"/>
+      <c r="DE24" s="90"/>
+      <c r="DF24" s="91"/>
+      <c r="DG24" s="92"/>
+      <c r="DH24" s="90"/>
+      <c r="DI24" s="91"/>
+      <c r="DJ24" s="92"/>
+      <c r="DK24" s="90"/>
+      <c r="DL24" s="91"/>
+      <c r="DM24" s="92"/>
+      <c r="DN24" s="90"/>
+      <c r="DO24" s="91"/>
+      <c r="DP24" s="92"/>
+      <c r="DQ24" s="90"/>
+      <c r="DR24" s="91"/>
+      <c r="DS24" s="92"/>
+      <c r="DT24" s="90"/>
+      <c r="DU24" s="91"/>
+      <c r="DV24" s="92"/>
+      <c r="DW24" s="90"/>
+      <c r="DX24" s="91"/>
+      <c r="DY24" s="92"/>
+      <c r="DZ24" s="90"/>
+      <c r="EA24" s="91"/>
+      <c r="EB24" s="92"/>
+      <c r="EC24" s="90"/>
+      <c r="ED24" s="91"/>
+      <c r="EE24" s="92"/>
+      <c r="EF24" s="90"/>
+      <c r="EG24" s="91"/>
+      <c r="EH24" s="92"/>
+      <c r="EI24" s="90"/>
+      <c r="EJ24" s="91"/>
+      <c r="EK24" s="92"/>
+      <c r="EL24" s="90"/>
+      <c r="EM24" s="91"/>
+      <c r="EN24" s="92"/>
+      <c r="EO24" s="90"/>
+      <c r="EP24" s="91"/>
+      <c r="EQ24" s="92"/>
+      <c r="ER24" s="90"/>
+      <c r="ES24" s="91"/>
+      <c r="ET24" s="92"/>
+      <c r="EU24" s="90"/>
+      <c r="EV24" s="91"/>
+      <c r="EW24" s="92"/>
+      <c r="EX24" s="90"/>
+      <c r="EY24" s="91"/>
+      <c r="EZ24" s="92"/>
+      <c r="FA24" s="90"/>
+      <c r="FB24" s="91"/>
+      <c r="FC24" s="92"/>
+      <c r="FD24" s="90"/>
+      <c r="FE24" s="91"/>
+      <c r="FF24" s="92"/>
+      <c r="FG24" s="90"/>
+      <c r="FH24" s="91"/>
+      <c r="FI24" s="92"/>
+      <c r="FJ24" s="90"/>
+      <c r="FK24" s="91"/>
+      <c r="FL24" s="92"/>
+      <c r="FM24" s="90"/>
+      <c r="FN24" s="91"/>
+      <c r="FO24" s="92"/>
+      <c r="FP24" s="90"/>
+      <c r="FQ24" s="91"/>
+      <c r="FR24" s="92"/>
+      <c r="FS24" s="90"/>
+      <c r="FT24" s="91"/>
+      <c r="FU24" s="92"/>
+      <c r="FV24" s="90"/>
+      <c r="FW24" s="91"/>
+      <c r="FX24" s="92"/>
+      <c r="FY24" s="90"/>
+      <c r="FZ24" s="91"/>
+      <c r="GA24" s="92"/>
+      <c r="GB24" s="90"/>
+      <c r="GC24" s="91"/>
+      <c r="GD24" s="92"/>
+      <c r="GE24" s="90"/>
+      <c r="GF24" s="91"/>
+      <c r="GG24" s="92"/>
     </row>
     <row r="25" spans="1:291" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -13857,8 +13834,8 @@
       </c>
     </row>
     <row r="26" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
@@ -14050,8 +14027,8 @@
       <c r="GG26" s="56"/>
     </row>
     <row r="27" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="39" t="s">
         <v>24</v>
       </c>
@@ -14243,8 +14220,8 @@
       <c r="GG27" s="56"/>
     </row>
     <row r="28" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="8" t="s">
         <v>23</v>
       </c>
@@ -14436,8 +14413,8 @@
       <c r="GG28" s="56"/>
     </row>
     <row r="29" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="39" t="s">
         <v>24</v>
       </c>
@@ -14629,8 +14606,8 @@
       <c r="GG29" s="56"/>
     </row>
     <row r="30" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="8" t="s">
         <v>23</v>
       </c>
@@ -14822,8 +14799,8 @@
       <c r="GG30" s="56"/>
     </row>
     <row r="31" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="39" t="s">
         <v>24</v>
       </c>
@@ -15015,8 +14992,8 @@
       <c r="GG31" s="56"/>
     </row>
     <row r="32" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="8" t="s">
         <v>23</v>
       </c>
@@ -15208,8 +15185,8 @@
       <c r="GG32" s="56"/>
     </row>
     <row r="33" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="39" t="s">
         <v>24</v>
       </c>
@@ -15401,8 +15378,8 @@
       <c r="GG33" s="56"/>
     </row>
     <row r="34" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="8" t="s">
         <v>23</v>
       </c>
@@ -15594,8 +15571,8 @@
       <c r="GG34" s="58"/>
     </row>
     <row r="35" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="39" t="s">
         <v>24</v>
       </c>
@@ -15787,8 +15764,8 @@
       <c r="GG35" s="56"/>
     </row>
     <row r="36" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="8" t="s">
         <v>23</v>
       </c>
@@ -15980,8 +15957,8 @@
       <c r="GG36" s="56"/>
     </row>
     <row r="37" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="39" t="s">
         <v>24</v>
       </c>
@@ -16173,8 +16150,8 @@
       <c r="GG37" s="58"/>
     </row>
     <row r="38" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="8" t="s">
         <v>23</v>
       </c>
@@ -16366,8 +16343,8 @@
       <c r="GG38" s="58"/>
     </row>
     <row r="39" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="39" t="s">
         <v>24</v>
       </c>
@@ -16559,8 +16536,8 @@
       <c r="GG39" s="56"/>
     </row>
     <row r="40" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="8" t="s">
         <v>23</v>
       </c>
@@ -16752,8 +16729,8 @@
       <c r="GG40" s="58"/>
     </row>
     <row r="41" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="39" t="s">
         <v>24</v>
       </c>
@@ -16945,8 +16922,8 @@
       <c r="GG41" s="56"/>
     </row>
     <row r="42" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="8" t="s">
         <v>23</v>
       </c>
@@ -17138,8 +17115,8 @@
       <c r="GG42" s="58"/>
     </row>
     <row r="43" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="39" t="s">
         <v>24</v>
       </c>
@@ -17331,8 +17308,8 @@
       <c r="GG43" s="56"/>
     </row>
     <row r="44" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="8" t="s">
         <v>23</v>
       </c>
@@ -17524,8 +17501,8 @@
       <c r="GG44" s="58"/>
     </row>
     <row r="45" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="39" t="s">
         <v>24</v>
       </c>
@@ -17717,8 +17694,8 @@
       <c r="GG45" s="56"/>
     </row>
     <row r="46" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="8" t="s">
         <v>23</v>
       </c>
@@ -17910,8 +17887,8 @@
       <c r="GG46" s="58"/>
     </row>
     <row r="47" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="39" t="s">
         <v>24</v>
       </c>
@@ -18103,8 +18080,8 @@
       <c r="GG47" s="56"/>
     </row>
     <row r="48" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="8" t="s">
         <v>23</v>
       </c>
@@ -18296,8 +18273,8 @@
       <c r="GG48" s="58"/>
     </row>
     <row r="49" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="39" t="s">
         <v>24</v>
       </c>
@@ -18489,8 +18466,8 @@
       <c r="GG49" s="56"/>
     </row>
     <row r="50" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="8" t="s">
         <v>23</v>
       </c>
@@ -18682,8 +18659,8 @@
       <c r="GG50" s="58"/>
     </row>
     <row r="51" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="39" t="s">
         <v>24</v>
       </c>
@@ -18875,8 +18852,8 @@
       <c r="GG51" s="58"/>
     </row>
     <row r="52" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="8" t="s">
         <v>23</v>
       </c>
@@ -19068,8 +19045,8 @@
       <c r="GG52" s="58"/>
     </row>
     <row r="53" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="39" t="s">
         <v>24</v>
       </c>
@@ -19261,8 +19238,8 @@
       <c r="GG53" s="58"/>
     </row>
     <row r="54" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
-      <c r="B54" s="76"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="8" t="s">
         <v>23</v>
       </c>
@@ -19454,8 +19431,8 @@
       <c r="GG54" s="58"/>
     </row>
     <row r="55" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="39" t="s">
         <v>24</v>
       </c>
@@ -19647,8 +19624,8 @@
       <c r="GG55" s="58"/>
     </row>
     <row r="56" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A56" s="74"/>
-      <c r="B56" s="76"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="8" t="s">
         <v>23</v>
       </c>
@@ -19840,8 +19817,8 @@
       <c r="GG56" s="58"/>
     </row>
     <row r="57" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="39" t="s">
         <v>24</v>
       </c>
@@ -20033,8 +20010,8 @@
       <c r="GG57" s="58"/>
     </row>
     <row r="58" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
-      <c r="B58" s="76"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="8" t="s">
         <v>23</v>
       </c>
@@ -20226,8 +20203,8 @@
       <c r="GG58" s="58"/>
     </row>
     <row r="59" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="39" t="s">
         <v>24</v>
       </c>
@@ -20419,8 +20396,8 @@
       <c r="GG59" s="58"/>
     </row>
     <row r="60" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
-      <c r="B60" s="76"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="8" t="s">
         <v>23</v>
       </c>
@@ -20612,8 +20589,8 @@
       <c r="GG60" s="58"/>
     </row>
     <row r="61" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="39" t="s">
         <v>24</v>
       </c>
@@ -20805,8 +20782,8 @@
       <c r="GG61" s="58"/>
     </row>
     <row r="62" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A62" s="74"/>
-      <c r="B62" s="76"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="8" t="s">
         <v>23</v>
       </c>
@@ -20998,8 +20975,8 @@
       <c r="GG62" s="58"/>
     </row>
     <row r="63" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
-      <c r="B63" s="75"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="39" t="s">
         <v>24</v>
       </c>
@@ -21191,8 +21168,8 @@
       <c r="GG63" s="58"/>
     </row>
     <row r="64" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="8" t="s">
         <v>23</v>
       </c>
@@ -21384,8 +21361,8 @@
       <c r="GG64" s="58"/>
     </row>
     <row r="65" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="39" t="s">
         <v>24</v>
       </c>
@@ -21577,8 +21554,8 @@
       <c r="GG65" s="58"/>
     </row>
     <row r="66" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="8" t="s">
         <v>23</v>
       </c>
@@ -21770,8 +21747,8 @@
       <c r="GG66" s="58"/>
     </row>
     <row r="67" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="39" t="s">
         <v>24</v>
       </c>
@@ -21963,8 +21940,8 @@
       <c r="GG67" s="58"/>
     </row>
     <row r="68" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A68" s="74"/>
-      <c r="B68" s="76"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="8" t="s">
         <v>23</v>
       </c>
@@ -22156,8 +22133,8 @@
       <c r="GG68" s="58"/>
     </row>
     <row r="69" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
-      <c r="B69" s="75"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="39" t="s">
         <v>24</v>
       </c>
@@ -22349,8 +22326,8 @@
       <c r="GG69" s="58"/>
     </row>
     <row r="70" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
-      <c r="B70" s="76"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="8" t="s">
         <v>23</v>
       </c>
@@ -22542,8 +22519,8 @@
       <c r="GG70" s="58"/>
     </row>
     <row r="71" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A71" s="75"/>
-      <c r="B71" s="75"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="39" t="s">
         <v>24</v>
       </c>
@@ -22735,8 +22712,8 @@
       <c r="GG71" s="58"/>
     </row>
     <row r="72" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A72" s="74"/>
-      <c r="B72" s="76"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="8" t="s">
         <v>23</v>
       </c>
@@ -22928,8 +22905,8 @@
       <c r="GG72" s="58"/>
     </row>
     <row r="73" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
-      <c r="B73" s="75"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="39" t="s">
         <v>24</v>
       </c>
@@ -23121,8 +23098,8 @@
       <c r="GG73" s="58"/>
     </row>
     <row r="74" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A74" s="74"/>
-      <c r="B74" s="76"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="8" t="s">
         <v>23</v>
       </c>
@@ -23314,8 +23291,8 @@
       <c r="GG74" s="58"/>
     </row>
     <row r="75" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A75" s="75"/>
-      <c r="B75" s="75"/>
+      <c r="A75" s="73"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="39" t="s">
         <v>24</v>
       </c>
@@ -23507,8 +23484,8 @@
       <c r="GG75" s="58"/>
     </row>
     <row r="76" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A76" s="74"/>
-      <c r="B76" s="76"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="8" t="s">
         <v>23</v>
       </c>
@@ -23700,8 +23677,8 @@
       <c r="GG76" s="58"/>
     </row>
     <row r="77" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="75"/>
+      <c r="A77" s="73"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="39" t="s">
         <v>24</v>
       </c>
@@ -23893,8 +23870,8 @@
       <c r="GG77" s="58"/>
     </row>
     <row r="78" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A78" s="74"/>
-      <c r="B78" s="76"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="8" t="s">
         <v>23</v>
       </c>
@@ -24086,8 +24063,8 @@
       <c r="GG78" s="58"/>
     </row>
     <row r="79" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A79" s="75"/>
-      <c r="B79" s="75"/>
+      <c r="A79" s="73"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="39" t="s">
         <v>24</v>
       </c>
@@ -24279,8 +24256,8 @@
       <c r="GG79" s="58"/>
     </row>
     <row r="80" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
-      <c r="B80" s="76"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="8" t="s">
         <v>23</v>
       </c>
@@ -24472,8 +24449,8 @@
       <c r="GG80" s="58"/>
     </row>
     <row r="81" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A81" s="75"/>
-      <c r="B81" s="75"/>
+      <c r="A81" s="73"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="39" t="s">
         <v>24</v>
       </c>
@@ -24665,8 +24642,8 @@
       <c r="GG81" s="58"/>
     </row>
     <row r="82" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A82" s="74"/>
-      <c r="B82" s="76"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="8" t="s">
         <v>23</v>
       </c>
@@ -24858,8 +24835,8 @@
       <c r="GG82" s="58"/>
     </row>
     <row r="83" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
-      <c r="B83" s="75"/>
+      <c r="A83" s="73"/>
+      <c r="B83" s="73"/>
       <c r="C83" s="39" t="s">
         <v>24</v>
       </c>
@@ -25051,8 +25028,8 @@
       <c r="GG83" s="58"/>
     </row>
     <row r="84" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
-      <c r="B84" s="76"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="74"/>
       <c r="C84" s="8" t="s">
         <v>23</v>
       </c>
@@ -25244,8 +25221,8 @@
       <c r="GG84" s="58"/>
     </row>
     <row r="85" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="73"/>
       <c r="C85" s="39" t="s">
         <v>24</v>
       </c>
@@ -25437,8 +25414,8 @@
       <c r="GG85" s="58"/>
     </row>
     <row r="86" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A86" s="74"/>
-      <c r="B86" s="76"/>
+      <c r="A86" s="72"/>
+      <c r="B86" s="74"/>
       <c r="C86" s="8" t="s">
         <v>23</v>
       </c>
@@ -25630,8 +25607,8 @@
       <c r="GG86" s="58"/>
     </row>
     <row r="87" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A87" s="75"/>
-      <c r="B87" s="75"/>
+      <c r="A87" s="73"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="39" t="s">
         <v>24</v>
       </c>
@@ -25823,8 +25800,8 @@
       <c r="GG87" s="58"/>
     </row>
     <row r="88" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
-      <c r="B88" s="76"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="8" t="s">
         <v>23</v>
       </c>
@@ -26016,8 +25993,8 @@
       <c r="GG88" s="58"/>
     </row>
     <row r="89" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="75"/>
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
       <c r="C89" s="39" t="s">
         <v>24</v>
       </c>
@@ -26209,8 +26186,8 @@
       <c r="GG89" s="58"/>
     </row>
     <row r="90" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
-      <c r="B90" s="76"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="8" t="s">
         <v>23</v>
       </c>
@@ -26402,8 +26379,8 @@
       <c r="GG90" s="58"/>
     </row>
     <row r="91" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A91" s="75"/>
-      <c r="B91" s="75"/>
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="39" t="s">
         <v>24</v>
       </c>
@@ -26595,8 +26572,8 @@
       <c r="GG91" s="58"/>
     </row>
     <row r="92" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="76"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="74"/>
       <c r="C92" s="8" t="s">
         <v>23</v>
       </c>
@@ -26788,8 +26765,8 @@
       <c r="GG92" s="58"/>
     </row>
     <row r="93" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="75"/>
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
       <c r="C93" s="39" t="s">
         <v>24</v>
       </c>
@@ -26981,8 +26958,8 @@
       <c r="GG93" s="58"/>
     </row>
     <row r="94" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="76"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="74"/>
       <c r="C94" s="8" t="s">
         <v>23</v>
       </c>
@@ -27174,8 +27151,8 @@
       <c r="GG94" s="58"/>
     </row>
     <row r="95" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="75"/>
+      <c r="A95" s="73"/>
+      <c r="B95" s="73"/>
       <c r="C95" s="39" t="s">
         <v>24</v>
       </c>
@@ -27367,8 +27344,8 @@
       <c r="GG95" s="58"/>
     </row>
     <row r="96" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
-      <c r="B96" s="76"/>
+      <c r="A96" s="72"/>
+      <c r="B96" s="74"/>
       <c r="C96" s="8" t="s">
         <v>23</v>
       </c>
@@ -27560,8 +27537,8 @@
       <c r="GG96" s="58"/>
     </row>
     <row r="97" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="75"/>
+      <c r="A97" s="73"/>
+      <c r="B97" s="73"/>
       <c r="C97" s="39" t="s">
         <v>24</v>
       </c>
@@ -27753,8 +27730,8 @@
       <c r="GG97" s="58"/>
     </row>
     <row r="98" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="76"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="74"/>
       <c r="C98" s="8" t="s">
         <v>23</v>
       </c>
@@ -27946,8 +27923,8 @@
       <c r="GG98" s="58"/>
     </row>
     <row r="99" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="75"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="73"/>
       <c r="C99" s="39" t="s">
         <v>24</v>
       </c>
@@ -28139,8 +28116,8 @@
       <c r="GG99" s="58"/>
     </row>
     <row r="100" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A100" s="74"/>
-      <c r="B100" s="76"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="8" t="s">
         <v>23</v>
       </c>
@@ -28332,8 +28309,8 @@
       <c r="GG100" s="58"/>
     </row>
     <row r="101" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A101" s="75"/>
-      <c r="B101" s="75"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="73"/>
       <c r="C101" s="39" t="s">
         <v>24</v>
       </c>
@@ -28525,8 +28502,8 @@
       <c r="GG101" s="58"/>
     </row>
     <row r="102" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
-      <c r="B102" s="76"/>
+      <c r="A102" s="72"/>
+      <c r="B102" s="74"/>
       <c r="C102" s="8" t="s">
         <v>23</v>
       </c>
@@ -28718,8 +28695,8 @@
       <c r="GG102" s="58"/>
     </row>
     <row r="103" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
-      <c r="B103" s="75"/>
+      <c r="A103" s="73"/>
+      <c r="B103" s="73"/>
       <c r="C103" s="39" t="s">
         <v>24</v>
       </c>
@@ -28911,8 +28888,8 @@
       <c r="GG103" s="58"/>
     </row>
     <row r="104" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A104" s="74"/>
-      <c r="B104" s="76"/>
+      <c r="A104" s="72"/>
+      <c r="B104" s="74"/>
       <c r="C104" s="8" t="s">
         <v>23</v>
       </c>
@@ -29104,8 +29081,8 @@
       <c r="GG104" s="58"/>
     </row>
     <row r="105" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="75"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
       <c r="C105" s="39" t="s">
         <v>24</v>
       </c>
@@ -29297,8 +29274,8 @@
       <c r="GG105" s="58"/>
     </row>
     <row r="106" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A106" s="74"/>
-      <c r="B106" s="76"/>
+      <c r="A106" s="72"/>
+      <c r="B106" s="74"/>
       <c r="C106" s="8" t="s">
         <v>23</v>
       </c>
@@ -29490,8 +29467,8 @@
       <c r="GG106" s="58"/>
     </row>
     <row r="107" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A107" s="75"/>
-      <c r="B107" s="75"/>
+      <c r="A107" s="73"/>
+      <c r="B107" s="73"/>
       <c r="C107" s="39" t="s">
         <v>24</v>
       </c>
@@ -29683,8 +29660,8 @@
       <c r="GG107" s="58"/>
     </row>
     <row r="108" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A108" s="74"/>
-      <c r="B108" s="76"/>
+      <c r="A108" s="72"/>
+      <c r="B108" s="74"/>
       <c r="C108" s="8" t="s">
         <v>23</v>
       </c>
@@ -29876,8 +29853,8 @@
       <c r="GG108" s="58"/>
     </row>
     <row r="109" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A109" s="75"/>
-      <c r="B109" s="75"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="73"/>
       <c r="C109" s="39" t="s">
         <v>24</v>
       </c>
@@ -30069,8 +30046,8 @@
       <c r="GG109" s="58"/>
     </row>
     <row r="110" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A110" s="74"/>
-      <c r="B110" s="76"/>
+      <c r="A110" s="72"/>
+      <c r="B110" s="74"/>
       <c r="C110" s="8" t="s">
         <v>23</v>
       </c>
@@ -30262,8 +30239,8 @@
       <c r="GG110" s="58"/>
     </row>
     <row r="111" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A111" s="75"/>
-      <c r="B111" s="75"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="39" t="s">
         <v>24</v>
       </c>
@@ -30455,8 +30432,8 @@
       <c r="GG111" s="58"/>
     </row>
     <row r="112" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A112" s="74"/>
-      <c r="B112" s="76"/>
+      <c r="A112" s="72"/>
+      <c r="B112" s="74"/>
       <c r="C112" s="8" t="s">
         <v>23</v>
       </c>
@@ -30648,8 +30625,8 @@
       <c r="GG112" s="58"/>
     </row>
     <row r="113" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A113" s="75"/>
-      <c r="B113" s="75"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="73"/>
       <c r="C113" s="39" t="s">
         <v>24</v>
       </c>
@@ -30841,8 +30818,8 @@
       <c r="GG113" s="58"/>
     </row>
     <row r="114" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
-      <c r="B114" s="76"/>
+      <c r="A114" s="72"/>
+      <c r="B114" s="74"/>
       <c r="C114" s="8" t="s">
         <v>23</v>
       </c>
@@ -31034,8 +31011,8 @@
       <c r="GG114" s="58"/>
     </row>
     <row r="115" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
-      <c r="B115" s="75"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="39" t="s">
         <v>24</v>
       </c>
@@ -31227,8 +31204,8 @@
       <c r="GG115" s="58"/>
     </row>
     <row r="116" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A116" s="74"/>
-      <c r="B116" s="76"/>
+      <c r="A116" s="72"/>
+      <c r="B116" s="74"/>
       <c r="C116" s="8" t="s">
         <v>23</v>
       </c>
@@ -31420,8 +31397,8 @@
       <c r="GG116" s="58"/>
     </row>
     <row r="117" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A117" s="75"/>
-      <c r="B117" s="75"/>
+      <c r="A117" s="73"/>
+      <c r="B117" s="73"/>
       <c r="C117" s="39" t="s">
         <v>24</v>
       </c>
@@ -31613,8 +31590,8 @@
       <c r="GG117" s="58"/>
     </row>
     <row r="118" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A118" s="74"/>
-      <c r="B118" s="76"/>
+      <c r="A118" s="72"/>
+      <c r="B118" s="74"/>
       <c r="C118" s="8" t="s">
         <v>23</v>
       </c>
@@ -31806,8 +31783,8 @@
       <c r="GG118" s="58"/>
     </row>
     <row r="119" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A119" s="75"/>
-      <c r="B119" s="75"/>
+      <c r="A119" s="73"/>
+      <c r="B119" s="73"/>
       <c r="C119" s="39" t="s">
         <v>24</v>
       </c>
@@ -31999,8 +31976,8 @@
       <c r="GG119" s="58"/>
     </row>
     <row r="120" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A120" s="74"/>
-      <c r="B120" s="76"/>
+      <c r="A120" s="72"/>
+      <c r="B120" s="74"/>
       <c r="C120" s="8" t="s">
         <v>23</v>
       </c>
@@ -32192,8 +32169,8 @@
       <c r="GG120" s="58"/>
     </row>
     <row r="121" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A121" s="75"/>
-      <c r="B121" s="75"/>
+      <c r="A121" s="73"/>
+      <c r="B121" s="73"/>
       <c r="C121" s="39" t="s">
         <v>24</v>
       </c>
@@ -32385,8 +32362,8 @@
       <c r="GG121" s="58"/>
     </row>
     <row r="122" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
-      <c r="B122" s="76"/>
+      <c r="A122" s="72"/>
+      <c r="B122" s="74"/>
       <c r="C122" s="8" t="s">
         <v>23</v>
       </c>
@@ -32578,8 +32555,8 @@
       <c r="GG122" s="58"/>
     </row>
     <row r="123" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A123" s="75"/>
-      <c r="B123" s="75"/>
+      <c r="A123" s="73"/>
+      <c r="B123" s="73"/>
       <c r="C123" s="39" t="s">
         <v>24</v>
       </c>
@@ -32771,8 +32748,8 @@
       <c r="GG123" s="58"/>
     </row>
     <row r="124" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
-      <c r="B124" s="76"/>
+      <c r="A124" s="72"/>
+      <c r="B124" s="74"/>
       <c r="C124" s="8" t="s">
         <v>23</v>
       </c>
@@ -32964,8 +32941,8 @@
       <c r="GG124" s="58"/>
     </row>
     <row r="125" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A125" s="75"/>
-      <c r="B125" s="75"/>
+      <c r="A125" s="73"/>
+      <c r="B125" s="73"/>
       <c r="C125" s="39" t="s">
         <v>24</v>
       </c>
@@ -33157,8 +33134,8 @@
       <c r="GG125" s="58"/>
     </row>
     <row r="126" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A126" s="74"/>
-      <c r="B126" s="76"/>
+      <c r="A126" s="72"/>
+      <c r="B126" s="74"/>
       <c r="C126" s="8" t="s">
         <v>23</v>
       </c>
@@ -33350,8 +33327,8 @@
       <c r="GG126" s="58"/>
     </row>
     <row r="127" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A127" s="75"/>
-      <c r="B127" s="75"/>
+      <c r="A127" s="73"/>
+      <c r="B127" s="73"/>
       <c r="C127" s="39" t="s">
         <v>24</v>
       </c>
@@ -33543,8 +33520,8 @@
       <c r="GG127" s="58"/>
     </row>
     <row r="128" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A128" s="74"/>
-      <c r="B128" s="76"/>
+      <c r="A128" s="72"/>
+      <c r="B128" s="74"/>
       <c r="C128" s="8" t="s">
         <v>23</v>
       </c>
@@ -33736,8 +33713,8 @@
       <c r="GG128" s="58"/>
     </row>
     <row r="129" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A129" s="75"/>
-      <c r="B129" s="75"/>
+      <c r="A129" s="73"/>
+      <c r="B129" s="73"/>
       <c r="C129" s="39" t="s">
         <v>24</v>
       </c>
@@ -33929,8 +33906,8 @@
       <c r="GG129" s="58"/>
     </row>
     <row r="130" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A130" s="74"/>
-      <c r="B130" s="76"/>
+      <c r="A130" s="72"/>
+      <c r="B130" s="74"/>
       <c r="C130" s="8" t="s">
         <v>23</v>
       </c>
@@ -34122,8 +34099,8 @@
       <c r="GG130" s="58"/>
     </row>
     <row r="131" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A131" s="75"/>
-      <c r="B131" s="75"/>
+      <c r="A131" s="73"/>
+      <c r="B131" s="73"/>
       <c r="C131" s="39" t="s">
         <v>24</v>
       </c>
@@ -34315,8 +34292,8 @@
       <c r="GG131" s="58"/>
     </row>
     <row r="132" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A132" s="74"/>
-      <c r="B132" s="76"/>
+      <c r="A132" s="72"/>
+      <c r="B132" s="74"/>
       <c r="C132" s="8" t="s">
         <v>23</v>
       </c>
@@ -34508,8 +34485,8 @@
       <c r="GG132" s="58"/>
     </row>
     <row r="133" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A133" s="75"/>
-      <c r="B133" s="75"/>
+      <c r="A133" s="73"/>
+      <c r="B133" s="73"/>
       <c r="C133" s="39" t="s">
         <v>24</v>
       </c>
@@ -34701,8 +34678,8 @@
       <c r="GG133" s="58"/>
     </row>
     <row r="134" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A134" s="74"/>
-      <c r="B134" s="76"/>
+      <c r="A134" s="72"/>
+      <c r="B134" s="74"/>
       <c r="C134" s="8" t="s">
         <v>23</v>
       </c>
@@ -34894,8 +34871,8 @@
       <c r="GG134" s="58"/>
     </row>
     <row r="135" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A135" s="75"/>
-      <c r="B135" s="75"/>
+      <c r="A135" s="73"/>
+      <c r="B135" s="73"/>
       <c r="C135" s="39" t="s">
         <v>24</v>
       </c>
@@ -35087,8 +35064,8 @@
       <c r="GG135" s="58"/>
     </row>
     <row r="136" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A136" s="74"/>
-      <c r="B136" s="76"/>
+      <c r="A136" s="72"/>
+      <c r="B136" s="74"/>
       <c r="C136" s="8" t="s">
         <v>23</v>
       </c>
@@ -35280,8 +35257,8 @@
       <c r="GG136" s="58"/>
     </row>
     <row r="137" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A137" s="75"/>
-      <c r="B137" s="75"/>
+      <c r="A137" s="73"/>
+      <c r="B137" s="73"/>
       <c r="C137" s="39" t="s">
         <v>24</v>
       </c>
@@ -35473,8 +35450,8 @@
       <c r="GG137" s="58"/>
     </row>
     <row r="138" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A138" s="74"/>
-      <c r="B138" s="76"/>
+      <c r="A138" s="72"/>
+      <c r="B138" s="74"/>
       <c r="C138" s="8" t="s">
         <v>23</v>
       </c>
@@ -35666,8 +35643,8 @@
       <c r="GG138" s="58"/>
     </row>
     <row r="139" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A139" s="75"/>
-      <c r="B139" s="75"/>
+      <c r="A139" s="73"/>
+      <c r="B139" s="73"/>
       <c r="C139" s="39" t="s">
         <v>24</v>
       </c>
@@ -35859,8 +35836,8 @@
       <c r="GG139" s="58"/>
     </row>
     <row r="140" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A140" s="74"/>
-      <c r="B140" s="76"/>
+      <c r="A140" s="72"/>
+      <c r="B140" s="74"/>
       <c r="C140" s="8" t="s">
         <v>23</v>
       </c>
@@ -36052,8 +36029,8 @@
       <c r="GG140" s="58"/>
     </row>
     <row r="141" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A141" s="75"/>
-      <c r="B141" s="75"/>
+      <c r="A141" s="73"/>
+      <c r="B141" s="73"/>
       <c r="C141" s="39" t="s">
         <v>24</v>
       </c>
@@ -36245,8 +36222,8 @@
       <c r="GG141" s="58"/>
     </row>
     <row r="142" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A142" s="74"/>
-      <c r="B142" s="76"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="74"/>
       <c r="C142" s="8" t="s">
         <v>23</v>
       </c>
@@ -36438,8 +36415,8 @@
       <c r="GG142" s="58"/>
     </row>
     <row r="143" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A143" s="75"/>
-      <c r="B143" s="75"/>
+      <c r="A143" s="73"/>
+      <c r="B143" s="73"/>
       <c r="C143" s="39" t="s">
         <v>24</v>
       </c>
@@ -36631,8 +36608,8 @@
       <c r="GG143" s="58"/>
     </row>
     <row r="144" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A144" s="76"/>
-      <c r="B144" s="76"/>
+      <c r="A144" s="74"/>
+      <c r="B144" s="74"/>
       <c r="C144" s="8" t="s">
         <v>23</v>
       </c>
@@ -36824,8 +36801,8 @@
       <c r="GG144" s="59"/>
     </row>
     <row r="145" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A145" s="75"/>
-      <c r="B145" s="75"/>
+      <c r="A145" s="73"/>
+      <c r="B145" s="73"/>
       <c r="C145" s="39" t="s">
         <v>24</v>
       </c>
@@ -37017,8 +36994,8 @@
       <c r="GG145" s="59"/>
     </row>
     <row r="146" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A146" s="76"/>
-      <c r="B146" s="76"/>
+      <c r="A146" s="74"/>
+      <c r="B146" s="74"/>
       <c r="C146" s="8" t="s">
         <v>23</v>
       </c>
@@ -37210,8 +37187,8 @@
       <c r="GG146" s="59"/>
     </row>
     <row r="147" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A147" s="75"/>
-      <c r="B147" s="75"/>
+      <c r="A147" s="73"/>
+      <c r="B147" s="73"/>
       <c r="C147" s="39" t="s">
         <v>24</v>
       </c>
@@ -37403,8 +37380,8 @@
       <c r="GG147" s="59"/>
     </row>
     <row r="148" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A148" s="76"/>
-      <c r="B148" s="76"/>
+      <c r="A148" s="74"/>
+      <c r="B148" s="74"/>
       <c r="C148" s="8" t="s">
         <v>23</v>
       </c>
@@ -37596,8 +37573,8 @@
       <c r="GG148" s="59"/>
     </row>
     <row r="149" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A149" s="75"/>
-      <c r="B149" s="75"/>
+      <c r="A149" s="73"/>
+      <c r="B149" s="73"/>
       <c r="C149" s="39" t="s">
         <v>24</v>
       </c>
@@ -37789,8 +37766,8 @@
       <c r="GG149" s="59"/>
     </row>
     <row r="150" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A150" s="76"/>
-      <c r="B150" s="76"/>
+      <c r="A150" s="74"/>
+      <c r="B150" s="74"/>
       <c r="C150" s="8" t="s">
         <v>23</v>
       </c>
@@ -37982,8 +37959,8 @@
       <c r="GG150" s="59"/>
     </row>
     <row r="151" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A151" s="75"/>
-      <c r="B151" s="75"/>
+      <c r="A151" s="73"/>
+      <c r="B151" s="73"/>
       <c r="C151" s="39" t="s">
         <v>24</v>
       </c>
@@ -38175,8 +38152,8 @@
       <c r="GG151" s="59"/>
     </row>
     <row r="152" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A152" s="76"/>
-      <c r="B152" s="76"/>
+      <c r="A152" s="74"/>
+      <c r="B152" s="74"/>
       <c r="C152" s="8" t="s">
         <v>23</v>
       </c>
@@ -38368,8 +38345,8 @@
       <c r="GG152" s="59"/>
     </row>
     <row r="153" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A153" s="75"/>
-      <c r="B153" s="75"/>
+      <c r="A153" s="73"/>
+      <c r="B153" s="73"/>
       <c r="C153" s="39" t="s">
         <v>24</v>
       </c>
@@ -38561,8 +38538,8 @@
       <c r="GG153" s="59"/>
     </row>
     <row r="154" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A154" s="76"/>
-      <c r="B154" s="76"/>
+      <c r="A154" s="74"/>
+      <c r="B154" s="74"/>
       <c r="C154" s="8" t="s">
         <v>23</v>
       </c>
@@ -38754,8 +38731,8 @@
       <c r="GG154" s="59"/>
     </row>
     <row r="155" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A155" s="75"/>
-      <c r="B155" s="75"/>
+      <c r="A155" s="73"/>
+      <c r="B155" s="73"/>
       <c r="C155" s="39" t="s">
         <v>24</v>
       </c>
@@ -38947,8 +38924,8 @@
       <c r="GG155" s="59"/>
     </row>
     <row r="156" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A156" s="76"/>
-      <c r="B156" s="76"/>
+      <c r="A156" s="74"/>
+      <c r="B156" s="74"/>
       <c r="C156" s="8" t="s">
         <v>23</v>
       </c>
@@ -39140,8 +39117,8 @@
       <c r="GG156" s="59"/>
     </row>
     <row r="157" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A157" s="75"/>
-      <c r="B157" s="75"/>
+      <c r="A157" s="73"/>
+      <c r="B157" s="73"/>
       <c r="C157" s="39" t="s">
         <v>24</v>
       </c>
@@ -39333,8 +39310,8 @@
       <c r="GG157" s="59"/>
     </row>
     <row r="158" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A158" s="76"/>
-      <c r="B158" s="76"/>
+      <c r="A158" s="74"/>
+      <c r="B158" s="74"/>
       <c r="C158" s="8" t="s">
         <v>23</v>
       </c>
@@ -39526,8 +39503,8 @@
       <c r="GG158" s="59"/>
     </row>
     <row r="159" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A159" s="75"/>
-      <c r="B159" s="75"/>
+      <c r="A159" s="73"/>
+      <c r="B159" s="73"/>
       <c r="C159" s="39" t="s">
         <v>24</v>
       </c>
@@ -39719,8 +39696,8 @@
       <c r="GG159" s="59"/>
     </row>
     <row r="160" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A160" s="76"/>
-      <c r="B160" s="76"/>
+      <c r="A160" s="74"/>
+      <c r="B160" s="74"/>
       <c r="C160" s="8" t="s">
         <v>23</v>
       </c>
@@ -39912,8 +39889,8 @@
       <c r="GG160" s="59"/>
     </row>
     <row r="161" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A161" s="75"/>
-      <c r="B161" s="75"/>
+      <c r="A161" s="73"/>
+      <c r="B161" s="73"/>
       <c r="C161" s="39" t="s">
         <v>24</v>
       </c>
@@ -40105,8 +40082,8 @@
       <c r="GG161" s="59"/>
     </row>
     <row r="162" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A162" s="76"/>
-      <c r="B162" s="76"/>
+      <c r="A162" s="74"/>
+      <c r="B162" s="74"/>
       <c r="C162" s="8" t="s">
         <v>23</v>
       </c>
@@ -40298,8 +40275,8 @@
       <c r="GG162" s="59"/>
     </row>
     <row r="163" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A163" s="75"/>
-      <c r="B163" s="75"/>
+      <c r="A163" s="73"/>
+      <c r="B163" s="73"/>
       <c r="C163" s="39" t="s">
         <v>24</v>
       </c>
@@ -40491,8 +40468,8 @@
       <c r="GG163" s="59"/>
     </row>
     <row r="164" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A164" s="76"/>
-      <c r="B164" s="76"/>
+      <c r="A164" s="74"/>
+      <c r="B164" s="74"/>
       <c r="C164" s="8" t="s">
         <v>23</v>
       </c>
@@ -40684,8 +40661,8 @@
       <c r="GG164" s="59"/>
     </row>
     <row r="165" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A165" s="75"/>
-      <c r="B165" s="75"/>
+      <c r="A165" s="73"/>
+      <c r="B165" s="73"/>
       <c r="C165" s="39" t="s">
         <v>24</v>
       </c>
@@ -40877,8 +40854,8 @@
       <c r="GG165" s="59"/>
     </row>
     <row r="166" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A166" s="76"/>
-      <c r="B166" s="76"/>
+      <c r="A166" s="74"/>
+      <c r="B166" s="74"/>
       <c r="C166" s="8" t="s">
         <v>23</v>
       </c>
@@ -41070,8 +41047,8 @@
       <c r="GG166" s="59"/>
     </row>
     <row r="167" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A167" s="75"/>
-      <c r="B167" s="75"/>
+      <c r="A167" s="73"/>
+      <c r="B167" s="73"/>
       <c r="C167" s="39" t="s">
         <v>24</v>
       </c>
@@ -41263,8 +41240,8 @@
       <c r="GG167" s="59"/>
     </row>
     <row r="168" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A168" s="74"/>
-      <c r="B168" s="76"/>
+      <c r="A168" s="72"/>
+      <c r="B168" s="74"/>
       <c r="C168" s="8" t="s">
         <v>23</v>
       </c>
@@ -41456,8 +41433,8 @@
       <c r="GG168" s="59"/>
     </row>
     <row r="169" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A169" s="75"/>
-      <c r="B169" s="75"/>
+      <c r="A169" s="73"/>
+      <c r="B169" s="73"/>
       <c r="C169" s="39" t="s">
         <v>24</v>
       </c>
@@ -41649,8 +41626,8 @@
       <c r="GG169" s="59"/>
     </row>
     <row r="170" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A170" s="74"/>
-      <c r="B170" s="76"/>
+      <c r="A170" s="72"/>
+      <c r="B170" s="74"/>
       <c r="C170" s="8" t="s">
         <v>23</v>
       </c>
@@ -41842,8 +41819,8 @@
       <c r="GG170" s="59"/>
     </row>
     <row r="171" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A171" s="75"/>
-      <c r="B171" s="75"/>
+      <c r="A171" s="73"/>
+      <c r="B171" s="73"/>
       <c r="C171" s="39" t="s">
         <v>24</v>
       </c>
@@ -42035,8 +42012,8 @@
       <c r="GG171" s="59"/>
     </row>
     <row r="172" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A172" s="74"/>
-      <c r="B172" s="76"/>
+      <c r="A172" s="72"/>
+      <c r="B172" s="74"/>
       <c r="C172" s="8" t="s">
         <v>23</v>
       </c>
@@ -42228,8 +42205,8 @@
       <c r="GG172" s="59"/>
     </row>
     <row r="173" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A173" s="75"/>
-      <c r="B173" s="75"/>
+      <c r="A173" s="73"/>
+      <c r="B173" s="73"/>
       <c r="C173" s="39" t="s">
         <v>24</v>
       </c>
@@ -42421,8 +42398,8 @@
       <c r="GG173" s="59"/>
     </row>
     <row r="174" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A174" s="74"/>
-      <c r="B174" s="76"/>
+      <c r="A174" s="72"/>
+      <c r="B174" s="74"/>
       <c r="C174" s="8" t="s">
         <v>23</v>
       </c>
@@ -42614,8 +42591,8 @@
       <c r="GG174" s="59"/>
     </row>
     <row r="175" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A175" s="75"/>
-      <c r="B175" s="75"/>
+      <c r="A175" s="73"/>
+      <c r="B175" s="73"/>
       <c r="C175" s="39" t="s">
         <v>24</v>
       </c>
@@ -42807,8 +42784,8 @@
       <c r="GG175" s="59"/>
     </row>
     <row r="176" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A176" s="74"/>
-      <c r="B176" s="76"/>
+      <c r="A176" s="72"/>
+      <c r="B176" s="74"/>
       <c r="C176" s="8" t="s">
         <v>23</v>
       </c>
@@ -43000,8 +42977,8 @@
       <c r="GG176" s="59"/>
     </row>
     <row r="177" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A177" s="75"/>
-      <c r="B177" s="75"/>
+      <c r="A177" s="73"/>
+      <c r="B177" s="73"/>
       <c r="C177" s="39" t="s">
         <v>24</v>
       </c>
@@ -43193,8 +43170,8 @@
       <c r="GG177" s="59"/>
     </row>
     <row r="178" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A178" s="74"/>
-      <c r="B178" s="76"/>
+      <c r="A178" s="72"/>
+      <c r="B178" s="74"/>
       <c r="C178" s="8" t="s">
         <v>23</v>
       </c>
@@ -43386,8 +43363,8 @@
       <c r="GG178" s="59"/>
     </row>
     <row r="179" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A179" s="75"/>
-      <c r="B179" s="75"/>
+      <c r="A179" s="73"/>
+      <c r="B179" s="73"/>
       <c r="C179" s="39" t="s">
         <v>24</v>
       </c>
@@ -43579,8 +43556,8 @@
       <c r="GG179" s="59"/>
     </row>
     <row r="180" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A180" s="74"/>
-      <c r="B180" s="76"/>
+      <c r="A180" s="72"/>
+      <c r="B180" s="74"/>
       <c r="C180" s="8" t="s">
         <v>23</v>
       </c>
@@ -43772,8 +43749,8 @@
       <c r="GG180" s="59"/>
     </row>
     <row r="181" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A181" s="75"/>
-      <c r="B181" s="75"/>
+      <c r="A181" s="73"/>
+      <c r="B181" s="73"/>
       <c r="C181" s="39" t="s">
         <v>24</v>
       </c>
@@ -43965,8 +43942,8 @@
       <c r="GG181" s="59"/>
     </row>
     <row r="182" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A182" s="74"/>
-      <c r="B182" s="76"/>
+      <c r="A182" s="72"/>
+      <c r="B182" s="74"/>
       <c r="C182" s="8" t="s">
         <v>23</v>
       </c>
@@ -44158,8 +44135,8 @@
       <c r="GG182" s="59"/>
     </row>
     <row r="183" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A183" s="75"/>
-      <c r="B183" s="75"/>
+      <c r="A183" s="73"/>
+      <c r="B183" s="73"/>
       <c r="C183" s="39" t="s">
         <v>24</v>
       </c>
@@ -44351,8 +44328,8 @@
       <c r="GG183" s="59"/>
     </row>
     <row r="184" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A184" s="74"/>
-      <c r="B184" s="76"/>
+      <c r="A184" s="72"/>
+      <c r="B184" s="74"/>
       <c r="C184" s="8" t="s">
         <v>23</v>
       </c>
@@ -44544,8 +44521,8 @@
       <c r="GG184" s="59"/>
     </row>
     <row r="185" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A185" s="75"/>
-      <c r="B185" s="75"/>
+      <c r="A185" s="73"/>
+      <c r="B185" s="73"/>
       <c r="C185" s="39" t="s">
         <v>24</v>
       </c>
@@ -44737,8 +44714,8 @@
       <c r="GG185" s="59"/>
     </row>
     <row r="186" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A186" s="74"/>
-      <c r="B186" s="76"/>
+      <c r="A186" s="72"/>
+      <c r="B186" s="74"/>
       <c r="C186" s="8" t="s">
         <v>23</v>
       </c>
@@ -44930,8 +44907,8 @@
       <c r="GG186" s="59"/>
     </row>
     <row r="187" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A187" s="75"/>
-      <c r="B187" s="75"/>
+      <c r="A187" s="73"/>
+      <c r="B187" s="73"/>
       <c r="C187" s="39" t="s">
         <v>24</v>
       </c>
@@ -45123,8 +45100,8 @@
       <c r="GG187" s="59"/>
     </row>
     <row r="188" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A188" s="74"/>
-      <c r="B188" s="76"/>
+      <c r="A188" s="72"/>
+      <c r="B188" s="74"/>
       <c r="C188" s="8" t="s">
         <v>23</v>
       </c>
@@ -45316,8 +45293,8 @@
       <c r="GG188" s="59"/>
     </row>
     <row r="189" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A189" s="75"/>
-      <c r="B189" s="75"/>
+      <c r="A189" s="73"/>
+      <c r="B189" s="73"/>
       <c r="C189" s="39" t="s">
         <v>24</v>
       </c>
@@ -45509,8 +45486,8 @@
       <c r="GG189" s="59"/>
     </row>
     <row r="190" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A190" s="74"/>
-      <c r="B190" s="76"/>
+      <c r="A190" s="72"/>
+      <c r="B190" s="74"/>
       <c r="C190" s="8" t="s">
         <v>23</v>
       </c>
@@ -45702,8 +45679,8 @@
       <c r="GG190" s="59"/>
     </row>
     <row r="191" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A191" s="75"/>
-      <c r="B191" s="75"/>
+      <c r="A191" s="73"/>
+      <c r="B191" s="73"/>
       <c r="C191" s="39" t="s">
         <v>24</v>
       </c>
@@ -45895,8 +45872,8 @@
       <c r="GG191" s="59"/>
     </row>
     <row r="192" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A192" s="74"/>
-      <c r="B192" s="76"/>
+      <c r="A192" s="72"/>
+      <c r="B192" s="74"/>
       <c r="C192" s="8" t="s">
         <v>23</v>
       </c>
@@ -46088,8 +46065,8 @@
       <c r="GG192" s="59"/>
     </row>
     <row r="193" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A193" s="75"/>
-      <c r="B193" s="75"/>
+      <c r="A193" s="73"/>
+      <c r="B193" s="73"/>
       <c r="C193" s="39" t="s">
         <v>24</v>
       </c>
@@ -46281,8 +46258,8 @@
       <c r="GG193" s="59"/>
     </row>
     <row r="194" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A194" s="74"/>
-      <c r="B194" s="76"/>
+      <c r="A194" s="72"/>
+      <c r="B194" s="74"/>
       <c r="C194" s="8" t="s">
         <v>23</v>
       </c>
@@ -46474,8 +46451,8 @@
       <c r="GG194" s="59"/>
     </row>
     <row r="195" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A195" s="75"/>
-      <c r="B195" s="75"/>
+      <c r="A195" s="73"/>
+      <c r="B195" s="73"/>
       <c r="C195" s="39" t="s">
         <v>24</v>
       </c>
@@ -46667,8 +46644,8 @@
       <c r="GG195" s="59"/>
     </row>
     <row r="196" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A196" s="74"/>
-      <c r="B196" s="76"/>
+      <c r="A196" s="72"/>
+      <c r="B196" s="74"/>
       <c r="C196" s="8" t="s">
         <v>23</v>
       </c>
@@ -46860,8 +46837,8 @@
       <c r="GG196" s="59"/>
     </row>
     <row r="197" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A197" s="75"/>
-      <c r="B197" s="75"/>
+      <c r="A197" s="73"/>
+      <c r="B197" s="73"/>
       <c r="C197" s="39" t="s">
         <v>24</v>
       </c>
@@ -47053,8 +47030,8 @@
       <c r="GG197" s="59"/>
     </row>
     <row r="198" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A198" s="74"/>
-      <c r="B198" s="76"/>
+      <c r="A198" s="72"/>
+      <c r="B198" s="74"/>
       <c r="C198" s="8" t="s">
         <v>23</v>
       </c>
@@ -47246,8 +47223,8 @@
       <c r="GG198" s="59"/>
     </row>
     <row r="199" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A199" s="75"/>
-      <c r="B199" s="75"/>
+      <c r="A199" s="73"/>
+      <c r="B199" s="73"/>
       <c r="C199" s="39" t="s">
         <v>24</v>
       </c>
@@ -47439,8 +47416,8 @@
       <c r="GG199" s="59"/>
     </row>
     <row r="200" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A200" s="74"/>
-      <c r="B200" s="76"/>
+      <c r="A200" s="72"/>
+      <c r="B200" s="74"/>
       <c r="C200" s="8" t="s">
         <v>23</v>
       </c>
@@ -47632,8 +47609,8 @@
       <c r="GG200" s="59"/>
     </row>
     <row r="201" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A201" s="75"/>
-      <c r="B201" s="75"/>
+      <c r="A201" s="73"/>
+      <c r="B201" s="73"/>
       <c r="C201" s="39" t="s">
         <v>24</v>
       </c>
@@ -47825,8 +47802,8 @@
       <c r="GG201" s="59"/>
     </row>
     <row r="202" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A202" s="74"/>
-      <c r="B202" s="76"/>
+      <c r="A202" s="72"/>
+      <c r="B202" s="74"/>
       <c r="C202" s="8" t="s">
         <v>23</v>
       </c>
@@ -48018,8 +47995,8 @@
       <c r="GG202" s="59"/>
     </row>
     <row r="203" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A203" s="75"/>
-      <c r="B203" s="75"/>
+      <c r="A203" s="73"/>
+      <c r="B203" s="73"/>
       <c r="C203" s="39" t="s">
         <v>24</v>
       </c>
@@ -48211,8 +48188,8 @@
       <c r="GG203" s="59"/>
     </row>
     <row r="204" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A204" s="74"/>
-      <c r="B204" s="76"/>
+      <c r="A204" s="72"/>
+      <c r="B204" s="74"/>
       <c r="C204" s="8" t="s">
         <v>23</v>
       </c>
@@ -48404,8 +48381,8 @@
       <c r="GG204" s="59"/>
     </row>
     <row r="205" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A205" s="75"/>
-      <c r="B205" s="75"/>
+      <c r="A205" s="73"/>
+      <c r="B205" s="73"/>
       <c r="C205" s="39" t="s">
         <v>24</v>
       </c>
@@ -48597,8 +48574,8 @@
       <c r="GG205" s="59"/>
     </row>
     <row r="206" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A206" s="74"/>
-      <c r="B206" s="76"/>
+      <c r="A206" s="72"/>
+      <c r="B206" s="74"/>
       <c r="C206" s="8" t="s">
         <v>23</v>
       </c>
@@ -48790,8 +48767,8 @@
       <c r="GG206" s="59"/>
     </row>
     <row r="207" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A207" s="75"/>
-      <c r="B207" s="75"/>
+      <c r="A207" s="73"/>
+      <c r="B207" s="73"/>
       <c r="C207" s="39" t="s">
         <v>24</v>
       </c>
@@ -48983,8 +48960,8 @@
       <c r="GG207" s="59"/>
     </row>
     <row r="208" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A208" s="74"/>
-      <c r="B208" s="76"/>
+      <c r="A208" s="72"/>
+      <c r="B208" s="74"/>
       <c r="C208" s="8" t="s">
         <v>23</v>
       </c>
@@ -49176,8 +49153,8 @@
       <c r="GG208" s="59"/>
     </row>
     <row r="209" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A209" s="75"/>
-      <c r="B209" s="75"/>
+      <c r="A209" s="73"/>
+      <c r="B209" s="73"/>
       <c r="C209" s="39" t="s">
         <v>24</v>
       </c>
@@ -49369,8 +49346,8 @@
       <c r="GG209" s="59"/>
     </row>
     <row r="210" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A210" s="74"/>
-      <c r="B210" s="76"/>
+      <c r="A210" s="72"/>
+      <c r="B210" s="74"/>
       <c r="C210" s="8" t="s">
         <v>23</v>
       </c>
@@ -49562,8 +49539,8 @@
       <c r="GG210" s="59"/>
     </row>
     <row r="211" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A211" s="75"/>
-      <c r="B211" s="75"/>
+      <c r="A211" s="73"/>
+      <c r="B211" s="73"/>
       <c r="C211" s="39" t="s">
         <v>24</v>
       </c>
@@ -49755,8 +49732,8 @@
       <c r="GG211" s="59"/>
     </row>
     <row r="212" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A212" s="74"/>
-      <c r="B212" s="76"/>
+      <c r="A212" s="72"/>
+      <c r="B212" s="74"/>
       <c r="C212" s="8" t="s">
         <v>23</v>
       </c>
@@ -49948,8 +49925,8 @@
       <c r="GG212" s="59"/>
     </row>
     <row r="213" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A213" s="75"/>
-      <c r="B213" s="75"/>
+      <c r="A213" s="73"/>
+      <c r="B213" s="73"/>
       <c r="C213" s="39" t="s">
         <v>24</v>
       </c>
@@ -50141,8 +50118,8 @@
       <c r="GG213" s="59"/>
     </row>
     <row r="214" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A214" s="74"/>
-      <c r="B214" s="76"/>
+      <c r="A214" s="72"/>
+      <c r="B214" s="74"/>
       <c r="C214" s="8" t="s">
         <v>23</v>
       </c>
@@ -50334,8 +50311,8 @@
       <c r="GG214" s="59"/>
     </row>
     <row r="215" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A215" s="75"/>
-      <c r="B215" s="75"/>
+      <c r="A215" s="73"/>
+      <c r="B215" s="73"/>
       <c r="C215" s="39" t="s">
         <v>24</v>
       </c>
@@ -50527,8 +50504,8 @@
       <c r="GG215" s="59"/>
     </row>
     <row r="216" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A216" s="74"/>
-      <c r="B216" s="76"/>
+      <c r="A216" s="72"/>
+      <c r="B216" s="74"/>
       <c r="C216" s="8" t="s">
         <v>23</v>
       </c>
@@ -50720,8 +50697,8 @@
       <c r="GG216" s="59"/>
     </row>
     <row r="217" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A217" s="75"/>
-      <c r="B217" s="75"/>
+      <c r="A217" s="73"/>
+      <c r="B217" s="73"/>
       <c r="C217" s="39" t="s">
         <v>24</v>
       </c>
@@ -50913,8 +50890,8 @@
       <c r="GG217" s="59"/>
     </row>
     <row r="218" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A218" s="74"/>
-      <c r="B218" s="76"/>
+      <c r="A218" s="72"/>
+      <c r="B218" s="74"/>
       <c r="C218" s="8" t="s">
         <v>23</v>
       </c>
@@ -51106,8 +51083,8 @@
       <c r="GG218" s="59"/>
     </row>
     <row r="219" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A219" s="75"/>
-      <c r="B219" s="75"/>
+      <c r="A219" s="73"/>
+      <c r="B219" s="73"/>
       <c r="C219" s="39" t="s">
         <v>24</v>
       </c>
@@ -51299,8 +51276,8 @@
       <c r="GG219" s="59"/>
     </row>
     <row r="220" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A220" s="74"/>
-      <c r="B220" s="76"/>
+      <c r="A220" s="72"/>
+      <c r="B220" s="74"/>
       <c r="C220" s="8" t="s">
         <v>23</v>
       </c>
@@ -51492,8 +51469,8 @@
       <c r="GG220" s="59"/>
     </row>
     <row r="221" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A221" s="75"/>
-      <c r="B221" s="75"/>
+      <c r="A221" s="73"/>
+      <c r="B221" s="73"/>
       <c r="C221" s="39" t="s">
         <v>24</v>
       </c>
@@ -51685,8 +51662,8 @@
       <c r="GG221" s="59"/>
     </row>
     <row r="222" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A222" s="74"/>
-      <c r="B222" s="76"/>
+      <c r="A222" s="72"/>
+      <c r="B222" s="74"/>
       <c r="C222" s="8" t="s">
         <v>23</v>
       </c>
@@ -51878,8 +51855,8 @@
       <c r="GG222" s="59"/>
     </row>
     <row r="223" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A223" s="75"/>
-      <c r="B223" s="75"/>
+      <c r="A223" s="73"/>
+      <c r="B223" s="73"/>
       <c r="C223" s="39" t="s">
         <v>24</v>
       </c>
@@ -52071,8 +52048,8 @@
       <c r="GG223" s="59"/>
     </row>
     <row r="224" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A224" s="74"/>
-      <c r="B224" s="76"/>
+      <c r="A224" s="72"/>
+      <c r="B224" s="74"/>
       <c r="C224" s="8" t="s">
         <v>23</v>
       </c>
@@ -52264,8 +52241,8 @@
       <c r="GG224" s="59"/>
     </row>
     <row r="225" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A225" s="75"/>
-      <c r="B225" s="75"/>
+      <c r="A225" s="73"/>
+      <c r="B225" s="73"/>
       <c r="C225" s="39" t="s">
         <v>24</v>
       </c>
@@ -52457,8 +52434,8 @@
       <c r="GG225" s="59"/>
     </row>
     <row r="226" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A226" s="74"/>
-      <c r="B226" s="76"/>
+      <c r="A226" s="72"/>
+      <c r="B226" s="74"/>
       <c r="C226" s="8" t="s">
         <v>23</v>
       </c>
@@ -52650,8 +52627,8 @@
       <c r="GG226" s="59"/>
     </row>
     <row r="227" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A227" s="75"/>
-      <c r="B227" s="75"/>
+      <c r="A227" s="73"/>
+      <c r="B227" s="73"/>
       <c r="C227" s="39" t="s">
         <v>24</v>
       </c>
@@ -52843,8 +52820,8 @@
       <c r="GG227" s="59"/>
     </row>
     <row r="228" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A228" s="74"/>
-      <c r="B228" s="76"/>
+      <c r="A228" s="72"/>
+      <c r="B228" s="74"/>
       <c r="C228" s="8" t="s">
         <v>23</v>
       </c>
@@ -53036,8 +53013,8 @@
       <c r="GG228" s="59"/>
     </row>
     <row r="229" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A229" s="75"/>
-      <c r="B229" s="75"/>
+      <c r="A229" s="73"/>
+      <c r="B229" s="73"/>
       <c r="C229" s="39" t="s">
         <v>24</v>
       </c>
@@ -53229,8 +53206,8 @@
       <c r="GG229" s="59"/>
     </row>
     <row r="230" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A230" s="74"/>
-      <c r="B230" s="76"/>
+      <c r="A230" s="72"/>
+      <c r="B230" s="74"/>
       <c r="C230" s="8" t="s">
         <v>23</v>
       </c>
@@ -53422,8 +53399,8 @@
       <c r="GG230" s="59"/>
     </row>
     <row r="231" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A231" s="75"/>
-      <c r="B231" s="75"/>
+      <c r="A231" s="73"/>
+      <c r="B231" s="73"/>
       <c r="C231" s="39" t="s">
         <v>24</v>
       </c>
@@ -53615,8 +53592,8 @@
       <c r="GG231" s="59"/>
     </row>
     <row r="232" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A232" s="74"/>
-      <c r="B232" s="76"/>
+      <c r="A232" s="72"/>
+      <c r="B232" s="74"/>
       <c r="C232" s="8" t="s">
         <v>23</v>
       </c>
@@ -53808,8 +53785,8 @@
       <c r="GG232" s="59"/>
     </row>
     <row r="233" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A233" s="75"/>
-      <c r="B233" s="75"/>
+      <c r="A233" s="73"/>
+      <c r="B233" s="73"/>
       <c r="C233" s="39" t="s">
         <v>24</v>
       </c>
@@ -54001,8 +53978,8 @@
       <c r="GG233" s="59"/>
     </row>
     <row r="234" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A234" s="74"/>
-      <c r="B234" s="76"/>
+      <c r="A234" s="72"/>
+      <c r="B234" s="74"/>
       <c r="C234" s="8" t="s">
         <v>23</v>
       </c>
@@ -54194,8 +54171,8 @@
       <c r="GG234" s="59"/>
     </row>
     <row r="235" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A235" s="75"/>
-      <c r="B235" s="75"/>
+      <c r="A235" s="73"/>
+      <c r="B235" s="73"/>
       <c r="C235" s="39" t="s">
         <v>24</v>
       </c>
@@ -54387,8 +54364,8 @@
       <c r="GG235" s="59"/>
     </row>
     <row r="236" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A236" s="74"/>
-      <c r="B236" s="76"/>
+      <c r="A236" s="72"/>
+      <c r="B236" s="74"/>
       <c r="C236" s="8" t="s">
         <v>23</v>
       </c>
@@ -54580,8 +54557,8 @@
       <c r="GG236" s="59"/>
     </row>
     <row r="237" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A237" s="75"/>
-      <c r="B237" s="75"/>
+      <c r="A237" s="73"/>
+      <c r="B237" s="73"/>
       <c r="C237" s="39" t="s">
         <v>24</v>
       </c>
@@ -54773,8 +54750,8 @@
       <c r="GG237" s="59"/>
     </row>
     <row r="238" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A238" s="74"/>
-      <c r="B238" s="76"/>
+      <c r="A238" s="72"/>
+      <c r="B238" s="74"/>
       <c r="C238" s="8" t="s">
         <v>23</v>
       </c>
@@ -54966,8 +54943,8 @@
       <c r="GG238" s="59"/>
     </row>
     <row r="239" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A239" s="75"/>
-      <c r="B239" s="75"/>
+      <c r="A239" s="73"/>
+      <c r="B239" s="73"/>
       <c r="C239" s="39" t="s">
         <v>24</v>
       </c>
@@ -55159,8 +55136,8 @@
       <c r="GG239" s="59"/>
     </row>
     <row r="240" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A240" s="74"/>
-      <c r="B240" s="76"/>
+      <c r="A240" s="72"/>
+      <c r="B240" s="74"/>
       <c r="C240" s="8" t="s">
         <v>23</v>
       </c>
@@ -55352,8 +55329,8 @@
       <c r="GG240" s="59"/>
     </row>
     <row r="241" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A241" s="75"/>
-      <c r="B241" s="75"/>
+      <c r="A241" s="73"/>
+      <c r="B241" s="73"/>
       <c r="C241" s="39" t="s">
         <v>24</v>
       </c>
@@ -55545,8 +55522,8 @@
       <c r="GG241" s="59"/>
     </row>
     <row r="242" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A242" s="74"/>
-      <c r="B242" s="76"/>
+      <c r="A242" s="72"/>
+      <c r="B242" s="74"/>
       <c r="C242" s="8" t="s">
         <v>23</v>
       </c>
@@ -55738,8 +55715,8 @@
       <c r="GG242" s="59"/>
     </row>
     <row r="243" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A243" s="75"/>
-      <c r="B243" s="75"/>
+      <c r="A243" s="73"/>
+      <c r="B243" s="73"/>
       <c r="C243" s="39" t="s">
         <v>24</v>
       </c>
@@ -55931,8 +55908,8 @@
       <c r="GG243" s="59"/>
     </row>
     <row r="244" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A244" s="74"/>
-      <c r="B244" s="76"/>
+      <c r="A244" s="72"/>
+      <c r="B244" s="74"/>
       <c r="C244" s="8" t="s">
         <v>23</v>
       </c>
@@ -56124,8 +56101,8 @@
       <c r="GG244" s="59"/>
     </row>
     <row r="245" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A245" s="75"/>
-      <c r="B245" s="75"/>
+      <c r="A245" s="73"/>
+      <c r="B245" s="73"/>
       <c r="C245" s="39" t="s">
         <v>24</v>
       </c>
@@ -56317,8 +56294,8 @@
       <c r="GG245" s="59"/>
     </row>
     <row r="246" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A246" s="74"/>
-      <c r="B246" s="76"/>
+      <c r="A246" s="72"/>
+      <c r="B246" s="74"/>
       <c r="C246" s="8" t="s">
         <v>23</v>
       </c>
@@ -56510,8 +56487,8 @@
       <c r="GG246" s="59"/>
     </row>
     <row r="247" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A247" s="75"/>
-      <c r="B247" s="75"/>
+      <c r="A247" s="73"/>
+      <c r="B247" s="73"/>
       <c r="C247" s="39" t="s">
         <v>24</v>
       </c>
@@ -56703,8 +56680,8 @@
       <c r="GG247" s="59"/>
     </row>
     <row r="248" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A248" s="74"/>
-      <c r="B248" s="76"/>
+      <c r="A248" s="72"/>
+      <c r="B248" s="74"/>
       <c r="C248" s="8" t="s">
         <v>23</v>
       </c>
@@ -56896,8 +56873,8 @@
       <c r="GG248" s="59"/>
     </row>
     <row r="249" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A249" s="75"/>
-      <c r="B249" s="75"/>
+      <c r="A249" s="73"/>
+      <c r="B249" s="73"/>
       <c r="C249" s="39" t="s">
         <v>24</v>
       </c>
@@ -57089,8 +57066,8 @@
       <c r="GG249" s="59"/>
     </row>
     <row r="250" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A250" s="74"/>
-      <c r="B250" s="76"/>
+      <c r="A250" s="72"/>
+      <c r="B250" s="74"/>
       <c r="C250" s="8" t="s">
         <v>23</v>
       </c>
@@ -57282,8 +57259,8 @@
       <c r="GG250" s="59"/>
     </row>
     <row r="251" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A251" s="75"/>
-      <c r="B251" s="75"/>
+      <c r="A251" s="73"/>
+      <c r="B251" s="73"/>
       <c r="C251" s="39" t="s">
         <v>24</v>
       </c>
@@ -57475,8 +57452,8 @@
       <c r="GG251" s="59"/>
     </row>
     <row r="252" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A252" s="74"/>
-      <c r="B252" s="76"/>
+      <c r="A252" s="72"/>
+      <c r="B252" s="74"/>
       <c r="C252" s="8" t="s">
         <v>23</v>
       </c>
@@ -57668,8 +57645,8 @@
       <c r="GG252" s="59"/>
     </row>
     <row r="253" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A253" s="75"/>
-      <c r="B253" s="75"/>
+      <c r="A253" s="73"/>
+      <c r="B253" s="73"/>
       <c r="C253" s="39" t="s">
         <v>24</v>
       </c>
@@ -57861,8 +57838,8 @@
       <c r="GG253" s="59"/>
     </row>
     <row r="254" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A254" s="74"/>
-      <c r="B254" s="76"/>
+      <c r="A254" s="72"/>
+      <c r="B254" s="74"/>
       <c r="C254" s="8" t="s">
         <v>23</v>
       </c>
@@ -58054,8 +58031,8 @@
       <c r="GG254" s="59"/>
     </row>
     <row r="255" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A255" s="75"/>
-      <c r="B255" s="75"/>
+      <c r="A255" s="73"/>
+      <c r="B255" s="73"/>
       <c r="C255" s="39" t="s">
         <v>24</v>
       </c>
@@ -58247,8 +58224,8 @@
       <c r="GG255" s="59"/>
     </row>
     <row r="256" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A256" s="74"/>
-      <c r="B256" s="76"/>
+      <c r="A256" s="72"/>
+      <c r="B256" s="74"/>
       <c r="C256" s="8" t="s">
         <v>23</v>
       </c>
@@ -58440,8 +58417,8 @@
       <c r="GG256" s="59"/>
     </row>
     <row r="257" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A257" s="75"/>
-      <c r="B257" s="75"/>
+      <c r="A257" s="73"/>
+      <c r="B257" s="73"/>
       <c r="C257" s="39" t="s">
         <v>24</v>
       </c>
@@ -58633,8 +58610,8 @@
       <c r="GG257" s="59"/>
     </row>
     <row r="258" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A258" s="74"/>
-      <c r="B258" s="76"/>
+      <c r="A258" s="72"/>
+      <c r="B258" s="74"/>
       <c r="C258" s="8" t="s">
         <v>23</v>
       </c>
@@ -58826,8 +58803,8 @@
       <c r="GG258" s="59"/>
     </row>
     <row r="259" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A259" s="75"/>
-      <c r="B259" s="75"/>
+      <c r="A259" s="73"/>
+      <c r="B259" s="73"/>
       <c r="C259" s="39" t="s">
         <v>24</v>
       </c>
@@ -59019,8 +58996,8 @@
       <c r="GG259" s="59"/>
     </row>
     <row r="260" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A260" s="74"/>
-      <c r="B260" s="76"/>
+      <c r="A260" s="72"/>
+      <c r="B260" s="74"/>
       <c r="C260" s="8" t="s">
         <v>23</v>
       </c>
@@ -59212,8 +59189,8 @@
       <c r="GG260" s="59"/>
     </row>
     <row r="261" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A261" s="75"/>
-      <c r="B261" s="75"/>
+      <c r="A261" s="73"/>
+      <c r="B261" s="73"/>
       <c r="C261" s="39" t="s">
         <v>24</v>
       </c>
@@ -61662,6 +61639,386 @@
     </row>
   </sheetData>
   <mergeCells count="404">
+    <mergeCell ref="JK11:JM11"/>
+    <mergeCell ref="JN11:JP11"/>
+    <mergeCell ref="JQ11:JS11"/>
+    <mergeCell ref="JT11:JV11"/>
+    <mergeCell ref="JW11:JY11"/>
+    <mergeCell ref="JZ11:KB11"/>
+    <mergeCell ref="KC11:KE11"/>
+    <mergeCell ref="IJ11:IL11"/>
+    <mergeCell ref="IM11:IO11"/>
+    <mergeCell ref="IP11:IR11"/>
+    <mergeCell ref="IS11:IU11"/>
+    <mergeCell ref="IV11:IX11"/>
+    <mergeCell ref="IY11:JA11"/>
+    <mergeCell ref="JB11:JD11"/>
+    <mergeCell ref="JE11:JG11"/>
+    <mergeCell ref="JH11:JJ11"/>
+    <mergeCell ref="HI11:HK11"/>
+    <mergeCell ref="HL11:HN11"/>
+    <mergeCell ref="HO11:HQ11"/>
+    <mergeCell ref="HR11:HT11"/>
+    <mergeCell ref="HU11:HW11"/>
+    <mergeCell ref="HX11:HZ11"/>
+    <mergeCell ref="IA11:IC11"/>
+    <mergeCell ref="ID11:IF11"/>
+    <mergeCell ref="IG11:II11"/>
+    <mergeCell ref="GH11:GJ11"/>
+    <mergeCell ref="GK11:GM11"/>
+    <mergeCell ref="GN11:GP11"/>
+    <mergeCell ref="GQ11:GS11"/>
+    <mergeCell ref="GT11:GV11"/>
+    <mergeCell ref="GW11:GY11"/>
+    <mergeCell ref="GZ11:HB11"/>
+    <mergeCell ref="HC11:HE11"/>
+    <mergeCell ref="HF11:HH11"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="FS24:FU24"/>
+    <mergeCell ref="FV24:FX24"/>
+    <mergeCell ref="FY24:GA24"/>
+    <mergeCell ref="GB24:GD24"/>
+    <mergeCell ref="GE24:GG24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="ER24:ET24"/>
+    <mergeCell ref="EU24:EW24"/>
+    <mergeCell ref="EX24:EZ24"/>
+    <mergeCell ref="FA24:FC24"/>
+    <mergeCell ref="FD24:FF24"/>
+    <mergeCell ref="FG24:FI24"/>
+    <mergeCell ref="FJ24:FL24"/>
+    <mergeCell ref="FM24:FO24"/>
+    <mergeCell ref="FP24:FR24"/>
+    <mergeCell ref="DQ24:DS24"/>
+    <mergeCell ref="DT24:DV24"/>
+    <mergeCell ref="DW24:DY24"/>
+    <mergeCell ref="DZ24:EB24"/>
+    <mergeCell ref="EC24:EE24"/>
+    <mergeCell ref="EF24:EH24"/>
+    <mergeCell ref="CD24:CF24"/>
+    <mergeCell ref="CG24:CI24"/>
+    <mergeCell ref="CJ24:CL24"/>
+    <mergeCell ref="CM24:CO24"/>
+    <mergeCell ref="EI24:EK24"/>
+    <mergeCell ref="EL24:EN24"/>
+    <mergeCell ref="EO24:EQ24"/>
+    <mergeCell ref="CP24:CR24"/>
+    <mergeCell ref="CS24:CU24"/>
+    <mergeCell ref="CV24:CX24"/>
+    <mergeCell ref="CY24:DA24"/>
+    <mergeCell ref="DB24:DD24"/>
+    <mergeCell ref="DE24:DG24"/>
+    <mergeCell ref="DH24:DJ24"/>
+    <mergeCell ref="DK24:DM24"/>
+    <mergeCell ref="DN24:DP24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="BF24:BH24"/>
+    <mergeCell ref="BI24:BK24"/>
+    <mergeCell ref="BL24:BN24"/>
+    <mergeCell ref="BO24:BQ24"/>
+    <mergeCell ref="BR24:BT24"/>
+    <mergeCell ref="BU24:BW24"/>
+    <mergeCell ref="BX24:BZ24"/>
+    <mergeCell ref="CA24:CC24"/>
+    <mergeCell ref="BF11:BH11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="AQ24:AS24"/>
+    <mergeCell ref="AT24:AV24"/>
+    <mergeCell ref="AW24:AY24"/>
+    <mergeCell ref="AZ24:BB24"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AQ11:AS11"/>
+    <mergeCell ref="AT11:AV11"/>
+    <mergeCell ref="AW11:AY11"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="BI11:BK11"/>
+    <mergeCell ref="BL11:BN11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BR11:BT11"/>
+    <mergeCell ref="BU11:BW11"/>
+    <mergeCell ref="BX11:BZ11"/>
+    <mergeCell ref="CA11:CC11"/>
+    <mergeCell ref="CD11:CF11"/>
+    <mergeCell ref="CG11:CI11"/>
+    <mergeCell ref="EC11:EE11"/>
+    <mergeCell ref="EF11:EH11"/>
+    <mergeCell ref="EI11:EK11"/>
+    <mergeCell ref="CJ11:CL11"/>
+    <mergeCell ref="CM11:CO11"/>
+    <mergeCell ref="CP11:CR11"/>
+    <mergeCell ref="CS11:CU11"/>
+    <mergeCell ref="CV11:CX11"/>
+    <mergeCell ref="CY11:DA11"/>
+    <mergeCell ref="DB11:DD11"/>
+    <mergeCell ref="DE11:DG11"/>
+    <mergeCell ref="DH11:DJ11"/>
+    <mergeCell ref="FM11:FO11"/>
+    <mergeCell ref="FP11:FR11"/>
+    <mergeCell ref="FS11:FU11"/>
+    <mergeCell ref="FV11:FX11"/>
+    <mergeCell ref="FY11:GA11"/>
+    <mergeCell ref="GB11:GD11"/>
+    <mergeCell ref="GE11:GG11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="EL11:EN11"/>
+    <mergeCell ref="EO11:EQ11"/>
+    <mergeCell ref="ER11:ET11"/>
+    <mergeCell ref="EU11:EW11"/>
+    <mergeCell ref="EX11:EZ11"/>
+    <mergeCell ref="FA11:FC11"/>
+    <mergeCell ref="FD11:FF11"/>
+    <mergeCell ref="FG11:FI11"/>
+    <mergeCell ref="FJ11:FL11"/>
+    <mergeCell ref="DK11:DM11"/>
+    <mergeCell ref="DN11:DP11"/>
+    <mergeCell ref="DQ11:DS11"/>
+    <mergeCell ref="DT11:DV11"/>
+    <mergeCell ref="DW11:DY11"/>
+    <mergeCell ref="DZ11:EB11"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
     <mergeCell ref="A254:A255"/>
     <mergeCell ref="B254:B255"/>
     <mergeCell ref="A256:A257"/>
@@ -61686,386 +62043,6 @@
     <mergeCell ref="B234:B235"/>
     <mergeCell ref="A236:A237"/>
     <mergeCell ref="B236:B237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="FM11:FO11"/>
-    <mergeCell ref="FP11:FR11"/>
-    <mergeCell ref="FS11:FU11"/>
-    <mergeCell ref="FV11:FX11"/>
-    <mergeCell ref="FY11:GA11"/>
-    <mergeCell ref="GB11:GD11"/>
-    <mergeCell ref="GE11:GG11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="EL11:EN11"/>
-    <mergeCell ref="EO11:EQ11"/>
-    <mergeCell ref="ER11:ET11"/>
-    <mergeCell ref="EU11:EW11"/>
-    <mergeCell ref="EX11:EZ11"/>
-    <mergeCell ref="FA11:FC11"/>
-    <mergeCell ref="FD11:FF11"/>
-    <mergeCell ref="FG11:FI11"/>
-    <mergeCell ref="FJ11:FL11"/>
-    <mergeCell ref="DK11:DM11"/>
-    <mergeCell ref="DN11:DP11"/>
-    <mergeCell ref="DQ11:DS11"/>
-    <mergeCell ref="DT11:DV11"/>
-    <mergeCell ref="DW11:DY11"/>
-    <mergeCell ref="DZ11:EB11"/>
-    <mergeCell ref="EC11:EE11"/>
-    <mergeCell ref="EF11:EH11"/>
-    <mergeCell ref="EI11:EK11"/>
-    <mergeCell ref="CJ11:CL11"/>
-    <mergeCell ref="CM11:CO11"/>
-    <mergeCell ref="CP11:CR11"/>
-    <mergeCell ref="CS11:CU11"/>
-    <mergeCell ref="CV11:CX11"/>
-    <mergeCell ref="CY11:DA11"/>
-    <mergeCell ref="DB11:DD11"/>
-    <mergeCell ref="DE11:DG11"/>
-    <mergeCell ref="DH11:DJ11"/>
-    <mergeCell ref="BI11:BK11"/>
-    <mergeCell ref="BL11:BN11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BR11:BT11"/>
-    <mergeCell ref="BU11:BW11"/>
-    <mergeCell ref="BX11:BZ11"/>
-    <mergeCell ref="CA11:CC11"/>
-    <mergeCell ref="CD11:CF11"/>
-    <mergeCell ref="CG11:CI11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AQ11:AS11"/>
-    <mergeCell ref="AT11:AV11"/>
-    <mergeCell ref="AW11:AY11"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="BF11:BH11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="AQ24:AS24"/>
-    <mergeCell ref="AT24:AV24"/>
-    <mergeCell ref="AW24:AY24"/>
-    <mergeCell ref="AZ24:BB24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="BF24:BH24"/>
-    <mergeCell ref="BI24:BK24"/>
-    <mergeCell ref="BL24:BN24"/>
-    <mergeCell ref="BO24:BQ24"/>
-    <mergeCell ref="BR24:BT24"/>
-    <mergeCell ref="BU24:BW24"/>
-    <mergeCell ref="BX24:BZ24"/>
-    <mergeCell ref="CA24:CC24"/>
-    <mergeCell ref="CD24:CF24"/>
-    <mergeCell ref="CG24:CI24"/>
-    <mergeCell ref="CJ24:CL24"/>
-    <mergeCell ref="CM24:CO24"/>
-    <mergeCell ref="EI24:EK24"/>
-    <mergeCell ref="EL24:EN24"/>
-    <mergeCell ref="EO24:EQ24"/>
-    <mergeCell ref="CP24:CR24"/>
-    <mergeCell ref="CS24:CU24"/>
-    <mergeCell ref="CV24:CX24"/>
-    <mergeCell ref="CY24:DA24"/>
-    <mergeCell ref="DB24:DD24"/>
-    <mergeCell ref="DE24:DG24"/>
-    <mergeCell ref="DH24:DJ24"/>
-    <mergeCell ref="DK24:DM24"/>
-    <mergeCell ref="DN24:DP24"/>
-    <mergeCell ref="FS24:FU24"/>
-    <mergeCell ref="FV24:FX24"/>
-    <mergeCell ref="FY24:GA24"/>
-    <mergeCell ref="GB24:GD24"/>
-    <mergeCell ref="GE24:GG24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="ER24:ET24"/>
-    <mergeCell ref="EU24:EW24"/>
-    <mergeCell ref="EX24:EZ24"/>
-    <mergeCell ref="FA24:FC24"/>
-    <mergeCell ref="FD24:FF24"/>
-    <mergeCell ref="FG24:FI24"/>
-    <mergeCell ref="FJ24:FL24"/>
-    <mergeCell ref="FM24:FO24"/>
-    <mergeCell ref="FP24:FR24"/>
-    <mergeCell ref="DQ24:DS24"/>
-    <mergeCell ref="DT24:DV24"/>
-    <mergeCell ref="DW24:DY24"/>
-    <mergeCell ref="DZ24:EB24"/>
-    <mergeCell ref="EC24:EE24"/>
-    <mergeCell ref="EF24:EH24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="GH11:GJ11"/>
-    <mergeCell ref="GK11:GM11"/>
-    <mergeCell ref="GN11:GP11"/>
-    <mergeCell ref="GQ11:GS11"/>
-    <mergeCell ref="GT11:GV11"/>
-    <mergeCell ref="GW11:GY11"/>
-    <mergeCell ref="GZ11:HB11"/>
-    <mergeCell ref="HC11:HE11"/>
-    <mergeCell ref="HF11:HH11"/>
-    <mergeCell ref="HI11:HK11"/>
-    <mergeCell ref="HL11:HN11"/>
-    <mergeCell ref="HO11:HQ11"/>
-    <mergeCell ref="HR11:HT11"/>
-    <mergeCell ref="HU11:HW11"/>
-    <mergeCell ref="HX11:HZ11"/>
-    <mergeCell ref="IA11:IC11"/>
-    <mergeCell ref="ID11:IF11"/>
-    <mergeCell ref="IG11:II11"/>
-    <mergeCell ref="JK11:JM11"/>
-    <mergeCell ref="JN11:JP11"/>
-    <mergeCell ref="JQ11:JS11"/>
-    <mergeCell ref="JT11:JV11"/>
-    <mergeCell ref="JW11:JY11"/>
-    <mergeCell ref="JZ11:KB11"/>
-    <mergeCell ref="KC11:KE11"/>
-    <mergeCell ref="IJ11:IL11"/>
-    <mergeCell ref="IM11:IO11"/>
-    <mergeCell ref="IP11:IR11"/>
-    <mergeCell ref="IS11:IU11"/>
-    <mergeCell ref="IV11:IX11"/>
-    <mergeCell ref="IY11:JA11"/>
-    <mergeCell ref="JB11:JD11"/>
-    <mergeCell ref="JE11:JG11"/>
-    <mergeCell ref="JH11:JJ11"/>
   </mergeCells>
   <conditionalFormatting sqref="D14:F14">
     <cfRule type="expression" dxfId="699" priority="892">
